--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfd74915eb265310/Teaching/1810ICT/Assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicdonaldson/Software Technologies/Assignment/2810ICT-2022-Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF8D0076-DE52-7D4B-9911-766ADE50FD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9516"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -36,90 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>PERIODS</t>
   </si>
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 01</t>
-  </si>
-  <si>
-    <t>Activity 02</t>
-  </si>
-  <si>
-    <t>Activity 03</t>
-  </si>
-  <si>
-    <t>Activity 04</t>
-  </si>
-  <si>
-    <t>Activity 05</t>
-  </si>
-  <si>
-    <t>Activity 06</t>
-  </si>
-  <si>
-    <t>Activity 07</t>
-  </si>
-  <si>
-    <t>Activity 08</t>
-  </si>
-  <si>
-    <t>Activity 09</t>
-  </si>
-  <si>
-    <t>Activity 10</t>
-  </si>
-  <si>
-    <t>Activity 11</t>
-  </si>
-  <si>
-    <t>Activity 12</t>
-  </si>
-  <si>
-    <t>Activity 13</t>
-  </si>
-  <si>
-    <t>Activity 14</t>
-  </si>
-  <si>
-    <t>Activity 15</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 24</t>
-  </si>
-  <si>
-    <t>Activity 25</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
   </si>
   <si>
     <r>
@@ -230,40 +153,133 @@
     <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
   </si>
   <si>
-    <t>Activity 27</t>
-  </si>
-  <si>
-    <t>Activity 28</t>
-  </si>
-  <si>
-    <t>Activity 29</t>
-  </si>
-  <si>
-    <t>Activity 30</t>
-  </si>
-  <si>
-    <t>Activity 31</t>
-  </si>
-  <si>
-    <t>Activity 32</t>
-  </si>
-  <si>
-    <t>Activity 33</t>
-  </si>
-  <si>
-    <t>Activity 34</t>
-  </si>
-  <si>
-    <t>Activity 35</t>
-  </si>
-  <si>
-    <t>Project Title</t>
+    <t>Accident Analysis Software</t>
+  </si>
+  <si>
+    <t>1. Conceptualise</t>
+  </si>
+  <si>
+    <t>1.1 Understanding Project Requirements</t>
+  </si>
+  <si>
+    <t>1.2 Outcomes of the Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3 Dataset Decision </t>
+  </si>
+  <si>
+    <t>1.4 Expectations</t>
+  </si>
+  <si>
+    <t>1.5 Github Repository Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6 Research </t>
+  </si>
+  <si>
+    <t>1.7 Git &amp; Github Training</t>
+  </si>
+  <si>
+    <t>2. Planning</t>
+  </si>
+  <si>
+    <t>2.1 Work Breakdown Structure</t>
+  </si>
+  <si>
+    <t>2.2 Gantt Chart</t>
+  </si>
+  <si>
+    <t>2.3 Project Plan Introduction</t>
+  </si>
+  <si>
+    <t>2.4 Activity Definition &amp; Estimation</t>
+  </si>
+  <si>
+    <t>2.5 System Vision &amp; Requirements</t>
+  </si>
+  <si>
+    <t>2.6 Software and User Interface Design Plan</t>
+  </si>
+  <si>
+    <t>2.7 Part A Submission</t>
+  </si>
+  <si>
+    <t>3. Devlopment</t>
+  </si>
+  <si>
+    <t>3.1 Required Feature 1</t>
+  </si>
+  <si>
+    <t>3.2 Required Feature 2</t>
+  </si>
+  <si>
+    <t>3.3 Required Feature 3</t>
+  </si>
+  <si>
+    <t>3.4 Required Feature 4</t>
+  </si>
+  <si>
+    <t>3.5 Required Feature 5</t>
+  </si>
+  <si>
+    <t>3.6 Software Design</t>
+  </si>
+  <si>
+    <t>3.7 User Interface Design</t>
+  </si>
+  <si>
+    <t>4. Final Prep</t>
+  </si>
+  <si>
+    <t>4.1 Testing Plan</t>
+  </si>
+  <si>
+    <t>4.2 Unit Tests &amp; Coverage Test Results</t>
+  </si>
+  <si>
+    <t>4.3 Update Project Plan</t>
+  </si>
+  <si>
+    <t>4.4 Update System Design Document</t>
+  </si>
+  <si>
+    <t>4.5 Update Gantt Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6 Executive Summary </t>
+  </si>
+  <si>
+    <t>4.7 Instruction Booklet/User Manual</t>
+  </si>
+  <si>
+    <t>5. Release</t>
+  </si>
+  <si>
+    <t>5.1 Software Release</t>
+  </si>
+  <si>
+    <t>5.2 Release Analysis</t>
+  </si>
+  <si>
+    <t>5.3 Necessary Updates</t>
+  </si>
+  <si>
+    <t>5.4 Support</t>
+  </si>
+  <si>
+    <t>5.5 Final Check &amp; Consolidation</t>
+  </si>
+  <si>
+    <t>5.6 Part B Submission</t>
+  </si>
+  <si>
+    <t>5.7 Reflection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,42 +634,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -666,35 +688,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% complete" xfId="16"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="18"/>
-    <cellStyle name="Activity" xfId="2"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="17"/>
-    <cellStyle name="Actual legend" xfId="15"/>
+    <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5"/>
+    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6"/>
-    <cellStyle name="Period Headers" xfId="3"/>
-    <cellStyle name="Period Highlight Control" xfId="7"/>
-    <cellStyle name="Period Value" xfId="13"/>
-    <cellStyle name="Plan legend" xfId="14"/>
-    <cellStyle name="Project Headers" xfId="4"/>
+    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="57">
     <dxf>
       <fill>
         <patternFill>
@@ -811,6 +827,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -822,17 +866,545 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="9" tint="0.59996337778862885"/>
         </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
           <color theme="7"/>
-        </top>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1189,33 +1761,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO39"/>
+  <dimension ref="B1:BO44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="27" width="2.77734375" style="1"/>
-    <col min="42" max="42" width="2.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="2.83203125" style="1"/>
+    <col min="42" max="42" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="14" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1223,23 +1795,23 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="5" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="H2" s="15">
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="30" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
@@ -1247,58 +1819,58 @@
       <c r="O2" s="32"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="30" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="R2" s="33"/>
       <c r="S2" s="33"/>
       <c r="T2" s="32"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="34"/>
+      <c r="V2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
+      <c r="AA2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="39"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AI2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+    </row>
+    <row r="3" spans="2:67" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>0</v>
@@ -1323,7 +1895,7 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="26"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -1511,9 +2083,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1527,9 +2099,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1539,9 +2111,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1551,9 +2123,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1563,9 +2135,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1575,9 +2147,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1587,9 +2159,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1599,9 +2171,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1611,9 +2183,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1623,9 +2195,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1635,9 +2207,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="7"/>
@@ -1647,9 +2219,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1659,9 +2231,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1671,9 +2243,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1683,9 +2255,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1695,9 +2267,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1707,9 +2279,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1719,9 +2291,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1731,9 +2303,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1743,9 +2315,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1755,9 +2327,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1767,9 +2339,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1779,9 +2351,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1791,9 +2363,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1803,9 +2375,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1815,9 +2387,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1827,9 +2399,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1839,9 +2411,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1851,9 +2423,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1863,9 +2435,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1875,9 +2447,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1887,9 +2459,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1899,9 +2471,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1911,9 +2483,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1923,9 +2495,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1935,70 +2507,260 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO39">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="56" priority="49">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="55" priority="51">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="54" priority="52">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="53" priority="53">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="52" priority="54">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="51" priority="55">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="50" priority="59">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="49" priority="60">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="48" priority="56">
       <formula>H$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:BO40">
+    <cfRule type="expression" dxfId="39" priority="33">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="34">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="35">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="36">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="37">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="38">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="39">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="40">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:BO41">
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="31">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42:BO42">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:BO43">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:BO44">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicdonaldson/Software Technologies/Assignment/2810ICT-2022-Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AB88982-5E5D-034B-89F5-16015659FFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFE95DDB-11F8-C34C-BDA5-1623417A9BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,10 +682,22 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -709,18 +721,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -743,233 +743,7 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1433">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="1417">
     <dxf>
       <fill>
         <patternFill>
@@ -21237,8 +21011,8 @@
   </sheetPr>
   <dimension ref="B1:BY42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="125" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C22" zoomScaleNormal="125" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21268,13 +21042,13 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:77" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
@@ -21282,37 +21056,37 @@
         <v>5</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="36"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="34" t="s">
+      <c r="V2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="36"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="40"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="34" t="s">
+      <c r="AA2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="36"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="20"/>
       <c r="AI2" s="22" t="s">
         <v>7</v>
@@ -21326,22 +21100,22 @@
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:77" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="33" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -21368,12 +21142,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="39"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -21728,10 +21502,14 @@
       <c r="D10" s="7">
         <v>14</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="7">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7">
+        <v>21</v>
+      </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10"/>
       <c r="R10"/>
@@ -21774,7 +21552,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11"/>
       <c r="BP11" s="24"/>
@@ -21805,7 +21583,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="25"/>
       <c r="R12"/>
@@ -21877,7 +21655,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="25"/>
       <c r="W14" s="25"/>
@@ -21909,10 +21687,10 @@
         <v>14</v>
       </c>
       <c r="F15" s="7">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15"/>
       <c r="Z15"/>
@@ -21942,9 +21720,11 @@
       <c r="E16" s="7">
         <v>21</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
       <c r="G16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" s="1"/>
       <c r="AK16" s="1"/>
@@ -21978,7 +21758,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17" s="1"/>
       <c r="BP17" s="24"/>
@@ -22005,9 +21785,11 @@
       <c r="E18" s="7">
         <v>15</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>5</v>
+      </c>
       <c r="G18" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="27"/>
       <c r="AS18" s="1"/>
@@ -22039,7 +21821,7 @@
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="27"/>
       <c r="AS19" s="1"/>
@@ -22106,7 +21888,7 @@
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="8">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="27"/>
       <c r="AS21" s="27"/>
@@ -22685,4622 +22467,4622 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:BN7 O8:BN9 H10:N11 H12:P12 H13:R13 H14:T14 H15:Y15 AH14:BN14 AC13:BN13 Y12:BN12 T11:BN11 AQ15:BN17 BE19:BN23 BL18:BN18 BL24:BN26 H24:BA26 BC19:BC23 H27:BN35 S5:BM5 H8:M9 H17:AP19 AL15:AL16 H16:AJ16 AP10:BN10 AA15:AD15 AF15:AH15 X14:Z14 X13:AA13 T13:V13 H21:AP23 H20:AN20 AP20">
-    <cfRule type="expression" dxfId="1432" priority="1481">
+    <cfRule type="expression" dxfId="1416" priority="1481">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1431" priority="1483">
+    <cfRule type="expression" dxfId="1415" priority="1483">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1430" priority="1484">
+    <cfRule type="expression" dxfId="1414" priority="1484">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1429" priority="1485">
+    <cfRule type="expression" dxfId="1413" priority="1485">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1428" priority="1486">
+    <cfRule type="expression" dxfId="1412" priority="1486">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1427" priority="1487">
+    <cfRule type="expression" dxfId="1411" priority="1487">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1426" priority="1491">
+    <cfRule type="expression" dxfId="1410" priority="1491">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1425" priority="1492">
+    <cfRule type="expression" dxfId="1409" priority="1492">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BY4 BP5:BY42">
-    <cfRule type="expression" dxfId="1424" priority="1488">
+    <cfRule type="expression" dxfId="1408" priority="1488">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:BN36">
-    <cfRule type="expression" dxfId="1423" priority="1465">
+    <cfRule type="expression" dxfId="1407" priority="1465">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1422" priority="1466">
+    <cfRule type="expression" dxfId="1406" priority="1466">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1421" priority="1467">
+    <cfRule type="expression" dxfId="1405" priority="1467">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1420" priority="1468">
+    <cfRule type="expression" dxfId="1404" priority="1468">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1419" priority="1469">
+    <cfRule type="expression" dxfId="1403" priority="1469">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1418" priority="1470">
+    <cfRule type="expression" dxfId="1402" priority="1470">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1417" priority="1471">
+    <cfRule type="expression" dxfId="1401" priority="1471">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1416" priority="1472">
+    <cfRule type="expression" dxfId="1400" priority="1472">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:BN37">
-    <cfRule type="expression" dxfId="1415" priority="1457">
+    <cfRule type="expression" dxfId="1399" priority="1457">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1414" priority="1458">
+    <cfRule type="expression" dxfId="1398" priority="1458">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1413" priority="1459">
+    <cfRule type="expression" dxfId="1397" priority="1459">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1412" priority="1460">
+    <cfRule type="expression" dxfId="1396" priority="1460">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1411" priority="1461">
+    <cfRule type="expression" dxfId="1395" priority="1461">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1410" priority="1462">
+    <cfRule type="expression" dxfId="1394" priority="1462">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1409" priority="1463">
+    <cfRule type="expression" dxfId="1393" priority="1463">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1408" priority="1464">
+    <cfRule type="expression" dxfId="1392" priority="1464">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:BN38">
-    <cfRule type="expression" dxfId="1407" priority="1449">
+    <cfRule type="expression" dxfId="1391" priority="1449">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1406" priority="1450">
+    <cfRule type="expression" dxfId="1390" priority="1450">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1405" priority="1451">
+    <cfRule type="expression" dxfId="1389" priority="1451">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1404" priority="1452">
+    <cfRule type="expression" dxfId="1388" priority="1452">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1403" priority="1453">
+    <cfRule type="expression" dxfId="1387" priority="1453">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1402" priority="1454">
+    <cfRule type="expression" dxfId="1386" priority="1454">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1401" priority="1455">
+    <cfRule type="expression" dxfId="1385" priority="1455">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1400" priority="1456">
+    <cfRule type="expression" dxfId="1384" priority="1456">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:BN40">
-    <cfRule type="expression" dxfId="1399" priority="1441">
+    <cfRule type="expression" dxfId="1383" priority="1441">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1398" priority="1442">
+    <cfRule type="expression" dxfId="1382" priority="1442">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1397" priority="1443">
+    <cfRule type="expression" dxfId="1381" priority="1443">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1396" priority="1444">
+    <cfRule type="expression" dxfId="1380" priority="1444">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1395" priority="1445">
+    <cfRule type="expression" dxfId="1379" priority="1445">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1394" priority="1446">
+    <cfRule type="expression" dxfId="1378" priority="1446">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1393" priority="1447">
+    <cfRule type="expression" dxfId="1377" priority="1447">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1392" priority="1448">
+    <cfRule type="expression" dxfId="1376" priority="1448">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:BN41">
-    <cfRule type="expression" dxfId="1391" priority="1433">
+    <cfRule type="expression" dxfId="1375" priority="1433">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1390" priority="1434">
+    <cfRule type="expression" dxfId="1374" priority="1434">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1389" priority="1435">
+    <cfRule type="expression" dxfId="1373" priority="1435">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1388" priority="1436">
+    <cfRule type="expression" dxfId="1372" priority="1436">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1387" priority="1437">
+    <cfRule type="expression" dxfId="1371" priority="1437">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1386" priority="1438">
+    <cfRule type="expression" dxfId="1370" priority="1438">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1385" priority="1439">
+    <cfRule type="expression" dxfId="1369" priority="1439">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1384" priority="1440">
+    <cfRule type="expression" dxfId="1368" priority="1440">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO5:BO41">
-    <cfRule type="expression" dxfId="1383" priority="1501">
+    <cfRule type="expression" dxfId="1367" priority="1501">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1382" priority="1502">
+    <cfRule type="expression" dxfId="1366" priority="1502">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1381" priority="1503">
+    <cfRule type="expression" dxfId="1365" priority="1503">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1380" priority="1504">
+    <cfRule type="expression" dxfId="1364" priority="1504">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1379" priority="1505">
+    <cfRule type="expression" dxfId="1363" priority="1505">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1378" priority="1506">
+    <cfRule type="expression" dxfId="1362" priority="1506">
       <formula>BN$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1377" priority="1507">
+    <cfRule type="expression" dxfId="1361" priority="1507">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1376" priority="1508">
+    <cfRule type="expression" dxfId="1360" priority="1508">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15">
-    <cfRule type="expression" dxfId="1375" priority="1385">
+    <cfRule type="expression" dxfId="1359" priority="1385">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1374" priority="1386">
+    <cfRule type="expression" dxfId="1358" priority="1386">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1373" priority="1387">
+    <cfRule type="expression" dxfId="1357" priority="1387">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1372" priority="1388">
+    <cfRule type="expression" dxfId="1356" priority="1388">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1371" priority="1389">
+    <cfRule type="expression" dxfId="1355" priority="1389">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1370" priority="1390">
+    <cfRule type="expression" dxfId="1354" priority="1390">
       <formula>Z$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1369" priority="1391">
+    <cfRule type="expression" dxfId="1353" priority="1391">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1368" priority="1392">
+    <cfRule type="expression" dxfId="1352" priority="1392">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="expression" dxfId="1367" priority="1377">
+    <cfRule type="expression" dxfId="1351" priority="1377">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1366" priority="1378">
+    <cfRule type="expression" dxfId="1350" priority="1378">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1365" priority="1379">
+    <cfRule type="expression" dxfId="1349" priority="1379">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1364" priority="1380">
+    <cfRule type="expression" dxfId="1348" priority="1380">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1363" priority="1381">
+    <cfRule type="expression" dxfId="1347" priority="1381">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1362" priority="1382">
+    <cfRule type="expression" dxfId="1346" priority="1382">
       <formula>V$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1361" priority="1383">
+    <cfRule type="expression" dxfId="1345" priority="1383">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1360" priority="1384">
+    <cfRule type="expression" dxfId="1344" priority="1384">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG14">
-    <cfRule type="expression" dxfId="1359" priority="1369">
+    <cfRule type="expression" dxfId="1343" priority="1369">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1358" priority="1370">
+    <cfRule type="expression" dxfId="1342" priority="1370">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1357" priority="1371">
+    <cfRule type="expression" dxfId="1341" priority="1371">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1356" priority="1372">
+    <cfRule type="expression" dxfId="1340" priority="1372">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1355" priority="1373">
+    <cfRule type="expression" dxfId="1339" priority="1373">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1354" priority="1374">
+    <cfRule type="expression" dxfId="1338" priority="1374">
       <formula>AG$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1353" priority="1375">
+    <cfRule type="expression" dxfId="1337" priority="1375">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1352" priority="1376">
+    <cfRule type="expression" dxfId="1336" priority="1376">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
-    <cfRule type="expression" dxfId="1351" priority="1361">
+    <cfRule type="expression" dxfId="1335" priority="1361">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1350" priority="1362">
+    <cfRule type="expression" dxfId="1334" priority="1362">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1349" priority="1363">
+    <cfRule type="expression" dxfId="1333" priority="1363">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1348" priority="1364">
+    <cfRule type="expression" dxfId="1332" priority="1364">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1347" priority="1365">
+    <cfRule type="expression" dxfId="1331" priority="1365">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1346" priority="1366">
+    <cfRule type="expression" dxfId="1330" priority="1366">
       <formula>AB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1345" priority="1367">
+    <cfRule type="expression" dxfId="1329" priority="1367">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1344" priority="1368">
+    <cfRule type="expression" dxfId="1328" priority="1368">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="expression" dxfId="1343" priority="1353">
+    <cfRule type="expression" dxfId="1327" priority="1353">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1342" priority="1354">
+    <cfRule type="expression" dxfId="1326" priority="1354">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1341" priority="1355">
+    <cfRule type="expression" dxfId="1325" priority="1355">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1340" priority="1356">
+    <cfRule type="expression" dxfId="1324" priority="1356">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1339" priority="1357">
+    <cfRule type="expression" dxfId="1323" priority="1357">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1338" priority="1358">
+    <cfRule type="expression" dxfId="1322" priority="1358">
       <formula>X$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1337" priority="1359">
+    <cfRule type="expression" dxfId="1321" priority="1359">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1336" priority="1360">
+    <cfRule type="expression" dxfId="1320" priority="1360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="1335" priority="1345">
+    <cfRule type="expression" dxfId="1319" priority="1345">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1334" priority="1346">
+    <cfRule type="expression" dxfId="1318" priority="1346">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1333" priority="1347">
+    <cfRule type="expression" dxfId="1317" priority="1347">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1332" priority="1348">
+    <cfRule type="expression" dxfId="1316" priority="1348">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1331" priority="1349">
+    <cfRule type="expression" dxfId="1315" priority="1349">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1330" priority="1350">
+    <cfRule type="expression" dxfId="1314" priority="1350">
       <formula>W$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1329" priority="1351">
+    <cfRule type="expression" dxfId="1313" priority="1351">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1328" priority="1352">
+    <cfRule type="expression" dxfId="1312" priority="1352">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="expression" dxfId="1327" priority="1337">
+    <cfRule type="expression" dxfId="1311" priority="1337">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1326" priority="1338">
+    <cfRule type="expression" dxfId="1310" priority="1338">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1325" priority="1339">
+    <cfRule type="expression" dxfId="1309" priority="1339">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1324" priority="1340">
+    <cfRule type="expression" dxfId="1308" priority="1340">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1323" priority="1341">
+    <cfRule type="expression" dxfId="1307" priority="1341">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1322" priority="1342">
+    <cfRule type="expression" dxfId="1306" priority="1342">
       <formula>U$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1321" priority="1343">
+    <cfRule type="expression" dxfId="1305" priority="1343">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1320" priority="1344">
+    <cfRule type="expression" dxfId="1304" priority="1344">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="expression" dxfId="1319" priority="1329">
+    <cfRule type="expression" dxfId="1303" priority="1329">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1318" priority="1330">
+    <cfRule type="expression" dxfId="1302" priority="1330">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1317" priority="1331">
+    <cfRule type="expression" dxfId="1301" priority="1331">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1316" priority="1332">
+    <cfRule type="expression" dxfId="1300" priority="1332">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1315" priority="1333">
+    <cfRule type="expression" dxfId="1299" priority="1333">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1314" priority="1334">
+    <cfRule type="expression" dxfId="1298" priority="1334">
       <formula>S$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1313" priority="1335">
+    <cfRule type="expression" dxfId="1297" priority="1335">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1312" priority="1336">
+    <cfRule type="expression" dxfId="1296" priority="1336">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="1311" priority="1321">
+    <cfRule type="expression" dxfId="1295" priority="1321">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1310" priority="1322">
+    <cfRule type="expression" dxfId="1294" priority="1322">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1309" priority="1323">
+    <cfRule type="expression" dxfId="1293" priority="1323">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1308" priority="1324">
+    <cfRule type="expression" dxfId="1292" priority="1324">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1307" priority="1325">
+    <cfRule type="expression" dxfId="1291" priority="1325">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1306" priority="1326">
+    <cfRule type="expression" dxfId="1290" priority="1326">
       <formula>V$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1305" priority="1327">
+    <cfRule type="expression" dxfId="1289" priority="1327">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1304" priority="1328">
+    <cfRule type="expression" dxfId="1288" priority="1328">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11">
-    <cfRule type="expression" dxfId="1303" priority="1313">
+    <cfRule type="expression" dxfId="1287" priority="1313">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1302" priority="1314">
+    <cfRule type="expression" dxfId="1286" priority="1314">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1301" priority="1315">
+    <cfRule type="expression" dxfId="1285" priority="1315">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1300" priority="1316">
+    <cfRule type="expression" dxfId="1284" priority="1316">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1299" priority="1317">
+    <cfRule type="expression" dxfId="1283" priority="1317">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1298" priority="1318">
+    <cfRule type="expression" dxfId="1282" priority="1318">
       <formula>R$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1297" priority="1319">
+    <cfRule type="expression" dxfId="1281" priority="1319">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1296" priority="1320">
+    <cfRule type="expression" dxfId="1280" priority="1320">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK15">
-    <cfRule type="expression" dxfId="1295" priority="1297">
+    <cfRule type="expression" dxfId="1279" priority="1297">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1294" priority="1298">
+    <cfRule type="expression" dxfId="1278" priority="1298">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1293" priority="1299">
+    <cfRule type="expression" dxfId="1277" priority="1299">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1292" priority="1300">
+    <cfRule type="expression" dxfId="1276" priority="1300">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1291" priority="1301">
+    <cfRule type="expression" dxfId="1275" priority="1301">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1290" priority="1302">
+    <cfRule type="expression" dxfId="1274" priority="1302">
       <formula>AK$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1289" priority="1303">
+    <cfRule type="expression" dxfId="1273" priority="1303">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1288" priority="1304">
+    <cfRule type="expression" dxfId="1272" priority="1304">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM15">
-    <cfRule type="expression" dxfId="1287" priority="1289">
+    <cfRule type="expression" dxfId="1271" priority="1289">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1286" priority="1290">
+    <cfRule type="expression" dxfId="1270" priority="1290">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1285" priority="1291">
+    <cfRule type="expression" dxfId="1269" priority="1291">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1284" priority="1292">
+    <cfRule type="expression" dxfId="1268" priority="1292">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1283" priority="1293">
+    <cfRule type="expression" dxfId="1267" priority="1293">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1282" priority="1294">
+    <cfRule type="expression" dxfId="1266" priority="1294">
       <formula>AM$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1281" priority="1295">
+    <cfRule type="expression" dxfId="1265" priority="1295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1280" priority="1296">
+    <cfRule type="expression" dxfId="1264" priority="1296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO15">
-    <cfRule type="expression" dxfId="1279" priority="1281">
+    <cfRule type="expression" dxfId="1263" priority="1281">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1278" priority="1282">
+    <cfRule type="expression" dxfId="1262" priority="1282">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1277" priority="1283">
+    <cfRule type="expression" dxfId="1261" priority="1283">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1276" priority="1284">
+    <cfRule type="expression" dxfId="1260" priority="1284">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1275" priority="1285">
+    <cfRule type="expression" dxfId="1259" priority="1285">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1274" priority="1286">
+    <cfRule type="expression" dxfId="1258" priority="1286">
       <formula>AO$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1273" priority="1287">
+    <cfRule type="expression" dxfId="1257" priority="1287">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1272" priority="1288">
+    <cfRule type="expression" dxfId="1256" priority="1288">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN15">
-    <cfRule type="expression" dxfId="1271" priority="1273">
+    <cfRule type="expression" dxfId="1255" priority="1273">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1270" priority="1274">
+    <cfRule type="expression" dxfId="1254" priority="1274">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1269" priority="1275">
+    <cfRule type="expression" dxfId="1253" priority="1275">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1268" priority="1276">
+    <cfRule type="expression" dxfId="1252" priority="1276">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1267" priority="1277">
+    <cfRule type="expression" dxfId="1251" priority="1277">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1266" priority="1278">
+    <cfRule type="expression" dxfId="1250" priority="1278">
       <formula>AN$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1265" priority="1279">
+    <cfRule type="expression" dxfId="1249" priority="1279">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1264" priority="1280">
+    <cfRule type="expression" dxfId="1248" priority="1280">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP15">
-    <cfRule type="expression" dxfId="1263" priority="1265">
+    <cfRule type="expression" dxfId="1247" priority="1265">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1262" priority="1266">
+    <cfRule type="expression" dxfId="1246" priority="1266">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1261" priority="1267">
+    <cfRule type="expression" dxfId="1245" priority="1267">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1260" priority="1268">
+    <cfRule type="expression" dxfId="1244" priority="1268">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1259" priority="1269">
+    <cfRule type="expression" dxfId="1243" priority="1269">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1258" priority="1270">
+    <cfRule type="expression" dxfId="1242" priority="1270">
       <formula>AP$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1257" priority="1271">
+    <cfRule type="expression" dxfId="1241" priority="1271">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1256" priority="1272">
+    <cfRule type="expression" dxfId="1240" priority="1272">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ15">
-    <cfRule type="expression" dxfId="1255" priority="1257">
+    <cfRule type="expression" dxfId="1239" priority="1257">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1254" priority="1258">
+    <cfRule type="expression" dxfId="1238" priority="1258">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1253" priority="1259">
+    <cfRule type="expression" dxfId="1237" priority="1259">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1252" priority="1260">
+    <cfRule type="expression" dxfId="1236" priority="1260">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1251" priority="1261">
+    <cfRule type="expression" dxfId="1235" priority="1261">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1250" priority="1262">
+    <cfRule type="expression" dxfId="1234" priority="1262">
       <formula>AJ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1249" priority="1263">
+    <cfRule type="expression" dxfId="1233" priority="1263">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1248" priority="1264">
+    <cfRule type="expression" dxfId="1232" priority="1264">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD19">
-    <cfRule type="expression" dxfId="1247" priority="1249">
+    <cfRule type="expression" dxfId="1231" priority="1249">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1246" priority="1250">
+    <cfRule type="expression" dxfId="1230" priority="1250">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1245" priority="1251">
+    <cfRule type="expression" dxfId="1229" priority="1251">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1244" priority="1252">
+    <cfRule type="expression" dxfId="1228" priority="1252">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1243" priority="1253">
+    <cfRule type="expression" dxfId="1227" priority="1253">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1242" priority="1254">
+    <cfRule type="expression" dxfId="1226" priority="1254">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1241" priority="1255">
+    <cfRule type="expression" dxfId="1225" priority="1255">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1240" priority="1256">
+    <cfRule type="expression" dxfId="1224" priority="1256">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD20">
-    <cfRule type="expression" dxfId="1239" priority="1241">
+    <cfRule type="expression" dxfId="1223" priority="1241">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1238" priority="1242">
+    <cfRule type="expression" dxfId="1222" priority="1242">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1237" priority="1243">
+    <cfRule type="expression" dxfId="1221" priority="1243">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1236" priority="1244">
+    <cfRule type="expression" dxfId="1220" priority="1244">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1235" priority="1245">
+    <cfRule type="expression" dxfId="1219" priority="1245">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1234" priority="1246">
+    <cfRule type="expression" dxfId="1218" priority="1246">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1233" priority="1247">
+    <cfRule type="expression" dxfId="1217" priority="1247">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1232" priority="1248">
+    <cfRule type="expression" dxfId="1216" priority="1248">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD21">
-    <cfRule type="expression" dxfId="1231" priority="1233">
+    <cfRule type="expression" dxfId="1215" priority="1233">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1230" priority="1234">
+    <cfRule type="expression" dxfId="1214" priority="1234">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1229" priority="1235">
+    <cfRule type="expression" dxfId="1213" priority="1235">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1228" priority="1236">
+    <cfRule type="expression" dxfId="1212" priority="1236">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1227" priority="1237">
+    <cfRule type="expression" dxfId="1211" priority="1237">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1226" priority="1238">
+    <cfRule type="expression" dxfId="1210" priority="1238">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1225" priority="1239">
+    <cfRule type="expression" dxfId="1209" priority="1239">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1224" priority="1240">
+    <cfRule type="expression" dxfId="1208" priority="1240">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD22">
-    <cfRule type="expression" dxfId="1223" priority="1225">
+    <cfRule type="expression" dxfId="1207" priority="1225">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1222" priority="1226">
+    <cfRule type="expression" dxfId="1206" priority="1226">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1221" priority="1227">
+    <cfRule type="expression" dxfId="1205" priority="1227">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1220" priority="1228">
+    <cfRule type="expression" dxfId="1204" priority="1228">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1219" priority="1229">
+    <cfRule type="expression" dxfId="1203" priority="1229">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1218" priority="1230">
+    <cfRule type="expression" dxfId="1202" priority="1230">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1217" priority="1231">
+    <cfRule type="expression" dxfId="1201" priority="1231">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1216" priority="1232">
+    <cfRule type="expression" dxfId="1200" priority="1232">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD23">
-    <cfRule type="expression" dxfId="1215" priority="1217">
+    <cfRule type="expression" dxfId="1199" priority="1217">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1214" priority="1218">
+    <cfRule type="expression" dxfId="1198" priority="1218">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1213" priority="1219">
+    <cfRule type="expression" dxfId="1197" priority="1219">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1212" priority="1220">
+    <cfRule type="expression" dxfId="1196" priority="1220">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1211" priority="1221">
+    <cfRule type="expression" dxfId="1195" priority="1221">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1210" priority="1222">
+    <cfRule type="expression" dxfId="1194" priority="1222">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1209" priority="1223">
+    <cfRule type="expression" dxfId="1193" priority="1223">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1208" priority="1224">
+    <cfRule type="expression" dxfId="1192" priority="1224">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB23">
-    <cfRule type="expression" dxfId="1207" priority="1209">
+    <cfRule type="expression" dxfId="1191" priority="1209">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1206" priority="1210">
+    <cfRule type="expression" dxfId="1190" priority="1210">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1205" priority="1211">
+    <cfRule type="expression" dxfId="1189" priority="1211">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1204" priority="1212">
+    <cfRule type="expression" dxfId="1188" priority="1212">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1203" priority="1213">
+    <cfRule type="expression" dxfId="1187" priority="1213">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1202" priority="1214">
+    <cfRule type="expression" dxfId="1186" priority="1214">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1201" priority="1215">
+    <cfRule type="expression" dxfId="1185" priority="1215">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1200" priority="1216">
+    <cfRule type="expression" dxfId="1184" priority="1216">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB22">
-    <cfRule type="expression" dxfId="1199" priority="1201">
+    <cfRule type="expression" dxfId="1183" priority="1201">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1198" priority="1202">
+    <cfRule type="expression" dxfId="1182" priority="1202">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1197" priority="1203">
+    <cfRule type="expression" dxfId="1181" priority="1203">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1196" priority="1204">
+    <cfRule type="expression" dxfId="1180" priority="1204">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1195" priority="1205">
+    <cfRule type="expression" dxfId="1179" priority="1205">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1194" priority="1206">
+    <cfRule type="expression" dxfId="1178" priority="1206">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1193" priority="1207">
+    <cfRule type="expression" dxfId="1177" priority="1207">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1192" priority="1208">
+    <cfRule type="expression" dxfId="1176" priority="1208">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB21">
-    <cfRule type="expression" dxfId="1191" priority="1193">
+    <cfRule type="expression" dxfId="1175" priority="1193">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1190" priority="1194">
+    <cfRule type="expression" dxfId="1174" priority="1194">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1189" priority="1195">
+    <cfRule type="expression" dxfId="1173" priority="1195">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1188" priority="1196">
+    <cfRule type="expression" dxfId="1172" priority="1196">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1187" priority="1197">
+    <cfRule type="expression" dxfId="1171" priority="1197">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1186" priority="1198">
+    <cfRule type="expression" dxfId="1170" priority="1198">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1185" priority="1199">
+    <cfRule type="expression" dxfId="1169" priority="1199">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1184" priority="1200">
+    <cfRule type="expression" dxfId="1168" priority="1200">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB20">
-    <cfRule type="expression" dxfId="1183" priority="1185">
+    <cfRule type="expression" dxfId="1167" priority="1185">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1182" priority="1186">
+    <cfRule type="expression" dxfId="1166" priority="1186">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1181" priority="1187">
+    <cfRule type="expression" dxfId="1165" priority="1187">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1180" priority="1188">
+    <cfRule type="expression" dxfId="1164" priority="1188">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1179" priority="1189">
+    <cfRule type="expression" dxfId="1163" priority="1189">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1178" priority="1190">
+    <cfRule type="expression" dxfId="1162" priority="1190">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1177" priority="1191">
+    <cfRule type="expression" dxfId="1161" priority="1191">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1176" priority="1192">
+    <cfRule type="expression" dxfId="1160" priority="1192">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB19">
-    <cfRule type="expression" dxfId="1175" priority="1177">
+    <cfRule type="expression" dxfId="1159" priority="1177">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1174" priority="1178">
+    <cfRule type="expression" dxfId="1158" priority="1178">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1173" priority="1179">
+    <cfRule type="expression" dxfId="1157" priority="1179">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1172" priority="1180">
+    <cfRule type="expression" dxfId="1156" priority="1180">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1171" priority="1181">
+    <cfRule type="expression" dxfId="1155" priority="1181">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1170" priority="1182">
+    <cfRule type="expression" dxfId="1154" priority="1182">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1169" priority="1183">
+    <cfRule type="expression" dxfId="1153" priority="1183">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1168" priority="1184">
+    <cfRule type="expression" dxfId="1152" priority="1184">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
-    <cfRule type="expression" dxfId="1167" priority="1169">
+    <cfRule type="expression" dxfId="1151" priority="1169">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1166" priority="1170">
+    <cfRule type="expression" dxfId="1150" priority="1170">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1165" priority="1171">
+    <cfRule type="expression" dxfId="1149" priority="1171">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1164" priority="1172">
+    <cfRule type="expression" dxfId="1148" priority="1172">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1163" priority="1173">
+    <cfRule type="expression" dxfId="1147" priority="1173">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1162" priority="1174">
+    <cfRule type="expression" dxfId="1146" priority="1174">
       <formula>R$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1161" priority="1175">
+    <cfRule type="expression" dxfId="1145" priority="1175">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1160" priority="1176">
+    <cfRule type="expression" dxfId="1144" priority="1176">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="1159" priority="1161">
+    <cfRule type="expression" dxfId="1143" priority="1161">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1158" priority="1162">
+    <cfRule type="expression" dxfId="1142" priority="1162">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1157" priority="1163">
+    <cfRule type="expression" dxfId="1141" priority="1163">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1156" priority="1164">
+    <cfRule type="expression" dxfId="1140" priority="1164">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1155" priority="1165">
+    <cfRule type="expression" dxfId="1139" priority="1165">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1154" priority="1166">
+    <cfRule type="expression" dxfId="1138" priority="1166">
       <formula>P$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1153" priority="1167">
+    <cfRule type="expression" dxfId="1137" priority="1167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1152" priority="1168">
+    <cfRule type="expression" dxfId="1136" priority="1168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="1151" priority="1145">
+    <cfRule type="expression" dxfId="1135" priority="1145">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1150" priority="1146">
+    <cfRule type="expression" dxfId="1134" priority="1146">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1149" priority="1147">
+    <cfRule type="expression" dxfId="1133" priority="1147">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1148" priority="1148">
+    <cfRule type="expression" dxfId="1132" priority="1148">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1147" priority="1149">
+    <cfRule type="expression" dxfId="1131" priority="1149">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1146" priority="1150">
+    <cfRule type="expression" dxfId="1130" priority="1150">
       <formula>L$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1145" priority="1151">
+    <cfRule type="expression" dxfId="1129" priority="1151">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1144" priority="1152">
+    <cfRule type="expression" dxfId="1128" priority="1152">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="expression" dxfId="1143" priority="1137">
+    <cfRule type="expression" dxfId="1127" priority="1137">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1142" priority="1138">
+    <cfRule type="expression" dxfId="1126" priority="1138">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1141" priority="1139">
+    <cfRule type="expression" dxfId="1125" priority="1139">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1140" priority="1140">
+    <cfRule type="expression" dxfId="1124" priority="1140">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1139" priority="1141">
+    <cfRule type="expression" dxfId="1123" priority="1141">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1138" priority="1142">
+    <cfRule type="expression" dxfId="1122" priority="1142">
       <formula>N$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1137" priority="1143">
+    <cfRule type="expression" dxfId="1121" priority="1143">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1136" priority="1144">
+    <cfRule type="expression" dxfId="1120" priority="1144">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="1135" priority="1129">
+    <cfRule type="expression" dxfId="1119" priority="1129">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1134" priority="1130">
+    <cfRule type="expression" dxfId="1118" priority="1130">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1133" priority="1131">
+    <cfRule type="expression" dxfId="1117" priority="1131">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1132" priority="1132">
+    <cfRule type="expression" dxfId="1116" priority="1132">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1131" priority="1133">
+    <cfRule type="expression" dxfId="1115" priority="1133">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1130" priority="1134">
+    <cfRule type="expression" dxfId="1114" priority="1134">
       <formula>M$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1129" priority="1135">
+    <cfRule type="expression" dxfId="1113" priority="1135">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1128" priority="1136">
+    <cfRule type="expression" dxfId="1112" priority="1136">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="1127" priority="1121">
+    <cfRule type="expression" dxfId="1111" priority="1121">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1126" priority="1122">
+    <cfRule type="expression" dxfId="1110" priority="1122">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1125" priority="1123">
+    <cfRule type="expression" dxfId="1109" priority="1123">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1124" priority="1124">
+    <cfRule type="expression" dxfId="1108" priority="1124">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1123" priority="1125">
+    <cfRule type="expression" dxfId="1107" priority="1125">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1122" priority="1126">
+    <cfRule type="expression" dxfId="1106" priority="1126">
       <formula>K$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1121" priority="1127">
+    <cfRule type="expression" dxfId="1105" priority="1127">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1120" priority="1128">
+    <cfRule type="expression" dxfId="1104" priority="1128">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="1119" priority="1113">
+    <cfRule type="expression" dxfId="1103" priority="1113">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1118" priority="1114">
+    <cfRule type="expression" dxfId="1102" priority="1114">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1117" priority="1115">
+    <cfRule type="expression" dxfId="1101" priority="1115">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1116" priority="1116">
+    <cfRule type="expression" dxfId="1100" priority="1116">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1115" priority="1117">
+    <cfRule type="expression" dxfId="1099" priority="1117">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1114" priority="1118">
+    <cfRule type="expression" dxfId="1098" priority="1118">
       <formula>J$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1113" priority="1119">
+    <cfRule type="expression" dxfId="1097" priority="1119">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1112" priority="1120">
+    <cfRule type="expression" dxfId="1096" priority="1120">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="1111" priority="1105">
+    <cfRule type="expression" dxfId="1095" priority="1105">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1110" priority="1106">
+    <cfRule type="expression" dxfId="1094" priority="1106">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1109" priority="1107">
+    <cfRule type="expression" dxfId="1093" priority="1107">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1108" priority="1108">
+    <cfRule type="expression" dxfId="1092" priority="1108">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1107" priority="1109">
+    <cfRule type="expression" dxfId="1091" priority="1109">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1106" priority="1110">
+    <cfRule type="expression" dxfId="1090" priority="1110">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1105" priority="1111">
+    <cfRule type="expression" dxfId="1089" priority="1111">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1104" priority="1112">
+    <cfRule type="expression" dxfId="1088" priority="1112">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="1103" priority="1097">
+    <cfRule type="expression" dxfId="1087" priority="1097">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1102" priority="1098">
+    <cfRule type="expression" dxfId="1086" priority="1098">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1101" priority="1099">
+    <cfRule type="expression" dxfId="1085" priority="1099">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1100" priority="1100">
+    <cfRule type="expression" dxfId="1084" priority="1100">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1099" priority="1101">
+    <cfRule type="expression" dxfId="1083" priority="1101">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1098" priority="1102">
+    <cfRule type="expression" dxfId="1082" priority="1102">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1097" priority="1103">
+    <cfRule type="expression" dxfId="1081" priority="1103">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1096" priority="1104">
+    <cfRule type="expression" dxfId="1080" priority="1104">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="1095" priority="1089">
+    <cfRule type="expression" dxfId="1079" priority="1089">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1094" priority="1090">
+    <cfRule type="expression" dxfId="1078" priority="1090">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1093" priority="1091">
+    <cfRule type="expression" dxfId="1077" priority="1091">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1092" priority="1092">
+    <cfRule type="expression" dxfId="1076" priority="1092">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1091" priority="1093">
+    <cfRule type="expression" dxfId="1075" priority="1093">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1090" priority="1094">
+    <cfRule type="expression" dxfId="1074" priority="1094">
       <formula>Q$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1089" priority="1095">
+    <cfRule type="expression" dxfId="1073" priority="1095">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1088" priority="1096">
+    <cfRule type="expression" dxfId="1072" priority="1096">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="1087" priority="1081">
+    <cfRule type="expression" dxfId="1071" priority="1081">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1086" priority="1082">
+    <cfRule type="expression" dxfId="1070" priority="1082">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1085" priority="1083">
+    <cfRule type="expression" dxfId="1069" priority="1083">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1084" priority="1084">
+    <cfRule type="expression" dxfId="1068" priority="1084">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1083" priority="1085">
+    <cfRule type="expression" dxfId="1067" priority="1085">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1082" priority="1086">
+    <cfRule type="expression" dxfId="1066" priority="1086">
       <formula>O$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1081" priority="1087">
+    <cfRule type="expression" dxfId="1065" priority="1087">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1080" priority="1088">
+    <cfRule type="expression" dxfId="1064" priority="1088">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="1079" priority="1073">
+    <cfRule type="expression" dxfId="1063" priority="1073">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1078" priority="1074">
+    <cfRule type="expression" dxfId="1062" priority="1074">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1077" priority="1075">
+    <cfRule type="expression" dxfId="1061" priority="1075">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1076" priority="1076">
+    <cfRule type="expression" dxfId="1060" priority="1076">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1075" priority="1077">
+    <cfRule type="expression" dxfId="1059" priority="1077">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1074" priority="1078">
+    <cfRule type="expression" dxfId="1058" priority="1078">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1073" priority="1079">
+    <cfRule type="expression" dxfId="1057" priority="1079">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1072" priority="1080">
+    <cfRule type="expression" dxfId="1056" priority="1080">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="1071" priority="1065">
+    <cfRule type="expression" dxfId="1055" priority="1065">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1070" priority="1066">
+    <cfRule type="expression" dxfId="1054" priority="1066">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1069" priority="1067">
+    <cfRule type="expression" dxfId="1053" priority="1067">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1068" priority="1068">
+    <cfRule type="expression" dxfId="1052" priority="1068">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1067" priority="1069">
+    <cfRule type="expression" dxfId="1051" priority="1069">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1066" priority="1070">
+    <cfRule type="expression" dxfId="1050" priority="1070">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1065" priority="1071">
+    <cfRule type="expression" dxfId="1049" priority="1071">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1064" priority="1072">
+    <cfRule type="expression" dxfId="1048" priority="1072">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="1063" priority="1057">
+    <cfRule type="expression" dxfId="1047" priority="1057">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1062" priority="1058">
+    <cfRule type="expression" dxfId="1046" priority="1058">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1061" priority="1059">
+    <cfRule type="expression" dxfId="1045" priority="1059">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1060" priority="1060">
+    <cfRule type="expression" dxfId="1044" priority="1060">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1059" priority="1061">
+    <cfRule type="expression" dxfId="1043" priority="1061">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1058" priority="1062">
+    <cfRule type="expression" dxfId="1042" priority="1062">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1057" priority="1063">
+    <cfRule type="expression" dxfId="1041" priority="1063">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1056" priority="1064">
+    <cfRule type="expression" dxfId="1040" priority="1064">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="expression" dxfId="1055" priority="1049">
+    <cfRule type="expression" dxfId="1039" priority="1049">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1054" priority="1050">
+    <cfRule type="expression" dxfId="1038" priority="1050">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1053" priority="1051">
+    <cfRule type="expression" dxfId="1037" priority="1051">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1052" priority="1052">
+    <cfRule type="expression" dxfId="1036" priority="1052">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1051" priority="1053">
+    <cfRule type="expression" dxfId="1035" priority="1053">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1050" priority="1054">
+    <cfRule type="expression" dxfId="1034" priority="1054">
       <formula>S$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1049" priority="1055">
+    <cfRule type="expression" dxfId="1033" priority="1055">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1048" priority="1056">
+    <cfRule type="expression" dxfId="1032" priority="1056">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12">
-    <cfRule type="expression" dxfId="1047" priority="1041">
+    <cfRule type="expression" dxfId="1031" priority="1041">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1046" priority="1042">
+    <cfRule type="expression" dxfId="1030" priority="1042">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1045" priority="1043">
+    <cfRule type="expression" dxfId="1029" priority="1043">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1044" priority="1044">
+    <cfRule type="expression" dxfId="1028" priority="1044">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1043" priority="1045">
+    <cfRule type="expression" dxfId="1027" priority="1045">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1042" priority="1046">
+    <cfRule type="expression" dxfId="1026" priority="1046">
       <formula>S$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1041" priority="1047">
+    <cfRule type="expression" dxfId="1025" priority="1047">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1040" priority="1048">
+    <cfRule type="expression" dxfId="1024" priority="1048">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="expression" dxfId="1039" priority="1033">
+    <cfRule type="expression" dxfId="1023" priority="1033">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1038" priority="1034">
+    <cfRule type="expression" dxfId="1022" priority="1034">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1037" priority="1035">
+    <cfRule type="expression" dxfId="1021" priority="1035">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1036" priority="1036">
+    <cfRule type="expression" dxfId="1020" priority="1036">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1035" priority="1037">
+    <cfRule type="expression" dxfId="1019" priority="1037">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1034" priority="1038">
+    <cfRule type="expression" dxfId="1018" priority="1038">
       <formula>Q$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1033" priority="1039">
+    <cfRule type="expression" dxfId="1017" priority="1039">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1032" priority="1040">
+    <cfRule type="expression" dxfId="1016" priority="1040">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="expression" dxfId="1031" priority="1025">
+    <cfRule type="expression" dxfId="1015" priority="1025">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1030" priority="1026">
+    <cfRule type="expression" dxfId="1014" priority="1026">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1029" priority="1027">
+    <cfRule type="expression" dxfId="1013" priority="1027">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1028" priority="1028">
+    <cfRule type="expression" dxfId="1012" priority="1028">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1027" priority="1029">
+    <cfRule type="expression" dxfId="1011" priority="1029">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1026" priority="1030">
+    <cfRule type="expression" dxfId="1010" priority="1030">
       <formula>O$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1025" priority="1031">
+    <cfRule type="expression" dxfId="1009" priority="1031">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1024" priority="1032">
+    <cfRule type="expression" dxfId="1008" priority="1032">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="1023" priority="1017">
+    <cfRule type="expression" dxfId="1007" priority="1017">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1022" priority="1018">
+    <cfRule type="expression" dxfId="1006" priority="1018">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1021" priority="1019">
+    <cfRule type="expression" dxfId="1005" priority="1019">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1020" priority="1020">
+    <cfRule type="expression" dxfId="1004" priority="1020">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1019" priority="1021">
+    <cfRule type="expression" dxfId="1003" priority="1021">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1018" priority="1022">
+    <cfRule type="expression" dxfId="1002" priority="1022">
       <formula>O$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1017" priority="1023">
+    <cfRule type="expression" dxfId="1001" priority="1023">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1016" priority="1024">
+    <cfRule type="expression" dxfId="1000" priority="1024">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="expression" dxfId="1015" priority="1009">
+    <cfRule type="expression" dxfId="999" priority="1009">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1014" priority="1010">
+    <cfRule type="expression" dxfId="998" priority="1010">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1013" priority="1011">
+    <cfRule type="expression" dxfId="997" priority="1011">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1012" priority="1012">
+    <cfRule type="expression" dxfId="996" priority="1012">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1011" priority="1013">
+    <cfRule type="expression" dxfId="995" priority="1013">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1010" priority="1014">
+    <cfRule type="expression" dxfId="994" priority="1014">
       <formula>U$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1009" priority="1015">
+    <cfRule type="expression" dxfId="993" priority="1015">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1008" priority="1016">
+    <cfRule type="expression" dxfId="992" priority="1016">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="1007" priority="1001">
+    <cfRule type="expression" dxfId="991" priority="1001">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1006" priority="1002">
+    <cfRule type="expression" dxfId="990" priority="1002">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1005" priority="1003">
+    <cfRule type="expression" dxfId="989" priority="1003">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1004" priority="1004">
+    <cfRule type="expression" dxfId="988" priority="1004">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1003" priority="1005">
+    <cfRule type="expression" dxfId="987" priority="1005">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1002" priority="1006">
+    <cfRule type="expression" dxfId="986" priority="1006">
       <formula>Q$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1001" priority="1007">
+    <cfRule type="expression" dxfId="985" priority="1007">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1000" priority="1008">
+    <cfRule type="expression" dxfId="984" priority="1008">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="expression" dxfId="999" priority="993">
+    <cfRule type="expression" dxfId="983" priority="993">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="998" priority="994">
+    <cfRule type="expression" dxfId="982" priority="994">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="997" priority="995">
+    <cfRule type="expression" dxfId="981" priority="995">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="996" priority="996">
+    <cfRule type="expression" dxfId="980" priority="996">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="995" priority="997">
+    <cfRule type="expression" dxfId="979" priority="997">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="994" priority="998">
+    <cfRule type="expression" dxfId="978" priority="998">
       <formula>W$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="993" priority="999">
+    <cfRule type="expression" dxfId="977" priority="999">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="992" priority="1000">
+    <cfRule type="expression" dxfId="976" priority="1000">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="expression" dxfId="991" priority="985">
+    <cfRule type="expression" dxfId="975" priority="985">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="990" priority="986">
+    <cfRule type="expression" dxfId="974" priority="986">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="989" priority="987">
+    <cfRule type="expression" dxfId="973" priority="987">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="988" priority="988">
+    <cfRule type="expression" dxfId="972" priority="988">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="987" priority="989">
+    <cfRule type="expression" dxfId="971" priority="989">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="986" priority="990">
+    <cfRule type="expression" dxfId="970" priority="990">
       <formula>W$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="985" priority="991">
+    <cfRule type="expression" dxfId="969" priority="991">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="984" priority="992">
+    <cfRule type="expression" dxfId="968" priority="992">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10">
-    <cfRule type="expression" dxfId="983" priority="977">
+    <cfRule type="expression" dxfId="967" priority="977">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="982" priority="978">
+    <cfRule type="expression" dxfId="966" priority="978">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="981" priority="979">
+    <cfRule type="expression" dxfId="965" priority="979">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="980" priority="980">
+    <cfRule type="expression" dxfId="964" priority="980">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="979" priority="981">
+    <cfRule type="expression" dxfId="963" priority="981">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="978" priority="982">
+    <cfRule type="expression" dxfId="962" priority="982">
       <formula>Y$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="977" priority="983">
+    <cfRule type="expression" dxfId="961" priority="983">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="976" priority="984">
+    <cfRule type="expression" dxfId="960" priority="984">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10">
-    <cfRule type="expression" dxfId="975" priority="969">
+    <cfRule type="expression" dxfId="959" priority="969">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="974" priority="970">
+    <cfRule type="expression" dxfId="958" priority="970">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="973" priority="971">
+    <cfRule type="expression" dxfId="957" priority="971">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="972" priority="972">
+    <cfRule type="expression" dxfId="956" priority="972">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="971" priority="973">
+    <cfRule type="expression" dxfId="955" priority="973">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="970" priority="974">
+    <cfRule type="expression" dxfId="954" priority="974">
       <formula>AA$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="969" priority="975">
+    <cfRule type="expression" dxfId="953" priority="975">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="968" priority="976">
+    <cfRule type="expression" dxfId="952" priority="976">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC10">
-    <cfRule type="expression" dxfId="967" priority="961">
+    <cfRule type="expression" dxfId="951" priority="961">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="966" priority="962">
+    <cfRule type="expression" dxfId="950" priority="962">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="965" priority="963">
+    <cfRule type="expression" dxfId="949" priority="963">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="964" priority="964">
+    <cfRule type="expression" dxfId="948" priority="964">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="963" priority="965">
+    <cfRule type="expression" dxfId="947" priority="965">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="962" priority="966">
+    <cfRule type="expression" dxfId="946" priority="966">
       <formula>AC$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="961" priority="967">
+    <cfRule type="expression" dxfId="945" priority="967">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="960" priority="968">
+    <cfRule type="expression" dxfId="944" priority="968">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE10">
-    <cfRule type="expression" dxfId="959" priority="953">
+    <cfRule type="expression" dxfId="943" priority="953">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="958" priority="954">
+    <cfRule type="expression" dxfId="942" priority="954">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="957" priority="955">
+    <cfRule type="expression" dxfId="941" priority="955">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="956" priority="956">
+    <cfRule type="expression" dxfId="940" priority="956">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="955" priority="957">
+    <cfRule type="expression" dxfId="939" priority="957">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="954" priority="958">
+    <cfRule type="expression" dxfId="938" priority="958">
       <formula>AE$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="953" priority="959">
+    <cfRule type="expression" dxfId="937" priority="959">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="952" priority="960">
+    <cfRule type="expression" dxfId="936" priority="960">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10">
-    <cfRule type="expression" dxfId="951" priority="945">
+    <cfRule type="expression" dxfId="935" priority="945">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="950" priority="946">
+    <cfRule type="expression" dxfId="934" priority="946">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="949" priority="947">
+    <cfRule type="expression" dxfId="933" priority="947">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="948" priority="948">
+    <cfRule type="expression" dxfId="932" priority="948">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="947" priority="949">
+    <cfRule type="expression" dxfId="931" priority="949">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="946" priority="950">
+    <cfRule type="expression" dxfId="930" priority="950">
       <formula>AG$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="945" priority="951">
+    <cfRule type="expression" dxfId="929" priority="951">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="944" priority="952">
+    <cfRule type="expression" dxfId="928" priority="952">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI10">
-    <cfRule type="expression" dxfId="943" priority="937">
+    <cfRule type="expression" dxfId="927" priority="937">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="942" priority="938">
+    <cfRule type="expression" dxfId="926" priority="938">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="941" priority="939">
+    <cfRule type="expression" dxfId="925" priority="939">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="940" priority="940">
+    <cfRule type="expression" dxfId="924" priority="940">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="939" priority="941">
+    <cfRule type="expression" dxfId="923" priority="941">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="938" priority="942">
+    <cfRule type="expression" dxfId="922" priority="942">
       <formula>AI$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="937" priority="943">
+    <cfRule type="expression" dxfId="921" priority="943">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="936" priority="944">
+    <cfRule type="expression" dxfId="920" priority="944">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK10">
-    <cfRule type="expression" dxfId="935" priority="929">
+    <cfRule type="expression" dxfId="919" priority="929">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="934" priority="930">
+    <cfRule type="expression" dxfId="918" priority="930">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="933" priority="931">
+    <cfRule type="expression" dxfId="917" priority="931">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="932" priority="932">
+    <cfRule type="expression" dxfId="916" priority="932">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="931" priority="933">
+    <cfRule type="expression" dxfId="915" priority="933">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="930" priority="934">
+    <cfRule type="expression" dxfId="914" priority="934">
       <formula>AK$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="929" priority="935">
+    <cfRule type="expression" dxfId="913" priority="935">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="928" priority="936">
+    <cfRule type="expression" dxfId="912" priority="936">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM10">
-    <cfRule type="expression" dxfId="927" priority="921">
+    <cfRule type="expression" dxfId="911" priority="921">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="926" priority="922">
+    <cfRule type="expression" dxfId="910" priority="922">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="925" priority="923">
+    <cfRule type="expression" dxfId="909" priority="923">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="924" priority="924">
+    <cfRule type="expression" dxfId="908" priority="924">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="923" priority="925">
+    <cfRule type="expression" dxfId="907" priority="925">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="922" priority="926">
+    <cfRule type="expression" dxfId="906" priority="926">
       <formula>AM$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="921" priority="927">
+    <cfRule type="expression" dxfId="905" priority="927">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="920" priority="928">
+    <cfRule type="expression" dxfId="904" priority="928">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO10">
-    <cfRule type="expression" dxfId="919" priority="913">
+    <cfRule type="expression" dxfId="903" priority="913">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="918" priority="914">
+    <cfRule type="expression" dxfId="902" priority="914">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="917" priority="915">
+    <cfRule type="expression" dxfId="901" priority="915">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="916" priority="916">
+    <cfRule type="expression" dxfId="900" priority="916">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="915" priority="917">
+    <cfRule type="expression" dxfId="899" priority="917">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="914" priority="918">
+    <cfRule type="expression" dxfId="898" priority="918">
       <formula>AO$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="913" priority="919">
+    <cfRule type="expression" dxfId="897" priority="919">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="912" priority="920">
+    <cfRule type="expression" dxfId="896" priority="920">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE14">
-    <cfRule type="expression" dxfId="911" priority="905">
+    <cfRule type="expression" dxfId="895" priority="905">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="910" priority="906">
+    <cfRule type="expression" dxfId="894" priority="906">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="909" priority="907">
+    <cfRule type="expression" dxfId="893" priority="907">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="908" priority="908">
+    <cfRule type="expression" dxfId="892" priority="908">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="907" priority="909">
+    <cfRule type="expression" dxfId="891" priority="909">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="906" priority="910">
+    <cfRule type="expression" dxfId="890" priority="910">
       <formula>AE$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="905" priority="911">
+    <cfRule type="expression" dxfId="889" priority="911">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="904" priority="912">
+    <cfRule type="expression" dxfId="888" priority="912">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC14">
-    <cfRule type="expression" dxfId="903" priority="897">
+    <cfRule type="expression" dxfId="887" priority="897">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="902" priority="898">
+    <cfRule type="expression" dxfId="886" priority="898">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="901" priority="899">
+    <cfRule type="expression" dxfId="885" priority="899">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="900" priority="900">
+    <cfRule type="expression" dxfId="884" priority="900">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="899" priority="901">
+    <cfRule type="expression" dxfId="883" priority="901">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="898" priority="902">
+    <cfRule type="expression" dxfId="882" priority="902">
       <formula>AC$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="897" priority="903">
+    <cfRule type="expression" dxfId="881" priority="903">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="896" priority="904">
+    <cfRule type="expression" dxfId="880" priority="904">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA14">
-    <cfRule type="expression" dxfId="895" priority="889">
+    <cfRule type="expression" dxfId="879" priority="889">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="894" priority="890">
+    <cfRule type="expression" dxfId="878" priority="890">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="893" priority="891">
+    <cfRule type="expression" dxfId="877" priority="891">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="892" priority="892">
+    <cfRule type="expression" dxfId="876" priority="892">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="891" priority="893">
+    <cfRule type="expression" dxfId="875" priority="893">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="890" priority="894">
+    <cfRule type="expression" dxfId="874" priority="894">
       <formula>AA$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="889" priority="895">
+    <cfRule type="expression" dxfId="873" priority="895">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="888" priority="896">
+    <cfRule type="expression" dxfId="872" priority="896">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15">
-    <cfRule type="expression" dxfId="887" priority="881">
+    <cfRule type="expression" dxfId="871" priority="881">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="886" priority="882">
+    <cfRule type="expression" dxfId="870" priority="882">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="885" priority="883">
+    <cfRule type="expression" dxfId="869" priority="883">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="884" priority="884">
+    <cfRule type="expression" dxfId="868" priority="884">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="883" priority="885">
+    <cfRule type="expression" dxfId="867" priority="885">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="882" priority="886">
+    <cfRule type="expression" dxfId="866" priority="886">
       <formula>AE$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="881" priority="887">
+    <cfRule type="expression" dxfId="865" priority="887">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="880" priority="888">
+    <cfRule type="expression" dxfId="864" priority="888">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16">
-    <cfRule type="expression" dxfId="879" priority="873">
+    <cfRule type="expression" dxfId="863" priority="873">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="878" priority="874">
+    <cfRule type="expression" dxfId="862" priority="874">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="877" priority="875">
+    <cfRule type="expression" dxfId="861" priority="875">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="876" priority="876">
+    <cfRule type="expression" dxfId="860" priority="876">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="875" priority="877">
+    <cfRule type="expression" dxfId="859" priority="877">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="874" priority="878">
+    <cfRule type="expression" dxfId="858" priority="878">
       <formula>AK$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="873" priority="879">
+    <cfRule type="expression" dxfId="857" priority="879">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="872" priority="880">
+    <cfRule type="expression" dxfId="856" priority="880">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM16">
-    <cfRule type="expression" dxfId="871" priority="865">
+    <cfRule type="expression" dxfId="855" priority="865">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="870" priority="866">
+    <cfRule type="expression" dxfId="854" priority="866">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="869" priority="867">
+    <cfRule type="expression" dxfId="853" priority="867">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="868" priority="868">
+    <cfRule type="expression" dxfId="852" priority="868">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="867" priority="869">
+    <cfRule type="expression" dxfId="851" priority="869">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="866" priority="870">
+    <cfRule type="expression" dxfId="850" priority="870">
       <formula>AM$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="865" priority="871">
+    <cfRule type="expression" dxfId="849" priority="871">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="864" priority="872">
+    <cfRule type="expression" dxfId="848" priority="872">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO16">
-    <cfRule type="expression" dxfId="863" priority="857">
+    <cfRule type="expression" dxfId="847" priority="857">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="862" priority="858">
+    <cfRule type="expression" dxfId="846" priority="858">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="861" priority="859">
+    <cfRule type="expression" dxfId="845" priority="859">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="860" priority="860">
+    <cfRule type="expression" dxfId="844" priority="860">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="859" priority="861">
+    <cfRule type="expression" dxfId="843" priority="861">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="858" priority="862">
+    <cfRule type="expression" dxfId="842" priority="862">
       <formula>AO$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="857" priority="863">
+    <cfRule type="expression" dxfId="841" priority="863">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="856" priority="864">
+    <cfRule type="expression" dxfId="840" priority="864">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS18">
-    <cfRule type="expression" dxfId="855" priority="849">
+    <cfRule type="expression" dxfId="839" priority="849">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="854" priority="850">
+    <cfRule type="expression" dxfId="838" priority="850">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="853" priority="851">
+    <cfRule type="expression" dxfId="837" priority="851">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="852" priority="852">
+    <cfRule type="expression" dxfId="836" priority="852">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="851" priority="853">
+    <cfRule type="expression" dxfId="835" priority="853">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="850" priority="854">
+    <cfRule type="expression" dxfId="834" priority="854">
       <formula>AS$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="849" priority="855">
+    <cfRule type="expression" dxfId="833" priority="855">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="848" priority="856">
+    <cfRule type="expression" dxfId="832" priority="856">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS19">
-    <cfRule type="expression" dxfId="847" priority="841">
+    <cfRule type="expression" dxfId="831" priority="841">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="846" priority="842">
+    <cfRule type="expression" dxfId="830" priority="842">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="845" priority="843">
+    <cfRule type="expression" dxfId="829" priority="843">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="844" priority="844">
+    <cfRule type="expression" dxfId="828" priority="844">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="843" priority="845">
+    <cfRule type="expression" dxfId="827" priority="845">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="842" priority="846">
+    <cfRule type="expression" dxfId="826" priority="846">
       <formula>AS$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="841" priority="847">
+    <cfRule type="expression" dxfId="825" priority="847">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="840" priority="848">
+    <cfRule type="expression" dxfId="824" priority="848">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT19">
-    <cfRule type="expression" dxfId="839" priority="833">
+    <cfRule type="expression" dxfId="823" priority="833">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="838" priority="834">
+    <cfRule type="expression" dxfId="822" priority="834">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="837" priority="835">
+    <cfRule type="expression" dxfId="821" priority="835">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="836" priority="836">
+    <cfRule type="expression" dxfId="820" priority="836">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="835" priority="837">
+    <cfRule type="expression" dxfId="819" priority="837">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="834" priority="838">
+    <cfRule type="expression" dxfId="818" priority="838">
       <formula>AT$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="833" priority="839">
+    <cfRule type="expression" dxfId="817" priority="839">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="832" priority="840">
+    <cfRule type="expression" dxfId="816" priority="840">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT18">
-    <cfRule type="expression" dxfId="831" priority="825">
+    <cfRule type="expression" dxfId="815" priority="825">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="830" priority="826">
+    <cfRule type="expression" dxfId="814" priority="826">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="829" priority="827">
+    <cfRule type="expression" dxfId="813" priority="827">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="828" priority="828">
+    <cfRule type="expression" dxfId="812" priority="828">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="827" priority="829">
+    <cfRule type="expression" dxfId="811" priority="829">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="826" priority="830">
+    <cfRule type="expression" dxfId="810" priority="830">
       <formula>AT$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="825" priority="831">
+    <cfRule type="expression" dxfId="809" priority="831">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="824" priority="832">
+    <cfRule type="expression" dxfId="808" priority="832">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT20">
-    <cfRule type="expression" dxfId="823" priority="817">
+    <cfRule type="expression" dxfId="807" priority="817">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="822" priority="818">
+    <cfRule type="expression" dxfId="806" priority="818">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="821" priority="819">
+    <cfRule type="expression" dxfId="805" priority="819">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="820" priority="820">
+    <cfRule type="expression" dxfId="804" priority="820">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="819" priority="821">
+    <cfRule type="expression" dxfId="803" priority="821">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="818" priority="822">
+    <cfRule type="expression" dxfId="802" priority="822">
       <formula>AT$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="817" priority="823">
+    <cfRule type="expression" dxfId="801" priority="823">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="816" priority="824">
+    <cfRule type="expression" dxfId="800" priority="824">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT21">
-    <cfRule type="expression" dxfId="815" priority="809">
+    <cfRule type="expression" dxfId="799" priority="809">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="814" priority="810">
+    <cfRule type="expression" dxfId="798" priority="810">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="813" priority="811">
+    <cfRule type="expression" dxfId="797" priority="811">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="812" priority="812">
+    <cfRule type="expression" dxfId="796" priority="812">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="811" priority="813">
+    <cfRule type="expression" dxfId="795" priority="813">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="810" priority="814">
+    <cfRule type="expression" dxfId="794" priority="814">
       <formula>AT$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="809" priority="815">
+    <cfRule type="expression" dxfId="793" priority="815">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="808" priority="816">
+    <cfRule type="expression" dxfId="792" priority="816">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT22">
-    <cfRule type="expression" dxfId="807" priority="801">
+    <cfRule type="expression" dxfId="791" priority="801">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="806" priority="802">
+    <cfRule type="expression" dxfId="790" priority="802">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="805" priority="803">
+    <cfRule type="expression" dxfId="789" priority="803">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="804" priority="804">
+    <cfRule type="expression" dxfId="788" priority="804">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="803" priority="805">
+    <cfRule type="expression" dxfId="787" priority="805">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="802" priority="806">
+    <cfRule type="expression" dxfId="786" priority="806">
       <formula>AT$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="801" priority="807">
+    <cfRule type="expression" dxfId="785" priority="807">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="800" priority="808">
+    <cfRule type="expression" dxfId="784" priority="808">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT23">
-    <cfRule type="expression" dxfId="799" priority="793">
+    <cfRule type="expression" dxfId="783" priority="793">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="798" priority="794">
+    <cfRule type="expression" dxfId="782" priority="794">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="797" priority="795">
+    <cfRule type="expression" dxfId="781" priority="795">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="796" priority="796">
+    <cfRule type="expression" dxfId="780" priority="796">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="795" priority="797">
+    <cfRule type="expression" dxfId="779" priority="797">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="794" priority="798">
+    <cfRule type="expression" dxfId="778" priority="798">
       <formula>AT$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="793" priority="799">
+    <cfRule type="expression" dxfId="777" priority="799">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="792" priority="800">
+    <cfRule type="expression" dxfId="776" priority="800">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV18">
-    <cfRule type="expression" dxfId="791" priority="785">
+    <cfRule type="expression" dxfId="775" priority="785">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="790" priority="786">
+    <cfRule type="expression" dxfId="774" priority="786">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="789" priority="787">
+    <cfRule type="expression" dxfId="773" priority="787">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="788" priority="788">
+    <cfRule type="expression" dxfId="772" priority="788">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="787" priority="789">
+    <cfRule type="expression" dxfId="771" priority="789">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="786" priority="790">
+    <cfRule type="expression" dxfId="770" priority="790">
       <formula>AV$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="785" priority="791">
+    <cfRule type="expression" dxfId="769" priority="791">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="792">
+    <cfRule type="expression" dxfId="768" priority="792">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV19">
-    <cfRule type="expression" dxfId="783" priority="777">
+    <cfRule type="expression" dxfId="767" priority="777">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="782" priority="778">
+    <cfRule type="expression" dxfId="766" priority="778">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="781" priority="779">
+    <cfRule type="expression" dxfId="765" priority="779">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="780" priority="780">
+    <cfRule type="expression" dxfId="764" priority="780">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="779" priority="781">
+    <cfRule type="expression" dxfId="763" priority="781">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="778" priority="782">
+    <cfRule type="expression" dxfId="762" priority="782">
       <formula>AV$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="777" priority="783">
+    <cfRule type="expression" dxfId="761" priority="783">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="776" priority="784">
+    <cfRule type="expression" dxfId="760" priority="784">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV20">
-    <cfRule type="expression" dxfId="775" priority="769">
+    <cfRule type="expression" dxfId="759" priority="769">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="774" priority="770">
+    <cfRule type="expression" dxfId="758" priority="770">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="773" priority="771">
+    <cfRule type="expression" dxfId="757" priority="771">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="772" priority="772">
+    <cfRule type="expression" dxfId="756" priority="772">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="771" priority="773">
+    <cfRule type="expression" dxfId="755" priority="773">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="770" priority="774">
+    <cfRule type="expression" dxfId="754" priority="774">
       <formula>AV$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="769" priority="775">
+    <cfRule type="expression" dxfId="753" priority="775">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="768" priority="776">
+    <cfRule type="expression" dxfId="752" priority="776">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV21">
-    <cfRule type="expression" dxfId="767" priority="761">
+    <cfRule type="expression" dxfId="751" priority="761">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="766" priority="762">
+    <cfRule type="expression" dxfId="750" priority="762">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="765" priority="763">
+    <cfRule type="expression" dxfId="749" priority="763">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="764" priority="764">
+    <cfRule type="expression" dxfId="748" priority="764">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="763" priority="765">
+    <cfRule type="expression" dxfId="747" priority="765">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="762" priority="766">
+    <cfRule type="expression" dxfId="746" priority="766">
       <formula>AV$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="761" priority="767">
+    <cfRule type="expression" dxfId="745" priority="767">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="760" priority="768">
+    <cfRule type="expression" dxfId="744" priority="768">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV22">
-    <cfRule type="expression" dxfId="759" priority="753">
+    <cfRule type="expression" dxfId="743" priority="753">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="758" priority="754">
+    <cfRule type="expression" dxfId="742" priority="754">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="757" priority="755">
+    <cfRule type="expression" dxfId="741" priority="755">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="756" priority="756">
+    <cfRule type="expression" dxfId="740" priority="756">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="755" priority="757">
+    <cfRule type="expression" dxfId="739" priority="757">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="754" priority="758">
+    <cfRule type="expression" dxfId="738" priority="758">
       <formula>AV$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="753" priority="759">
+    <cfRule type="expression" dxfId="737" priority="759">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="752" priority="760">
+    <cfRule type="expression" dxfId="736" priority="760">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV23">
-    <cfRule type="expression" dxfId="751" priority="745">
+    <cfRule type="expression" dxfId="735" priority="745">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="750" priority="746">
+    <cfRule type="expression" dxfId="734" priority="746">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="749" priority="747">
+    <cfRule type="expression" dxfId="733" priority="747">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="748">
+    <cfRule type="expression" dxfId="732" priority="748">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="747" priority="749">
+    <cfRule type="expression" dxfId="731" priority="749">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="746" priority="750">
+    <cfRule type="expression" dxfId="730" priority="750">
       <formula>AV$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="745" priority="751">
+    <cfRule type="expression" dxfId="729" priority="751">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="752">
+    <cfRule type="expression" dxfId="728" priority="752">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR19">
-    <cfRule type="expression" dxfId="743" priority="737">
+    <cfRule type="expression" dxfId="727" priority="737">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="742" priority="738">
+    <cfRule type="expression" dxfId="726" priority="738">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="741" priority="739">
+    <cfRule type="expression" dxfId="725" priority="739">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="740" priority="740">
+    <cfRule type="expression" dxfId="724" priority="740">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="739" priority="741">
+    <cfRule type="expression" dxfId="723" priority="741">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="738" priority="742">
+    <cfRule type="expression" dxfId="722" priority="742">
       <formula>AR$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="737" priority="743">
+    <cfRule type="expression" dxfId="721" priority="743">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="744">
+    <cfRule type="expression" dxfId="720" priority="744">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR18">
-    <cfRule type="expression" dxfId="735" priority="729">
+    <cfRule type="expression" dxfId="719" priority="729">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="734" priority="730">
+    <cfRule type="expression" dxfId="718" priority="730">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="733" priority="731">
+    <cfRule type="expression" dxfId="717" priority="731">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="732">
+    <cfRule type="expression" dxfId="716" priority="732">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="731" priority="733">
+    <cfRule type="expression" dxfId="715" priority="733">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="730" priority="734">
+    <cfRule type="expression" dxfId="714" priority="734">
       <formula>AR$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="729" priority="735">
+    <cfRule type="expression" dxfId="713" priority="735">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="728" priority="736">
+    <cfRule type="expression" dxfId="712" priority="736">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR20">
-    <cfRule type="expression" dxfId="727" priority="721">
+    <cfRule type="expression" dxfId="711" priority="721">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="722">
+    <cfRule type="expression" dxfId="710" priority="722">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="725" priority="723">
+    <cfRule type="expression" dxfId="709" priority="723">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="724">
+    <cfRule type="expression" dxfId="708" priority="724">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="725">
+    <cfRule type="expression" dxfId="707" priority="725">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="722" priority="726">
+    <cfRule type="expression" dxfId="706" priority="726">
       <formula>AR$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="727">
+    <cfRule type="expression" dxfId="705" priority="727">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="728">
+    <cfRule type="expression" dxfId="704" priority="728">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR21">
-    <cfRule type="expression" dxfId="719" priority="713">
+    <cfRule type="expression" dxfId="703" priority="713">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="718" priority="714">
+    <cfRule type="expression" dxfId="702" priority="714">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="717" priority="715">
+    <cfRule type="expression" dxfId="701" priority="715">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="716" priority="716">
+    <cfRule type="expression" dxfId="700" priority="716">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="715" priority="717">
+    <cfRule type="expression" dxfId="699" priority="717">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="714" priority="718">
+    <cfRule type="expression" dxfId="698" priority="718">
       <formula>AR$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="713" priority="719">
+    <cfRule type="expression" dxfId="697" priority="719">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="720">
+    <cfRule type="expression" dxfId="696" priority="720">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR22">
-    <cfRule type="expression" dxfId="711" priority="705">
+    <cfRule type="expression" dxfId="695" priority="705">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="710" priority="706">
+    <cfRule type="expression" dxfId="694" priority="706">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="707">
+    <cfRule type="expression" dxfId="693" priority="707">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="708">
+    <cfRule type="expression" dxfId="692" priority="708">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="707" priority="709">
+    <cfRule type="expression" dxfId="691" priority="709">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="706" priority="710">
+    <cfRule type="expression" dxfId="690" priority="710">
       <formula>AR$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="705" priority="711">
+    <cfRule type="expression" dxfId="689" priority="711">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="704" priority="712">
+    <cfRule type="expression" dxfId="688" priority="712">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR23">
-    <cfRule type="expression" dxfId="703" priority="697">
+    <cfRule type="expression" dxfId="687" priority="697">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="698">
+    <cfRule type="expression" dxfId="686" priority="698">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="701" priority="699">
+    <cfRule type="expression" dxfId="685" priority="699">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="700">
+    <cfRule type="expression" dxfId="684" priority="700">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="699" priority="701">
+    <cfRule type="expression" dxfId="683" priority="701">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="698" priority="702">
+    <cfRule type="expression" dxfId="682" priority="702">
       <formula>AR$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="697" priority="703">
+    <cfRule type="expression" dxfId="681" priority="703">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="704">
+    <cfRule type="expression" dxfId="680" priority="704">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP16">
-    <cfRule type="expression" dxfId="695" priority="689">
+    <cfRule type="expression" dxfId="679" priority="689">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="690">
+    <cfRule type="expression" dxfId="678" priority="690">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="693" priority="691">
+    <cfRule type="expression" dxfId="677" priority="691">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="692" priority="692">
+    <cfRule type="expression" dxfId="676" priority="692">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="691" priority="693">
+    <cfRule type="expression" dxfId="675" priority="693">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="694">
+    <cfRule type="expression" dxfId="674" priority="694">
       <formula>AP$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="689" priority="695">
+    <cfRule type="expression" dxfId="673" priority="695">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="696">
+    <cfRule type="expression" dxfId="672" priority="696">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN16">
-    <cfRule type="expression" dxfId="687" priority="681">
+    <cfRule type="expression" dxfId="671" priority="681">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="682">
+    <cfRule type="expression" dxfId="670" priority="682">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="683">
+    <cfRule type="expression" dxfId="669" priority="683">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="684">
+    <cfRule type="expression" dxfId="668" priority="684">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="683" priority="685">
+    <cfRule type="expression" dxfId="667" priority="685">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="686">
+    <cfRule type="expression" dxfId="666" priority="686">
       <formula>AN$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="687">
+    <cfRule type="expression" dxfId="665" priority="687">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="680" priority="688">
+    <cfRule type="expression" dxfId="664" priority="688">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH10">
-    <cfRule type="expression" dxfId="679" priority="673">
+    <cfRule type="expression" dxfId="663" priority="673">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="674">
+    <cfRule type="expression" dxfId="662" priority="674">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="677" priority="675">
+    <cfRule type="expression" dxfId="661" priority="675">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="676">
+    <cfRule type="expression" dxfId="660" priority="676">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="677">
+    <cfRule type="expression" dxfId="659" priority="677">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="678">
+    <cfRule type="expression" dxfId="658" priority="678">
       <formula>AH$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="679">
+    <cfRule type="expression" dxfId="657" priority="679">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="680">
+    <cfRule type="expression" dxfId="656" priority="680">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ10">
-    <cfRule type="expression" dxfId="671" priority="665">
+    <cfRule type="expression" dxfId="655" priority="665">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="666">
+    <cfRule type="expression" dxfId="654" priority="666">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="667">
+    <cfRule type="expression" dxfId="653" priority="667">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="668">
+    <cfRule type="expression" dxfId="652" priority="668">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="669">
+    <cfRule type="expression" dxfId="651" priority="669">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="670">
+    <cfRule type="expression" dxfId="650" priority="670">
       <formula>AJ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="671">
+    <cfRule type="expression" dxfId="649" priority="671">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="672">
+    <cfRule type="expression" dxfId="648" priority="672">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL10">
-    <cfRule type="expression" dxfId="663" priority="657">
+    <cfRule type="expression" dxfId="647" priority="657">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="658">
+    <cfRule type="expression" dxfId="646" priority="658">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="659">
+    <cfRule type="expression" dxfId="645" priority="659">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="660">
+    <cfRule type="expression" dxfId="644" priority="660">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="659" priority="661">
+    <cfRule type="expression" dxfId="643" priority="661">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="662">
+    <cfRule type="expression" dxfId="642" priority="662">
       <formula>AL$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="663">
+    <cfRule type="expression" dxfId="641" priority="663">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="656" priority="664">
+    <cfRule type="expression" dxfId="640" priority="664">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN10">
-    <cfRule type="expression" dxfId="655" priority="649">
+    <cfRule type="expression" dxfId="639" priority="649">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="650">
+    <cfRule type="expression" dxfId="638" priority="650">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="653" priority="651">
+    <cfRule type="expression" dxfId="637" priority="651">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="652">
+    <cfRule type="expression" dxfId="636" priority="652">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="653">
+    <cfRule type="expression" dxfId="635" priority="653">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="654">
+    <cfRule type="expression" dxfId="634" priority="654">
       <formula>AN$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="655">
+    <cfRule type="expression" dxfId="633" priority="655">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="656">
+    <cfRule type="expression" dxfId="632" priority="656">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI15">
-    <cfRule type="expression" dxfId="647" priority="641">
+    <cfRule type="expression" dxfId="631" priority="641">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="642">
+    <cfRule type="expression" dxfId="630" priority="642">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="643">
+    <cfRule type="expression" dxfId="629" priority="643">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="644">
+    <cfRule type="expression" dxfId="628" priority="644">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="645">
+    <cfRule type="expression" dxfId="627" priority="645">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="646">
+    <cfRule type="expression" dxfId="626" priority="646">
       <formula>AI$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="647">
+    <cfRule type="expression" dxfId="625" priority="647">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="648">
+    <cfRule type="expression" dxfId="624" priority="648">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD14">
-    <cfRule type="expression" dxfId="639" priority="633">
+    <cfRule type="expression" dxfId="623" priority="633">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="634">
+    <cfRule type="expression" dxfId="622" priority="634">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="635">
+    <cfRule type="expression" dxfId="621" priority="635">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="636">
+    <cfRule type="expression" dxfId="620" priority="636">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="637">
+    <cfRule type="expression" dxfId="619" priority="637">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="638">
+    <cfRule type="expression" dxfId="618" priority="638">
       <formula>AD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="639">
+    <cfRule type="expression" dxfId="617" priority="639">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="640">
+    <cfRule type="expression" dxfId="616" priority="640">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF14">
-    <cfRule type="expression" dxfId="631" priority="625">
+    <cfRule type="expression" dxfId="615" priority="625">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="626">
+    <cfRule type="expression" dxfId="614" priority="626">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="627">
+    <cfRule type="expression" dxfId="613" priority="627">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="628">
+    <cfRule type="expression" dxfId="612" priority="628">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="629">
+    <cfRule type="expression" dxfId="611" priority="629">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="630">
+    <cfRule type="expression" dxfId="610" priority="630">
       <formula>AF$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="631">
+    <cfRule type="expression" dxfId="609" priority="631">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="632">
+    <cfRule type="expression" dxfId="608" priority="632">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10">
-    <cfRule type="expression" dxfId="623" priority="617">
+    <cfRule type="expression" dxfId="607" priority="617">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="618">
+    <cfRule type="expression" dxfId="606" priority="618">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="619">
+    <cfRule type="expression" dxfId="605" priority="619">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="620">
+    <cfRule type="expression" dxfId="604" priority="620">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="621">
+    <cfRule type="expression" dxfId="603" priority="621">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="622">
+    <cfRule type="expression" dxfId="602" priority="622">
       <formula>AF$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="617" priority="623">
+    <cfRule type="expression" dxfId="601" priority="623">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="624">
+    <cfRule type="expression" dxfId="600" priority="624">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD10">
-    <cfRule type="expression" dxfId="615" priority="609">
+    <cfRule type="expression" dxfId="599" priority="609">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="610">
+    <cfRule type="expression" dxfId="598" priority="610">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="611">
+    <cfRule type="expression" dxfId="597" priority="611">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="612">
+    <cfRule type="expression" dxfId="596" priority="612">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="611" priority="613">
+    <cfRule type="expression" dxfId="595" priority="613">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="614">
+    <cfRule type="expression" dxfId="594" priority="614">
       <formula>AD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="615">
+    <cfRule type="expression" dxfId="593" priority="615">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="616">
+    <cfRule type="expression" dxfId="592" priority="616">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="expression" dxfId="607" priority="601">
+    <cfRule type="expression" dxfId="591" priority="601">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="602">
+    <cfRule type="expression" dxfId="590" priority="602">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="605" priority="603">
+    <cfRule type="expression" dxfId="589" priority="603">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="604">
+    <cfRule type="expression" dxfId="588" priority="604">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="605">
+    <cfRule type="expression" dxfId="587" priority="605">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="606">
+    <cfRule type="expression" dxfId="586" priority="606">
       <formula>AB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="607">
+    <cfRule type="expression" dxfId="585" priority="607">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="608">
+    <cfRule type="expression" dxfId="584" priority="608">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z10">
-    <cfRule type="expression" dxfId="599" priority="593">
+    <cfRule type="expression" dxfId="583" priority="593">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="594">
+    <cfRule type="expression" dxfId="582" priority="594">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="595">
+    <cfRule type="expression" dxfId="581" priority="595">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="596">
+    <cfRule type="expression" dxfId="580" priority="596">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="597">
+    <cfRule type="expression" dxfId="579" priority="597">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="598">
+    <cfRule type="expression" dxfId="578" priority="598">
       <formula>Z$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="599">
+    <cfRule type="expression" dxfId="577" priority="599">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="600">
+    <cfRule type="expression" dxfId="576" priority="600">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB14">
-    <cfRule type="expression" dxfId="591" priority="585">
+    <cfRule type="expression" dxfId="575" priority="585">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="586">
+    <cfRule type="expression" dxfId="574" priority="586">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="587">
+    <cfRule type="expression" dxfId="573" priority="587">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="588">
+    <cfRule type="expression" dxfId="572" priority="588">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="589">
+    <cfRule type="expression" dxfId="571" priority="589">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="590">
+    <cfRule type="expression" dxfId="570" priority="590">
       <formula>AB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="591">
+    <cfRule type="expression" dxfId="569" priority="591">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="592">
+    <cfRule type="expression" dxfId="568" priority="592">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X10">
-    <cfRule type="expression" dxfId="583" priority="577">
+    <cfRule type="expression" dxfId="567" priority="577">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="578">
+    <cfRule type="expression" dxfId="566" priority="578">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="579">
+    <cfRule type="expression" dxfId="565" priority="579">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="580">
+    <cfRule type="expression" dxfId="564" priority="580">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="581">
+    <cfRule type="expression" dxfId="563" priority="581">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="582">
+    <cfRule type="expression" dxfId="562" priority="582">
       <formula>X$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="583">
+    <cfRule type="expression" dxfId="561" priority="583">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="584">
+    <cfRule type="expression" dxfId="560" priority="584">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="expression" dxfId="575" priority="569">
+    <cfRule type="expression" dxfId="559" priority="569">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="570">
+    <cfRule type="expression" dxfId="558" priority="570">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="571">
+    <cfRule type="expression" dxfId="557" priority="571">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="572">
+    <cfRule type="expression" dxfId="556" priority="572">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="573">
+    <cfRule type="expression" dxfId="555" priority="573">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="574">
+    <cfRule type="expression" dxfId="554" priority="574">
       <formula>V$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="569" priority="575">
+    <cfRule type="expression" dxfId="553" priority="575">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="576">
+    <cfRule type="expression" dxfId="552" priority="576">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10">
-    <cfRule type="expression" dxfId="567" priority="561">
+    <cfRule type="expression" dxfId="551" priority="561">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="562">
+    <cfRule type="expression" dxfId="550" priority="562">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="563">
+    <cfRule type="expression" dxfId="549" priority="563">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="564">
+    <cfRule type="expression" dxfId="548" priority="564">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="565">
+    <cfRule type="expression" dxfId="547" priority="565">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="566">
+    <cfRule type="expression" dxfId="546" priority="566">
       <formula>T$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="567">
+    <cfRule type="expression" dxfId="545" priority="567">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="568">
+    <cfRule type="expression" dxfId="544" priority="568">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12">
-    <cfRule type="expression" dxfId="559" priority="553">
+    <cfRule type="expression" dxfId="543" priority="553">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="554">
+    <cfRule type="expression" dxfId="542" priority="554">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="555">
+    <cfRule type="expression" dxfId="541" priority="555">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="556">
+    <cfRule type="expression" dxfId="540" priority="556">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="557">
+    <cfRule type="expression" dxfId="539" priority="557">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="558">
+    <cfRule type="expression" dxfId="538" priority="558">
       <formula>T$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="559">
+    <cfRule type="expression" dxfId="537" priority="559">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="560">
+    <cfRule type="expression" dxfId="536" priority="560">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="expression" dxfId="551" priority="545">
+    <cfRule type="expression" dxfId="535" priority="545">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="546">
+    <cfRule type="expression" dxfId="534" priority="546">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="547">
+    <cfRule type="expression" dxfId="533" priority="547">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="548">
+    <cfRule type="expression" dxfId="532" priority="548">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="549">
+    <cfRule type="expression" dxfId="531" priority="549">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="550">
+    <cfRule type="expression" dxfId="530" priority="550">
       <formula>R$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="551">
+    <cfRule type="expression" dxfId="529" priority="551">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="552">
+    <cfRule type="expression" dxfId="528" priority="552">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="543" priority="537">
+    <cfRule type="expression" dxfId="527" priority="537">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="538">
+    <cfRule type="expression" dxfId="526" priority="538">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="539">
+    <cfRule type="expression" dxfId="525" priority="539">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="540">
+    <cfRule type="expression" dxfId="524" priority="540">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="541">
+    <cfRule type="expression" dxfId="523" priority="541">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="542">
+    <cfRule type="expression" dxfId="522" priority="542">
       <formula>R$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="543">
+    <cfRule type="expression" dxfId="521" priority="543">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="544">
+    <cfRule type="expression" dxfId="520" priority="544">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="expression" dxfId="535" priority="529">
+    <cfRule type="expression" dxfId="519" priority="529">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="530">
+    <cfRule type="expression" dxfId="518" priority="530">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="531">
+    <cfRule type="expression" dxfId="517" priority="531">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="532">
+    <cfRule type="expression" dxfId="516" priority="532">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="533">
+    <cfRule type="expression" dxfId="515" priority="533">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="534">
+    <cfRule type="expression" dxfId="514" priority="534">
       <formula>P$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="535">
+    <cfRule type="expression" dxfId="513" priority="535">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="536">
+    <cfRule type="expression" dxfId="512" priority="536">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="expression" dxfId="527" priority="521">
+    <cfRule type="expression" dxfId="511" priority="521">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="522">
+    <cfRule type="expression" dxfId="510" priority="522">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="523">
+    <cfRule type="expression" dxfId="509" priority="523">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="524">
+    <cfRule type="expression" dxfId="508" priority="524">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="525">
+    <cfRule type="expression" dxfId="507" priority="525">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="526">
+    <cfRule type="expression" dxfId="506" priority="526">
       <formula>P$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="527">
+    <cfRule type="expression" dxfId="505" priority="527">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="528">
+    <cfRule type="expression" dxfId="504" priority="528">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="519" priority="513">
+    <cfRule type="expression" dxfId="503" priority="513">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="514">
+    <cfRule type="expression" dxfId="502" priority="514">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="515">
+    <cfRule type="expression" dxfId="501" priority="515">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="516">
+    <cfRule type="expression" dxfId="500" priority="516">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="517">
+    <cfRule type="expression" dxfId="499" priority="517">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="518">
+    <cfRule type="expression" dxfId="498" priority="518">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="519">
+    <cfRule type="expression" dxfId="497" priority="519">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="520">
+    <cfRule type="expression" dxfId="496" priority="520">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="511" priority="505">
+    <cfRule type="expression" dxfId="495" priority="505">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="506">
+    <cfRule type="expression" dxfId="494" priority="506">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="507">
+    <cfRule type="expression" dxfId="493" priority="507">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="508">
+    <cfRule type="expression" dxfId="492" priority="508">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="509">
+    <cfRule type="expression" dxfId="491" priority="509">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="510">
+    <cfRule type="expression" dxfId="490" priority="510">
       <formula>N$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="511">
+    <cfRule type="expression" dxfId="489" priority="511">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="512">
+    <cfRule type="expression" dxfId="488" priority="512">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="503" priority="497">
+    <cfRule type="expression" dxfId="487" priority="497">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="498">
+    <cfRule type="expression" dxfId="486" priority="498">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="499">
+    <cfRule type="expression" dxfId="485" priority="499">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="500">
+    <cfRule type="expression" dxfId="484" priority="500">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="501">
+    <cfRule type="expression" dxfId="483" priority="501">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="502">
+    <cfRule type="expression" dxfId="482" priority="502">
       <formula>N$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="503">
+    <cfRule type="expression" dxfId="481" priority="503">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="504">
+    <cfRule type="expression" dxfId="480" priority="504">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX18">
-    <cfRule type="expression" dxfId="495" priority="489">
+    <cfRule type="expression" dxfId="479" priority="489">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="490">
+    <cfRule type="expression" dxfId="478" priority="490">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="491">
+    <cfRule type="expression" dxfId="477" priority="491">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="492">
+    <cfRule type="expression" dxfId="476" priority="492">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="493">
+    <cfRule type="expression" dxfId="475" priority="493">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="494">
+    <cfRule type="expression" dxfId="474" priority="494">
       <formula>AX$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="495">
+    <cfRule type="expression" dxfId="473" priority="495">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="496">
+    <cfRule type="expression" dxfId="472" priority="496">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ18">
-    <cfRule type="expression" dxfId="487" priority="481">
+    <cfRule type="expression" dxfId="471" priority="481">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="482">
+    <cfRule type="expression" dxfId="470" priority="482">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="483">
+    <cfRule type="expression" dxfId="469" priority="483">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="484">
+    <cfRule type="expression" dxfId="468" priority="484">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="485">
+    <cfRule type="expression" dxfId="467" priority="485">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="486">
+    <cfRule type="expression" dxfId="466" priority="486">
       <formula>AZ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="487">
+    <cfRule type="expression" dxfId="465" priority="487">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="488">
+    <cfRule type="expression" dxfId="464" priority="488">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB18">
-    <cfRule type="expression" dxfId="479" priority="473">
+    <cfRule type="expression" dxfId="463" priority="473">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="474">
+    <cfRule type="expression" dxfId="462" priority="474">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="475">
+    <cfRule type="expression" dxfId="461" priority="475">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="476">
+    <cfRule type="expression" dxfId="460" priority="476">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="477">
+    <cfRule type="expression" dxfId="459" priority="477">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="478">
+    <cfRule type="expression" dxfId="458" priority="478">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="479">
+    <cfRule type="expression" dxfId="457" priority="479">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="480">
+    <cfRule type="expression" dxfId="456" priority="480">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD18">
-    <cfRule type="expression" dxfId="471" priority="465">
+    <cfRule type="expression" dxfId="455" priority="465">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="466">
+    <cfRule type="expression" dxfId="454" priority="466">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="467">
+    <cfRule type="expression" dxfId="453" priority="467">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="468">
+    <cfRule type="expression" dxfId="452" priority="468">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="469">
+    <cfRule type="expression" dxfId="451" priority="469">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="470">
+    <cfRule type="expression" dxfId="450" priority="470">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="471">
+    <cfRule type="expression" dxfId="449" priority="471">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="472">
+    <cfRule type="expression" dxfId="448" priority="472">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF18">
-    <cfRule type="expression" dxfId="463" priority="457">
+    <cfRule type="expression" dxfId="447" priority="457">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="458">
+    <cfRule type="expression" dxfId="446" priority="458">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="459">
+    <cfRule type="expression" dxfId="445" priority="459">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="460">
+    <cfRule type="expression" dxfId="444" priority="460">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="461">
+    <cfRule type="expression" dxfId="443" priority="461">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="462">
+    <cfRule type="expression" dxfId="442" priority="462">
       <formula>BF$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="463">
+    <cfRule type="expression" dxfId="441" priority="463">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="464">
+    <cfRule type="expression" dxfId="440" priority="464">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH18">
-    <cfRule type="expression" dxfId="455" priority="449">
+    <cfRule type="expression" dxfId="439" priority="449">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="450">
+    <cfRule type="expression" dxfId="438" priority="450">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="451">
+    <cfRule type="expression" dxfId="437" priority="451">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="452">
+    <cfRule type="expression" dxfId="436" priority="452">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="453">
+    <cfRule type="expression" dxfId="435" priority="453">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="454">
+    <cfRule type="expression" dxfId="434" priority="454">
       <formula>BH$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="455">
+    <cfRule type="expression" dxfId="433" priority="455">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="456">
+    <cfRule type="expression" dxfId="432" priority="456">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ18">
-    <cfRule type="expression" dxfId="447" priority="441">
+    <cfRule type="expression" dxfId="431" priority="441">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="442">
+    <cfRule type="expression" dxfId="430" priority="442">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="443">
+    <cfRule type="expression" dxfId="429" priority="443">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="444">
+    <cfRule type="expression" dxfId="428" priority="444">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="445">
+    <cfRule type="expression" dxfId="427" priority="445">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="446">
+    <cfRule type="expression" dxfId="426" priority="446">
       <formula>BJ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="447">
+    <cfRule type="expression" dxfId="425" priority="447">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="448">
+    <cfRule type="expression" dxfId="424" priority="448">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ24">
-    <cfRule type="expression" dxfId="439" priority="433">
+    <cfRule type="expression" dxfId="423" priority="433">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="434">
+    <cfRule type="expression" dxfId="422" priority="434">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="435">
+    <cfRule type="expression" dxfId="421" priority="435">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="436">
+    <cfRule type="expression" dxfId="420" priority="436">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="437">
+    <cfRule type="expression" dxfId="419" priority="437">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="438">
+    <cfRule type="expression" dxfId="418" priority="438">
       <formula>BJ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="439">
+    <cfRule type="expression" dxfId="417" priority="439">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="440">
+    <cfRule type="expression" dxfId="416" priority="440">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ25">
-    <cfRule type="expression" dxfId="431" priority="425">
+    <cfRule type="expression" dxfId="415" priority="425">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="426">
+    <cfRule type="expression" dxfId="414" priority="426">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="427">
+    <cfRule type="expression" dxfId="413" priority="427">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="428">
+    <cfRule type="expression" dxfId="412" priority="428">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="429">
+    <cfRule type="expression" dxfId="411" priority="429">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="430">
+    <cfRule type="expression" dxfId="410" priority="430">
       <formula>BJ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="431">
+    <cfRule type="expression" dxfId="409" priority="431">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="432">
+    <cfRule type="expression" dxfId="408" priority="432">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ26">
-    <cfRule type="expression" dxfId="423" priority="417">
+    <cfRule type="expression" dxfId="407" priority="417">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="418">
+    <cfRule type="expression" dxfId="406" priority="418">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="419">
+    <cfRule type="expression" dxfId="405" priority="419">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="420">
+    <cfRule type="expression" dxfId="404" priority="420">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="421">
+    <cfRule type="expression" dxfId="403" priority="421">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="422">
+    <cfRule type="expression" dxfId="402" priority="422">
       <formula>BJ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="423">
+    <cfRule type="expression" dxfId="401" priority="423">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="424">
+    <cfRule type="expression" dxfId="400" priority="424">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH24">
-    <cfRule type="expression" dxfId="415" priority="409">
+    <cfRule type="expression" dxfId="399" priority="409">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="410">
+    <cfRule type="expression" dxfId="398" priority="410">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="411">
+    <cfRule type="expression" dxfId="397" priority="411">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="412">
+    <cfRule type="expression" dxfId="396" priority="412">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="413">
+    <cfRule type="expression" dxfId="395" priority="413">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="414">
+    <cfRule type="expression" dxfId="394" priority="414">
       <formula>BH$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="415">
+    <cfRule type="expression" dxfId="393" priority="415">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="416">
+    <cfRule type="expression" dxfId="392" priority="416">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH25">
-    <cfRule type="expression" dxfId="407" priority="401">
+    <cfRule type="expression" dxfId="391" priority="401">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="402">
+    <cfRule type="expression" dxfId="390" priority="402">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="403">
+    <cfRule type="expression" dxfId="389" priority="403">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="404">
+    <cfRule type="expression" dxfId="388" priority="404">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="405">
+    <cfRule type="expression" dxfId="387" priority="405">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="406">
+    <cfRule type="expression" dxfId="386" priority="406">
       <formula>BH$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="407">
+    <cfRule type="expression" dxfId="385" priority="407">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="408">
+    <cfRule type="expression" dxfId="384" priority="408">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH26">
-    <cfRule type="expression" dxfId="399" priority="393">
+    <cfRule type="expression" dxfId="383" priority="393">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="394">
+    <cfRule type="expression" dxfId="382" priority="394">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="395">
+    <cfRule type="expression" dxfId="381" priority="395">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="396">
+    <cfRule type="expression" dxfId="380" priority="396">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="397">
+    <cfRule type="expression" dxfId="379" priority="397">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="398">
+    <cfRule type="expression" dxfId="378" priority="398">
       <formula>BH$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="399">
+    <cfRule type="expression" dxfId="377" priority="399">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="400">
+    <cfRule type="expression" dxfId="376" priority="400">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF24">
-    <cfRule type="expression" dxfId="391" priority="385">
+    <cfRule type="expression" dxfId="375" priority="385">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="386">
+    <cfRule type="expression" dxfId="374" priority="386">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="387">
+    <cfRule type="expression" dxfId="373" priority="387">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="388">
+    <cfRule type="expression" dxfId="372" priority="388">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="389">
+    <cfRule type="expression" dxfId="371" priority="389">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="390">
+    <cfRule type="expression" dxfId="370" priority="390">
       <formula>BF$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="391">
+    <cfRule type="expression" dxfId="369" priority="391">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="392">
+    <cfRule type="expression" dxfId="368" priority="392">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF25">
-    <cfRule type="expression" dxfId="383" priority="377">
+    <cfRule type="expression" dxfId="367" priority="377">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="378">
+    <cfRule type="expression" dxfId="366" priority="378">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="379">
+    <cfRule type="expression" dxfId="365" priority="379">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="380">
+    <cfRule type="expression" dxfId="364" priority="380">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="381">
+    <cfRule type="expression" dxfId="363" priority="381">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="382">
+    <cfRule type="expression" dxfId="362" priority="382">
       <formula>BF$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="383">
+    <cfRule type="expression" dxfId="361" priority="383">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="384">
+    <cfRule type="expression" dxfId="360" priority="384">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF26">
-    <cfRule type="expression" dxfId="375" priority="369">
+    <cfRule type="expression" dxfId="359" priority="369">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="370">
+    <cfRule type="expression" dxfId="358" priority="370">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="371">
+    <cfRule type="expression" dxfId="357" priority="371">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="372">
+    <cfRule type="expression" dxfId="356" priority="372">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="373">
+    <cfRule type="expression" dxfId="355" priority="373">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="374">
+    <cfRule type="expression" dxfId="354" priority="374">
       <formula>BF$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="375">
+    <cfRule type="expression" dxfId="353" priority="375">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="376">
+    <cfRule type="expression" dxfId="352" priority="376">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD24">
-    <cfRule type="expression" dxfId="367" priority="361">
+    <cfRule type="expression" dxfId="351" priority="361">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="362">
+    <cfRule type="expression" dxfId="350" priority="362">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="363">
+    <cfRule type="expression" dxfId="349" priority="363">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="364">
+    <cfRule type="expression" dxfId="348" priority="364">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="365">
+    <cfRule type="expression" dxfId="347" priority="365">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="366">
+    <cfRule type="expression" dxfId="346" priority="366">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="367">
+    <cfRule type="expression" dxfId="345" priority="367">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="368">
+    <cfRule type="expression" dxfId="344" priority="368">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD25">
-    <cfRule type="expression" dxfId="359" priority="353">
+    <cfRule type="expression" dxfId="343" priority="353">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="354">
+    <cfRule type="expression" dxfId="342" priority="354">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="355">
+    <cfRule type="expression" dxfId="341" priority="355">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="356">
+    <cfRule type="expression" dxfId="340" priority="356">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="357">
+    <cfRule type="expression" dxfId="339" priority="357">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="358">
+    <cfRule type="expression" dxfId="338" priority="358">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="359">
+    <cfRule type="expression" dxfId="337" priority="359">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="360">
+    <cfRule type="expression" dxfId="336" priority="360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD26">
-    <cfRule type="expression" dxfId="351" priority="345">
+    <cfRule type="expression" dxfId="335" priority="345">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="346">
+    <cfRule type="expression" dxfId="334" priority="346">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="347">
+    <cfRule type="expression" dxfId="333" priority="347">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="348">
+    <cfRule type="expression" dxfId="332" priority="348">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="349">
+    <cfRule type="expression" dxfId="331" priority="349">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="350">
+    <cfRule type="expression" dxfId="330" priority="350">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="351">
+    <cfRule type="expression" dxfId="329" priority="351">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="352">
+    <cfRule type="expression" dxfId="328" priority="352">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB24">
-    <cfRule type="expression" dxfId="343" priority="337">
+    <cfRule type="expression" dxfId="327" priority="337">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="338">
+    <cfRule type="expression" dxfId="326" priority="338">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="339">
+    <cfRule type="expression" dxfId="325" priority="339">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="340">
+    <cfRule type="expression" dxfId="324" priority="340">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="341">
+    <cfRule type="expression" dxfId="323" priority="341">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="342">
+    <cfRule type="expression" dxfId="322" priority="342">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="343">
+    <cfRule type="expression" dxfId="321" priority="343">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="344">
+    <cfRule type="expression" dxfId="320" priority="344">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB25">
-    <cfRule type="expression" dxfId="335" priority="329">
+    <cfRule type="expression" dxfId="319" priority="329">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="330">
+    <cfRule type="expression" dxfId="318" priority="330">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="331">
+    <cfRule type="expression" dxfId="317" priority="331">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="332">
+    <cfRule type="expression" dxfId="316" priority="332">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="333">
+    <cfRule type="expression" dxfId="315" priority="333">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="334">
+    <cfRule type="expression" dxfId="314" priority="334">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="335">
+    <cfRule type="expression" dxfId="313" priority="335">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="336">
+    <cfRule type="expression" dxfId="312" priority="336">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB26">
-    <cfRule type="expression" dxfId="327" priority="321">
+    <cfRule type="expression" dxfId="311" priority="321">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="322">
+    <cfRule type="expression" dxfId="310" priority="322">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="323">
+    <cfRule type="expression" dxfId="309" priority="323">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="324">
+    <cfRule type="expression" dxfId="308" priority="324">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="325">
+    <cfRule type="expression" dxfId="307" priority="325">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="326">
+    <cfRule type="expression" dxfId="306" priority="326">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="327">
+    <cfRule type="expression" dxfId="305" priority="327">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="328">
+    <cfRule type="expression" dxfId="304" priority="328">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ23">
-    <cfRule type="expression" dxfId="319" priority="313">
+    <cfRule type="expression" dxfId="303" priority="313">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="314">
+    <cfRule type="expression" dxfId="302" priority="314">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="315">
+    <cfRule type="expression" dxfId="301" priority="315">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="316">
+    <cfRule type="expression" dxfId="300" priority="316">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="317">
+    <cfRule type="expression" dxfId="299" priority="317">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="318">
+    <cfRule type="expression" dxfId="298" priority="318">
       <formula>AZ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="319">
+    <cfRule type="expression" dxfId="297" priority="319">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="320">
+    <cfRule type="expression" dxfId="296" priority="320">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ22">
-    <cfRule type="expression" dxfId="311" priority="305">
+    <cfRule type="expression" dxfId="295" priority="305">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="306">
+    <cfRule type="expression" dxfId="294" priority="306">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="307">
+    <cfRule type="expression" dxfId="293" priority="307">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="308">
+    <cfRule type="expression" dxfId="292" priority="308">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="309">
+    <cfRule type="expression" dxfId="291" priority="309">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="310">
+    <cfRule type="expression" dxfId="290" priority="310">
       <formula>AZ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="311">
+    <cfRule type="expression" dxfId="289" priority="311">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="312">
+    <cfRule type="expression" dxfId="288" priority="312">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ21">
-    <cfRule type="expression" dxfId="303" priority="297">
+    <cfRule type="expression" dxfId="287" priority="297">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="298">
+    <cfRule type="expression" dxfId="286" priority="298">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="299">
+    <cfRule type="expression" dxfId="285" priority="299">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="300">
+    <cfRule type="expression" dxfId="284" priority="300">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="301">
+    <cfRule type="expression" dxfId="283" priority="301">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="302">
+    <cfRule type="expression" dxfId="282" priority="302">
       <formula>AZ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="303">
+    <cfRule type="expression" dxfId="281" priority="303">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="304">
+    <cfRule type="expression" dxfId="280" priority="304">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA18:BA20">
-    <cfRule type="expression" dxfId="295" priority="289">
+    <cfRule type="expression" dxfId="279" priority="289">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="290">
+    <cfRule type="expression" dxfId="278" priority="290">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="291">
+    <cfRule type="expression" dxfId="277" priority="291">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="292">
+    <cfRule type="expression" dxfId="276" priority="292">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="293">
+    <cfRule type="expression" dxfId="275" priority="293">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="294">
+    <cfRule type="expression" dxfId="274" priority="294">
       <formula>BA$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="295">
+    <cfRule type="expression" dxfId="273" priority="295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="296">
+    <cfRule type="expression" dxfId="272" priority="296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ20">
-    <cfRule type="expression" dxfId="287" priority="281">
+    <cfRule type="expression" dxfId="271" priority="281">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="282">
+    <cfRule type="expression" dxfId="270" priority="282">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="283">
+    <cfRule type="expression" dxfId="269" priority="283">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="284">
+    <cfRule type="expression" dxfId="268" priority="284">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="285">
+    <cfRule type="expression" dxfId="267" priority="285">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="286">
+    <cfRule type="expression" dxfId="266" priority="286">
       <formula>AZ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="287">
+    <cfRule type="expression" dxfId="265" priority="287">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="288">
+    <cfRule type="expression" dxfId="264" priority="288">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ19">
-    <cfRule type="expression" dxfId="279" priority="273">
+    <cfRule type="expression" dxfId="263" priority="273">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="274">
+    <cfRule type="expression" dxfId="262" priority="274">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="275">
+    <cfRule type="expression" dxfId="261" priority="275">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="276">
+    <cfRule type="expression" dxfId="260" priority="276">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="277">
+    <cfRule type="expression" dxfId="259" priority="277">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="278">
+    <cfRule type="expression" dxfId="258" priority="278">
       <formula>AZ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="279">
+    <cfRule type="expression" dxfId="257" priority="279">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="280">
+    <cfRule type="expression" dxfId="256" priority="280">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX19">
-    <cfRule type="expression" dxfId="271" priority="265">
+    <cfRule type="expression" dxfId="255" priority="265">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="266">
+    <cfRule type="expression" dxfId="254" priority="266">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="267">
+    <cfRule type="expression" dxfId="253" priority="267">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="268">
+    <cfRule type="expression" dxfId="252" priority="268">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="269">
+    <cfRule type="expression" dxfId="251" priority="269">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="270">
+    <cfRule type="expression" dxfId="250" priority="270">
       <formula>AX$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="271">
+    <cfRule type="expression" dxfId="249" priority="271">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="272">
+    <cfRule type="expression" dxfId="248" priority="272">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX20">
-    <cfRule type="expression" dxfId="263" priority="257">
+    <cfRule type="expression" dxfId="247" priority="257">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="258">
+    <cfRule type="expression" dxfId="246" priority="258">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="259">
+    <cfRule type="expression" dxfId="245" priority="259">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="260">
+    <cfRule type="expression" dxfId="244" priority="260">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="261">
+    <cfRule type="expression" dxfId="243" priority="261">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="262">
+    <cfRule type="expression" dxfId="242" priority="262">
       <formula>AX$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="263">
+    <cfRule type="expression" dxfId="241" priority="263">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="264">
+    <cfRule type="expression" dxfId="240" priority="264">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX21">
-    <cfRule type="expression" dxfId="255" priority="249">
+    <cfRule type="expression" dxfId="239" priority="249">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="250">
+    <cfRule type="expression" dxfId="238" priority="250">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="251">
+    <cfRule type="expression" dxfId="237" priority="251">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="252">
+    <cfRule type="expression" dxfId="236" priority="252">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="253">
+    <cfRule type="expression" dxfId="235" priority="253">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="254">
+    <cfRule type="expression" dxfId="234" priority="254">
       <formula>AX$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="255">
+    <cfRule type="expression" dxfId="233" priority="255">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="256">
+    <cfRule type="expression" dxfId="232" priority="256">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX22">
-    <cfRule type="expression" dxfId="247" priority="241">
+    <cfRule type="expression" dxfId="231" priority="241">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="242">
+    <cfRule type="expression" dxfId="230" priority="242">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="243">
+    <cfRule type="expression" dxfId="229" priority="243">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="244">
+    <cfRule type="expression" dxfId="228" priority="244">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="245">
+    <cfRule type="expression" dxfId="227" priority="245">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="246">
+    <cfRule type="expression" dxfId="226" priority="246">
       <formula>AX$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="247">
+    <cfRule type="expression" dxfId="225" priority="247">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="248">
+    <cfRule type="expression" dxfId="224" priority="248">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX23">
-    <cfRule type="expression" dxfId="239" priority="233">
+    <cfRule type="expression" dxfId="223" priority="233">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="234">
+    <cfRule type="expression" dxfId="222" priority="234">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="235">
+    <cfRule type="expression" dxfId="221" priority="235">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="236">
+    <cfRule type="expression" dxfId="220" priority="236">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="237">
+    <cfRule type="expression" dxfId="219" priority="237">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="238">
+    <cfRule type="expression" dxfId="218" priority="238">
       <formula>AX$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="239">
+    <cfRule type="expression" dxfId="217" priority="239">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="240">
+    <cfRule type="expression" dxfId="216" priority="240">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC18">
-    <cfRule type="expression" dxfId="231" priority="225">
+    <cfRule type="expression" dxfId="215" priority="225">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="226">
+    <cfRule type="expression" dxfId="214" priority="226">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="227">
+    <cfRule type="expression" dxfId="213" priority="227">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="228">
+    <cfRule type="expression" dxfId="212" priority="228">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="229">
+    <cfRule type="expression" dxfId="211" priority="229">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="230">
+    <cfRule type="expression" dxfId="210" priority="230">
       <formula>BC$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="231">
+    <cfRule type="expression" dxfId="209" priority="231">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="232">
+    <cfRule type="expression" dxfId="208" priority="232">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE18">
-    <cfRule type="expression" dxfId="223" priority="217">
+    <cfRule type="expression" dxfId="207" priority="217">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="218">
+    <cfRule type="expression" dxfId="206" priority="218">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="219">
+    <cfRule type="expression" dxfId="205" priority="219">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="220">
+    <cfRule type="expression" dxfId="204" priority="220">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="221">
+    <cfRule type="expression" dxfId="203" priority="221">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="222">
+    <cfRule type="expression" dxfId="202" priority="222">
       <formula>BE$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="223">
+    <cfRule type="expression" dxfId="201" priority="223">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="224">
+    <cfRule type="expression" dxfId="200" priority="224">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG18">
-    <cfRule type="expression" dxfId="215" priority="209">
+    <cfRule type="expression" dxfId="199" priority="209">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="210">
+    <cfRule type="expression" dxfId="198" priority="210">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="211">
+    <cfRule type="expression" dxfId="197" priority="211">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="212">
+    <cfRule type="expression" dxfId="196" priority="212">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="213">
+    <cfRule type="expression" dxfId="195" priority="213">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="214">
+    <cfRule type="expression" dxfId="194" priority="214">
       <formula>BG$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="215">
+    <cfRule type="expression" dxfId="193" priority="215">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="216">
+    <cfRule type="expression" dxfId="192" priority="216">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI18">
-    <cfRule type="expression" dxfId="207" priority="201">
+    <cfRule type="expression" dxfId="191" priority="201">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="202">
+    <cfRule type="expression" dxfId="190" priority="202">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="203">
+    <cfRule type="expression" dxfId="189" priority="203">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="204">
+    <cfRule type="expression" dxfId="188" priority="204">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="205">
+    <cfRule type="expression" dxfId="187" priority="205">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="206">
+    <cfRule type="expression" dxfId="186" priority="206">
       <formula>BI$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="207">
+    <cfRule type="expression" dxfId="185" priority="207">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="208">
+    <cfRule type="expression" dxfId="184" priority="208">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK18">
-    <cfRule type="expression" dxfId="199" priority="193">
+    <cfRule type="expression" dxfId="183" priority="193">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="194">
+    <cfRule type="expression" dxfId="182" priority="194">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="195">
+    <cfRule type="expression" dxfId="181" priority="195">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="196">
+    <cfRule type="expression" dxfId="180" priority="196">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="197">
+    <cfRule type="expression" dxfId="179" priority="197">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="198">
+    <cfRule type="expression" dxfId="178" priority="198">
       <formula>BK$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="199">
+    <cfRule type="expression" dxfId="177" priority="199">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="200">
+    <cfRule type="expression" dxfId="176" priority="200">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24">
-    <cfRule type="expression" dxfId="191" priority="185">
+    <cfRule type="expression" dxfId="175" priority="185">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="186">
+    <cfRule type="expression" dxfId="174" priority="186">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="187">
+    <cfRule type="expression" dxfId="173" priority="187">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="188">
+    <cfRule type="expression" dxfId="172" priority="188">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="189">
+    <cfRule type="expression" dxfId="171" priority="189">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="190">
+    <cfRule type="expression" dxfId="170" priority="190">
       <formula>BK$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="191">
+    <cfRule type="expression" dxfId="169" priority="191">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="192">
+    <cfRule type="expression" dxfId="168" priority="192">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK25">
-    <cfRule type="expression" dxfId="183" priority="177">
+    <cfRule type="expression" dxfId="167" priority="177">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="178">
+    <cfRule type="expression" dxfId="166" priority="178">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="179">
+    <cfRule type="expression" dxfId="165" priority="179">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="180">
+    <cfRule type="expression" dxfId="164" priority="180">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="181">
+    <cfRule type="expression" dxfId="163" priority="181">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="182">
+    <cfRule type="expression" dxfId="162" priority="182">
       <formula>BK$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="183">
+    <cfRule type="expression" dxfId="161" priority="183">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="184">
+    <cfRule type="expression" dxfId="160" priority="184">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK26">
-    <cfRule type="expression" dxfId="175" priority="169">
+    <cfRule type="expression" dxfId="159" priority="169">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="170">
+    <cfRule type="expression" dxfId="158" priority="170">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="171">
+    <cfRule type="expression" dxfId="157" priority="171">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="172">
+    <cfRule type="expression" dxfId="156" priority="172">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="173">
+    <cfRule type="expression" dxfId="155" priority="173">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="174">
+    <cfRule type="expression" dxfId="154" priority="174">
       <formula>BK$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="175">
+    <cfRule type="expression" dxfId="153" priority="175">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="176">
+    <cfRule type="expression" dxfId="152" priority="176">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI26">
-    <cfRule type="expression" dxfId="167" priority="161">
+    <cfRule type="expression" dxfId="151" priority="161">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="162">
+    <cfRule type="expression" dxfId="150" priority="162">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="163">
+    <cfRule type="expression" dxfId="149" priority="163">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="164">
+    <cfRule type="expression" dxfId="148" priority="164">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="165">
+    <cfRule type="expression" dxfId="147" priority="165">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="166">
+    <cfRule type="expression" dxfId="146" priority="166">
       <formula>BI$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="167">
+    <cfRule type="expression" dxfId="145" priority="167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="168">
+    <cfRule type="expression" dxfId="144" priority="168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI25">
-    <cfRule type="expression" dxfId="159" priority="153">
+    <cfRule type="expression" dxfId="143" priority="153">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="154">
+    <cfRule type="expression" dxfId="142" priority="154">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="155">
+    <cfRule type="expression" dxfId="141" priority="155">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="156">
+    <cfRule type="expression" dxfId="140" priority="156">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="157">
+    <cfRule type="expression" dxfId="139" priority="157">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="158">
+    <cfRule type="expression" dxfId="138" priority="158">
       <formula>BI$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="159">
+    <cfRule type="expression" dxfId="137" priority="159">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="160">
+    <cfRule type="expression" dxfId="136" priority="160">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI24">
-    <cfRule type="expression" dxfId="151" priority="145">
+    <cfRule type="expression" dxfId="135" priority="145">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="146">
+    <cfRule type="expression" dxfId="134" priority="146">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="147">
+    <cfRule type="expression" dxfId="133" priority="147">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="148">
+    <cfRule type="expression" dxfId="132" priority="148">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="149">
+    <cfRule type="expression" dxfId="131" priority="149">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="150">
+    <cfRule type="expression" dxfId="130" priority="150">
       <formula>BI$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="151">
+    <cfRule type="expression" dxfId="129" priority="151">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="152">
+    <cfRule type="expression" dxfId="128" priority="152">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG24">
-    <cfRule type="expression" dxfId="143" priority="137">
+    <cfRule type="expression" dxfId="127" priority="137">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="138">
+    <cfRule type="expression" dxfId="126" priority="138">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="139">
+    <cfRule type="expression" dxfId="125" priority="139">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="140">
+    <cfRule type="expression" dxfId="124" priority="140">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="141">
+    <cfRule type="expression" dxfId="123" priority="141">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="142">
+    <cfRule type="expression" dxfId="122" priority="142">
       <formula>BG$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="143">
+    <cfRule type="expression" dxfId="121" priority="143">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="144">
+    <cfRule type="expression" dxfId="120" priority="144">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG25">
-    <cfRule type="expression" dxfId="135" priority="129">
+    <cfRule type="expression" dxfId="119" priority="129">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="130">
+    <cfRule type="expression" dxfId="118" priority="130">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="131">
+    <cfRule type="expression" dxfId="117" priority="131">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="132">
+    <cfRule type="expression" dxfId="116" priority="132">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="133">
+    <cfRule type="expression" dxfId="115" priority="133">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="134">
+    <cfRule type="expression" dxfId="114" priority="134">
       <formula>BG$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="135">
+    <cfRule type="expression" dxfId="113" priority="135">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="136">
+    <cfRule type="expression" dxfId="112" priority="136">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG26">
-    <cfRule type="expression" dxfId="127" priority="121">
+    <cfRule type="expression" dxfId="111" priority="121">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="122">
+    <cfRule type="expression" dxfId="110" priority="122">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="123">
+    <cfRule type="expression" dxfId="109" priority="123">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="124">
+    <cfRule type="expression" dxfId="108" priority="124">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="125">
+    <cfRule type="expression" dxfId="107" priority="125">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="126">
+    <cfRule type="expression" dxfId="106" priority="126">
       <formula>BG$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="127">
+    <cfRule type="expression" dxfId="105" priority="127">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="128">
+    <cfRule type="expression" dxfId="104" priority="128">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE24">
-    <cfRule type="expression" dxfId="119" priority="113">
+    <cfRule type="expression" dxfId="103" priority="113">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="114">
+    <cfRule type="expression" dxfId="102" priority="114">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="115">
+    <cfRule type="expression" dxfId="101" priority="115">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="116">
+    <cfRule type="expression" dxfId="100" priority="116">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="117">
+    <cfRule type="expression" dxfId="99" priority="117">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="118">
+    <cfRule type="expression" dxfId="98" priority="118">
       <formula>BE$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="119">
+    <cfRule type="expression" dxfId="97" priority="119">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="120">
+    <cfRule type="expression" dxfId="96" priority="120">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE25">
-    <cfRule type="expression" dxfId="111" priority="105">
+    <cfRule type="expression" dxfId="95" priority="105">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="106">
+    <cfRule type="expression" dxfId="94" priority="106">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="107">
+    <cfRule type="expression" dxfId="93" priority="107">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="108">
+    <cfRule type="expression" dxfId="92" priority="108">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="109">
+    <cfRule type="expression" dxfId="91" priority="109">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="110">
+    <cfRule type="expression" dxfId="90" priority="110">
       <formula>BE$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="111">
+    <cfRule type="expression" dxfId="89" priority="111">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="112">
+    <cfRule type="expression" dxfId="88" priority="112">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE26">
-    <cfRule type="expression" dxfId="103" priority="97">
+    <cfRule type="expression" dxfId="87" priority="97">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="98">
+    <cfRule type="expression" dxfId="86" priority="98">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="99">
+    <cfRule type="expression" dxfId="85" priority="99">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="100">
+    <cfRule type="expression" dxfId="84" priority="100">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="101">
+    <cfRule type="expression" dxfId="83" priority="101">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="102">
+    <cfRule type="expression" dxfId="82" priority="102">
       <formula>BE$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="103">
+    <cfRule type="expression" dxfId="81" priority="103">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="104">
+    <cfRule type="expression" dxfId="80" priority="104">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC24">
-    <cfRule type="expression" dxfId="95" priority="89">
+    <cfRule type="expression" dxfId="79" priority="89">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="90">
+    <cfRule type="expression" dxfId="78" priority="90">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="91">
+    <cfRule type="expression" dxfId="77" priority="91">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="92">
+    <cfRule type="expression" dxfId="76" priority="92">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="93">
+    <cfRule type="expression" dxfId="75" priority="93">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="94">
+    <cfRule type="expression" dxfId="74" priority="94">
       <formula>BC$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="95">
+    <cfRule type="expression" dxfId="73" priority="95">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="96">
+    <cfRule type="expression" dxfId="72" priority="96">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC25">
-    <cfRule type="expression" dxfId="87" priority="81">
+    <cfRule type="expression" dxfId="71" priority="81">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="82">
+    <cfRule type="expression" dxfId="70" priority="82">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="83">
+    <cfRule type="expression" dxfId="69" priority="83">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="84">
+    <cfRule type="expression" dxfId="68" priority="84">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="85">
+    <cfRule type="expression" dxfId="67" priority="85">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="86">
+    <cfRule type="expression" dxfId="66" priority="86">
       <formula>BC$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="87">
+    <cfRule type="expression" dxfId="65" priority="87">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="88">
+    <cfRule type="expression" dxfId="64" priority="88">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC26">
-    <cfRule type="expression" dxfId="79" priority="73">
+    <cfRule type="expression" dxfId="63" priority="73">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="74">
+    <cfRule type="expression" dxfId="62" priority="74">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="75">
+    <cfRule type="expression" dxfId="61" priority="75">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="76">
+    <cfRule type="expression" dxfId="60" priority="76">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="77">
+    <cfRule type="expression" dxfId="59" priority="77">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="78">
+    <cfRule type="expression" dxfId="58" priority="78">
       <formula>BC$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="79">
+    <cfRule type="expression" dxfId="57" priority="79">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="80">
+    <cfRule type="expression" dxfId="56" priority="80">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY18">
-    <cfRule type="expression" dxfId="71" priority="65">
+    <cfRule type="expression" dxfId="55" priority="65">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="66">
+    <cfRule type="expression" dxfId="54" priority="66">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="67">
+    <cfRule type="expression" dxfId="53" priority="67">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="68">
+    <cfRule type="expression" dxfId="52" priority="68">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="69">
+    <cfRule type="expression" dxfId="51" priority="69">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="70">
+    <cfRule type="expression" dxfId="50" priority="70">
       <formula>AY$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="71">
+    <cfRule type="expression" dxfId="49" priority="71">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="72">
+    <cfRule type="expression" dxfId="48" priority="72">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY19">
-    <cfRule type="expression" dxfId="63" priority="57">
+    <cfRule type="expression" dxfId="47" priority="57">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="58">
+    <cfRule type="expression" dxfId="46" priority="58">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="59">
+    <cfRule type="expression" dxfId="45" priority="59">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="60">
+    <cfRule type="expression" dxfId="44" priority="60">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="61">
+    <cfRule type="expression" dxfId="43" priority="61">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="62">
+    <cfRule type="expression" dxfId="42" priority="62">
       <formula>AY$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="63">
+    <cfRule type="expression" dxfId="41" priority="63">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64">
+    <cfRule type="expression" dxfId="40" priority="64">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY20">
-    <cfRule type="expression" dxfId="55" priority="49">
+    <cfRule type="expression" dxfId="39" priority="49">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="50">
+    <cfRule type="expression" dxfId="38" priority="50">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="51">
+    <cfRule type="expression" dxfId="37" priority="51">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="36" priority="52">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="35" priority="53">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54">
+    <cfRule type="expression" dxfId="34" priority="54">
       <formula>AY$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="55">
+    <cfRule type="expression" dxfId="33" priority="55">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="56">
+    <cfRule type="expression" dxfId="32" priority="56">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY21">
-    <cfRule type="expression" dxfId="47" priority="41">
+    <cfRule type="expression" dxfId="31" priority="41">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="30" priority="42">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="43">
+    <cfRule type="expression" dxfId="29" priority="43">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="44">
+    <cfRule type="expression" dxfId="28" priority="44">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="27" priority="45">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="26" priority="46">
       <formula>AY$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="47">
+    <cfRule type="expression" dxfId="25" priority="47">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="48">
+    <cfRule type="expression" dxfId="24" priority="48">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY22">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="23" priority="33">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="22" priority="34">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="21" priority="35">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="20" priority="36">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="19" priority="37">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="18" priority="38">
       <formula>AY$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="17" priority="39">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
+    <cfRule type="expression" dxfId="16" priority="40">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY23">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="15" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="14" priority="26">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="13" priority="27">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="12" priority="28">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="11" priority="29">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="10" priority="30">
       <formula>AY$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="9" priority="31">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32">
+    <cfRule type="expression" dxfId="8" priority="32">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA23">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="6" priority="18">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="5" priority="19">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="3" priority="21">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="2" priority="22">
       <formula>BA$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="1" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="0" priority="24">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicdonaldson/Software Technologies/Assignment/2810ICT-2022-Assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau.sharepoint.com/sites/SoftwareTechnologiesAssignment955/Shared Documents/General/Docs for repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22BE18E4-FB05-1F41-8974-65CAEB543342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{0AB88982-5E5D-034B-89F5-16015659FFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E05C683-1A32-9348-8C06-3F8DFEB19C46}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21009,10 +21009,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BY46"/>
+  <dimension ref="B1:BY42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="125" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22259,7 +22259,7 @@
         <v>50</v>
       </c>
       <c r="D34" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -22469,54 +22469,6 @@
       <c r="BX42" s="24"/>
       <c r="BY42" s="24"/>
     </row>
-    <row r="43" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BP43" s="24"/>
-      <c r="BQ43" s="24"/>
-      <c r="BR43" s="24"/>
-      <c r="BS43" s="24"/>
-      <c r="BT43" s="24"/>
-      <c r="BU43" s="24"/>
-      <c r="BV43" s="24"/>
-      <c r="BW43" s="24"/>
-      <c r="BX43" s="24"/>
-      <c r="BY43" s="24"/>
-    </row>
-    <row r="44" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BP44" s="24"/>
-      <c r="BQ44" s="24"/>
-      <c r="BR44" s="24"/>
-      <c r="BS44" s="24"/>
-      <c r="BT44" s="24"/>
-      <c r="BU44" s="24"/>
-      <c r="BV44" s="24"/>
-      <c r="BW44" s="24"/>
-      <c r="BX44" s="24"/>
-      <c r="BY44" s="24"/>
-    </row>
-    <row r="45" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BP45" s="24"/>
-      <c r="BQ45" s="24"/>
-      <c r="BR45" s="24"/>
-      <c r="BS45" s="24"/>
-      <c r="BT45" s="24"/>
-      <c r="BU45" s="24"/>
-      <c r="BV45" s="24"/>
-      <c r="BW45" s="24"/>
-      <c r="BX45" s="24"/>
-      <c r="BY45" s="24"/>
-    </row>
-    <row r="46" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BP46" s="24"/>
-      <c r="BQ46" s="24"/>
-      <c r="BR46" s="24"/>
-      <c r="BS46" s="24"/>
-      <c r="BT46" s="24"/>
-      <c r="BU46" s="24"/>
-      <c r="BV46" s="24"/>
-      <c r="BW46" s="24"/>
-      <c r="BX46" s="24"/>
-      <c r="BY46" s="24"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="G3:G4"/>
@@ -22532,4609 +22484,4609 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:BN7 O8:BN9 H10:N11 H12:P12 H13:R13 H14:T14 H15:Y15 AH14:BN14 AC13:BN13 Y12:BN12 T11:BN11 AQ15:BN17 BE19:BN23 BL18:BN18 BL24:BN26 H24:BA26 BC19:BC23 H27:BN35 S5:BM5 H8:M9 H17:AP19 AL15:AL16 H16:AJ16 AP10:BN10 AA15:AD15 AF15:AH15 X14:Z14 X13:AA13 T13:V13 H21:AP23 H20:AN20 AP20">
-    <cfRule type="expression" dxfId="1416" priority="1465">
+    <cfRule type="expression" dxfId="1416" priority="1481">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1415" priority="1467">
+    <cfRule type="expression" dxfId="1415" priority="1483">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1414" priority="1468">
+    <cfRule type="expression" dxfId="1414" priority="1484">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1413" priority="1469">
+    <cfRule type="expression" dxfId="1413" priority="1485">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1412" priority="1470">
+    <cfRule type="expression" dxfId="1412" priority="1486">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1411" priority="1471">
+    <cfRule type="expression" dxfId="1411" priority="1487">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1410" priority="1475">
+    <cfRule type="expression" dxfId="1410" priority="1491">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1409" priority="1476">
+    <cfRule type="expression" dxfId="1409" priority="1492">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BY4 BP5:BY46">
-    <cfRule type="expression" dxfId="1408" priority="1472">
+  <conditionalFormatting sqref="H4:BY4 BP5:BY42">
+    <cfRule type="expression" dxfId="1408" priority="1488">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:BN36">
-    <cfRule type="expression" dxfId="1407" priority="1449">
+    <cfRule type="expression" dxfId="1407" priority="1465">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1406" priority="1450">
+    <cfRule type="expression" dxfId="1406" priority="1466">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1405" priority="1451">
+    <cfRule type="expression" dxfId="1405" priority="1467">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1404" priority="1452">
+    <cfRule type="expression" dxfId="1404" priority="1468">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1403" priority="1453">
+    <cfRule type="expression" dxfId="1403" priority="1469">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1402" priority="1454">
+    <cfRule type="expression" dxfId="1402" priority="1470">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1401" priority="1455">
+    <cfRule type="expression" dxfId="1401" priority="1471">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1400" priority="1456">
+    <cfRule type="expression" dxfId="1400" priority="1472">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:BN37">
-    <cfRule type="expression" dxfId="1399" priority="1441">
+    <cfRule type="expression" dxfId="1399" priority="1457">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1398" priority="1442">
+    <cfRule type="expression" dxfId="1398" priority="1458">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1397" priority="1443">
+    <cfRule type="expression" dxfId="1397" priority="1459">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1396" priority="1444">
+    <cfRule type="expression" dxfId="1396" priority="1460">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1395" priority="1445">
+    <cfRule type="expression" dxfId="1395" priority="1461">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1394" priority="1446">
+    <cfRule type="expression" dxfId="1394" priority="1462">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1393" priority="1447">
+    <cfRule type="expression" dxfId="1393" priority="1463">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1392" priority="1448">
+    <cfRule type="expression" dxfId="1392" priority="1464">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:BN38">
-    <cfRule type="expression" dxfId="1391" priority="1433">
+    <cfRule type="expression" dxfId="1391" priority="1449">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1390" priority="1434">
+    <cfRule type="expression" dxfId="1390" priority="1450">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1389" priority="1435">
+    <cfRule type="expression" dxfId="1389" priority="1451">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1388" priority="1436">
+    <cfRule type="expression" dxfId="1388" priority="1452">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1387" priority="1437">
+    <cfRule type="expression" dxfId="1387" priority="1453">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1386" priority="1438">
+    <cfRule type="expression" dxfId="1386" priority="1454">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1385" priority="1439">
+    <cfRule type="expression" dxfId="1385" priority="1455">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1384" priority="1440">
+    <cfRule type="expression" dxfId="1384" priority="1456">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:BN40">
-    <cfRule type="expression" dxfId="1383" priority="1425">
+    <cfRule type="expression" dxfId="1383" priority="1441">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1382" priority="1426">
+    <cfRule type="expression" dxfId="1382" priority="1442">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1381" priority="1427">
+    <cfRule type="expression" dxfId="1381" priority="1443">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1380" priority="1428">
+    <cfRule type="expression" dxfId="1380" priority="1444">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1379" priority="1429">
+    <cfRule type="expression" dxfId="1379" priority="1445">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1378" priority="1430">
+    <cfRule type="expression" dxfId="1378" priority="1446">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1377" priority="1431">
+    <cfRule type="expression" dxfId="1377" priority="1447">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1376" priority="1432">
+    <cfRule type="expression" dxfId="1376" priority="1448">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:BN41">
-    <cfRule type="expression" dxfId="1375" priority="1417">
+    <cfRule type="expression" dxfId="1375" priority="1433">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1374" priority="1418">
+    <cfRule type="expression" dxfId="1374" priority="1434">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1373" priority="1419">
+    <cfRule type="expression" dxfId="1373" priority="1435">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1372" priority="1420">
+    <cfRule type="expression" dxfId="1372" priority="1436">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1371" priority="1421">
+    <cfRule type="expression" dxfId="1371" priority="1437">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1370" priority="1422">
+    <cfRule type="expression" dxfId="1370" priority="1438">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1369" priority="1423">
+    <cfRule type="expression" dxfId="1369" priority="1439">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1368" priority="1424">
+    <cfRule type="expression" dxfId="1368" priority="1440">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO5:BO41">
-    <cfRule type="expression" dxfId="1367" priority="1485">
+    <cfRule type="expression" dxfId="1367" priority="1501">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1366" priority="1486">
+    <cfRule type="expression" dxfId="1366" priority="1502">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1365" priority="1487">
+    <cfRule type="expression" dxfId="1365" priority="1503">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1364" priority="1488">
+    <cfRule type="expression" dxfId="1364" priority="1504">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1363" priority="1489">
+    <cfRule type="expression" dxfId="1363" priority="1505">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1362" priority="1490">
+    <cfRule type="expression" dxfId="1362" priority="1506">
       <formula>BN$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1361" priority="1491">
+    <cfRule type="expression" dxfId="1361" priority="1507">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1360" priority="1492">
+    <cfRule type="expression" dxfId="1360" priority="1508">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15">
-    <cfRule type="expression" dxfId="1359" priority="1369">
+    <cfRule type="expression" dxfId="1359" priority="1385">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1358" priority="1370">
+    <cfRule type="expression" dxfId="1358" priority="1386">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1357" priority="1371">
+    <cfRule type="expression" dxfId="1357" priority="1387">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1356" priority="1372">
+    <cfRule type="expression" dxfId="1356" priority="1388">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1355" priority="1373">
+    <cfRule type="expression" dxfId="1355" priority="1389">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1354" priority="1374">
+    <cfRule type="expression" dxfId="1354" priority="1390">
       <formula>Z$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1353" priority="1375">
+    <cfRule type="expression" dxfId="1353" priority="1391">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1352" priority="1376">
+    <cfRule type="expression" dxfId="1352" priority="1392">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="expression" dxfId="1351" priority="1361">
+    <cfRule type="expression" dxfId="1351" priority="1377">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1350" priority="1362">
+    <cfRule type="expression" dxfId="1350" priority="1378">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1349" priority="1363">
+    <cfRule type="expression" dxfId="1349" priority="1379">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1348" priority="1364">
+    <cfRule type="expression" dxfId="1348" priority="1380">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1347" priority="1365">
+    <cfRule type="expression" dxfId="1347" priority="1381">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1346" priority="1366">
+    <cfRule type="expression" dxfId="1346" priority="1382">
       <formula>V$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1345" priority="1367">
+    <cfRule type="expression" dxfId="1345" priority="1383">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1344" priority="1368">
+    <cfRule type="expression" dxfId="1344" priority="1384">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG14">
-    <cfRule type="expression" dxfId="1343" priority="1353">
+    <cfRule type="expression" dxfId="1343" priority="1369">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1342" priority="1354">
+    <cfRule type="expression" dxfId="1342" priority="1370">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1341" priority="1355">
+    <cfRule type="expression" dxfId="1341" priority="1371">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1340" priority="1356">
+    <cfRule type="expression" dxfId="1340" priority="1372">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1339" priority="1357">
+    <cfRule type="expression" dxfId="1339" priority="1373">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1338" priority="1358">
+    <cfRule type="expression" dxfId="1338" priority="1374">
       <formula>AG$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1337" priority="1359">
+    <cfRule type="expression" dxfId="1337" priority="1375">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1336" priority="1360">
+    <cfRule type="expression" dxfId="1336" priority="1376">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
-    <cfRule type="expression" dxfId="1335" priority="1345">
+    <cfRule type="expression" dxfId="1335" priority="1361">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1334" priority="1346">
+    <cfRule type="expression" dxfId="1334" priority="1362">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1333" priority="1347">
+    <cfRule type="expression" dxfId="1333" priority="1363">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1332" priority="1348">
+    <cfRule type="expression" dxfId="1332" priority="1364">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1331" priority="1349">
+    <cfRule type="expression" dxfId="1331" priority="1365">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1330" priority="1350">
+    <cfRule type="expression" dxfId="1330" priority="1366">
       <formula>AB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1329" priority="1351">
+    <cfRule type="expression" dxfId="1329" priority="1367">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1328" priority="1352">
+    <cfRule type="expression" dxfId="1328" priority="1368">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="expression" dxfId="1327" priority="1337">
+    <cfRule type="expression" dxfId="1327" priority="1353">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1326" priority="1338">
+    <cfRule type="expression" dxfId="1326" priority="1354">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1325" priority="1339">
+    <cfRule type="expression" dxfId="1325" priority="1355">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1324" priority="1340">
+    <cfRule type="expression" dxfId="1324" priority="1356">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1323" priority="1341">
+    <cfRule type="expression" dxfId="1323" priority="1357">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1322" priority="1342">
+    <cfRule type="expression" dxfId="1322" priority="1358">
       <formula>X$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1321" priority="1343">
+    <cfRule type="expression" dxfId="1321" priority="1359">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1320" priority="1344">
+    <cfRule type="expression" dxfId="1320" priority="1360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="1319" priority="1329">
+    <cfRule type="expression" dxfId="1319" priority="1345">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1318" priority="1330">
+    <cfRule type="expression" dxfId="1318" priority="1346">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1317" priority="1331">
+    <cfRule type="expression" dxfId="1317" priority="1347">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1316" priority="1332">
+    <cfRule type="expression" dxfId="1316" priority="1348">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1315" priority="1333">
+    <cfRule type="expression" dxfId="1315" priority="1349">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1314" priority="1334">
+    <cfRule type="expression" dxfId="1314" priority="1350">
       <formula>W$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1313" priority="1335">
+    <cfRule type="expression" dxfId="1313" priority="1351">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1312" priority="1336">
+    <cfRule type="expression" dxfId="1312" priority="1352">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="expression" dxfId="1311" priority="1321">
+    <cfRule type="expression" dxfId="1311" priority="1337">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1310" priority="1322">
+    <cfRule type="expression" dxfId="1310" priority="1338">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1309" priority="1323">
+    <cfRule type="expression" dxfId="1309" priority="1339">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1308" priority="1324">
+    <cfRule type="expression" dxfId="1308" priority="1340">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1307" priority="1325">
+    <cfRule type="expression" dxfId="1307" priority="1341">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1306" priority="1326">
+    <cfRule type="expression" dxfId="1306" priority="1342">
       <formula>U$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1305" priority="1327">
+    <cfRule type="expression" dxfId="1305" priority="1343">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1304" priority="1328">
+    <cfRule type="expression" dxfId="1304" priority="1344">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="expression" dxfId="1303" priority="1313">
+    <cfRule type="expression" dxfId="1303" priority="1329">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1302" priority="1314">
+    <cfRule type="expression" dxfId="1302" priority="1330">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1301" priority="1315">
+    <cfRule type="expression" dxfId="1301" priority="1331">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1300" priority="1316">
+    <cfRule type="expression" dxfId="1300" priority="1332">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1299" priority="1317">
+    <cfRule type="expression" dxfId="1299" priority="1333">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1298" priority="1318">
+    <cfRule type="expression" dxfId="1298" priority="1334">
       <formula>S$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1297" priority="1319">
+    <cfRule type="expression" dxfId="1297" priority="1335">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1296" priority="1320">
+    <cfRule type="expression" dxfId="1296" priority="1336">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="1295" priority="1305">
+    <cfRule type="expression" dxfId="1295" priority="1321">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1294" priority="1306">
+    <cfRule type="expression" dxfId="1294" priority="1322">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1293" priority="1307">
+    <cfRule type="expression" dxfId="1293" priority="1323">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1292" priority="1308">
+    <cfRule type="expression" dxfId="1292" priority="1324">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1291" priority="1309">
+    <cfRule type="expression" dxfId="1291" priority="1325">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1290" priority="1310">
+    <cfRule type="expression" dxfId="1290" priority="1326">
       <formula>V$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1289" priority="1311">
+    <cfRule type="expression" dxfId="1289" priority="1327">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1288" priority="1312">
+    <cfRule type="expression" dxfId="1288" priority="1328">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11">
-    <cfRule type="expression" dxfId="1287" priority="1297">
+    <cfRule type="expression" dxfId="1287" priority="1313">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1286" priority="1298">
+    <cfRule type="expression" dxfId="1286" priority="1314">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1285" priority="1299">
+    <cfRule type="expression" dxfId="1285" priority="1315">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1284" priority="1300">
+    <cfRule type="expression" dxfId="1284" priority="1316">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1283" priority="1301">
+    <cfRule type="expression" dxfId="1283" priority="1317">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1282" priority="1302">
+    <cfRule type="expression" dxfId="1282" priority="1318">
       <formula>R$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1281" priority="1303">
+    <cfRule type="expression" dxfId="1281" priority="1319">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1280" priority="1304">
+    <cfRule type="expression" dxfId="1280" priority="1320">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK15">
-    <cfRule type="expression" dxfId="1279" priority="1281">
+    <cfRule type="expression" dxfId="1279" priority="1297">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1278" priority="1282">
+    <cfRule type="expression" dxfId="1278" priority="1298">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1277" priority="1283">
+    <cfRule type="expression" dxfId="1277" priority="1299">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1276" priority="1284">
+    <cfRule type="expression" dxfId="1276" priority="1300">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1275" priority="1285">
+    <cfRule type="expression" dxfId="1275" priority="1301">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1274" priority="1286">
+    <cfRule type="expression" dxfId="1274" priority="1302">
       <formula>AK$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1273" priority="1287">
+    <cfRule type="expression" dxfId="1273" priority="1303">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1272" priority="1288">
+    <cfRule type="expression" dxfId="1272" priority="1304">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM15">
-    <cfRule type="expression" dxfId="1271" priority="1273">
+    <cfRule type="expression" dxfId="1271" priority="1289">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1270" priority="1274">
+    <cfRule type="expression" dxfId="1270" priority="1290">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1269" priority="1275">
+    <cfRule type="expression" dxfId="1269" priority="1291">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1268" priority="1276">
+    <cfRule type="expression" dxfId="1268" priority="1292">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1267" priority="1277">
+    <cfRule type="expression" dxfId="1267" priority="1293">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1266" priority="1278">
+    <cfRule type="expression" dxfId="1266" priority="1294">
       <formula>AM$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1265" priority="1279">
+    <cfRule type="expression" dxfId="1265" priority="1295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1264" priority="1280">
+    <cfRule type="expression" dxfId="1264" priority="1296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO15">
-    <cfRule type="expression" dxfId="1263" priority="1265">
+    <cfRule type="expression" dxfId="1263" priority="1281">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1262" priority="1266">
+    <cfRule type="expression" dxfId="1262" priority="1282">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1261" priority="1267">
+    <cfRule type="expression" dxfId="1261" priority="1283">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1260" priority="1268">
+    <cfRule type="expression" dxfId="1260" priority="1284">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1259" priority="1269">
+    <cfRule type="expression" dxfId="1259" priority="1285">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1258" priority="1270">
+    <cfRule type="expression" dxfId="1258" priority="1286">
       <formula>AO$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1257" priority="1271">
+    <cfRule type="expression" dxfId="1257" priority="1287">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1256" priority="1272">
+    <cfRule type="expression" dxfId="1256" priority="1288">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN15">
-    <cfRule type="expression" dxfId="1255" priority="1257">
+    <cfRule type="expression" dxfId="1255" priority="1273">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1254" priority="1258">
+    <cfRule type="expression" dxfId="1254" priority="1274">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1253" priority="1259">
+    <cfRule type="expression" dxfId="1253" priority="1275">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1252" priority="1260">
+    <cfRule type="expression" dxfId="1252" priority="1276">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1251" priority="1261">
+    <cfRule type="expression" dxfId="1251" priority="1277">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1250" priority="1262">
+    <cfRule type="expression" dxfId="1250" priority="1278">
       <formula>AN$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1249" priority="1263">
+    <cfRule type="expression" dxfId="1249" priority="1279">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1248" priority="1264">
+    <cfRule type="expression" dxfId="1248" priority="1280">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP15">
-    <cfRule type="expression" dxfId="1247" priority="1249">
+    <cfRule type="expression" dxfId="1247" priority="1265">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1246" priority="1250">
+    <cfRule type="expression" dxfId="1246" priority="1266">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1245" priority="1251">
+    <cfRule type="expression" dxfId="1245" priority="1267">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1244" priority="1252">
+    <cfRule type="expression" dxfId="1244" priority="1268">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1243" priority="1253">
+    <cfRule type="expression" dxfId="1243" priority="1269">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1242" priority="1254">
+    <cfRule type="expression" dxfId="1242" priority="1270">
       <formula>AP$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1241" priority="1255">
+    <cfRule type="expression" dxfId="1241" priority="1271">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1240" priority="1256">
+    <cfRule type="expression" dxfId="1240" priority="1272">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ15">
-    <cfRule type="expression" dxfId="1239" priority="1241">
+    <cfRule type="expression" dxfId="1239" priority="1257">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1238" priority="1242">
+    <cfRule type="expression" dxfId="1238" priority="1258">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1237" priority="1243">
+    <cfRule type="expression" dxfId="1237" priority="1259">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1236" priority="1244">
+    <cfRule type="expression" dxfId="1236" priority="1260">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1235" priority="1245">
+    <cfRule type="expression" dxfId="1235" priority="1261">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1234" priority="1246">
+    <cfRule type="expression" dxfId="1234" priority="1262">
       <formula>AJ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1233" priority="1247">
+    <cfRule type="expression" dxfId="1233" priority="1263">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1232" priority="1248">
+    <cfRule type="expression" dxfId="1232" priority="1264">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD19">
-    <cfRule type="expression" dxfId="1231" priority="1233">
+    <cfRule type="expression" dxfId="1231" priority="1249">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1230" priority="1234">
+    <cfRule type="expression" dxfId="1230" priority="1250">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1229" priority="1235">
+    <cfRule type="expression" dxfId="1229" priority="1251">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1228" priority="1236">
+    <cfRule type="expression" dxfId="1228" priority="1252">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1227" priority="1237">
+    <cfRule type="expression" dxfId="1227" priority="1253">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1226" priority="1238">
+    <cfRule type="expression" dxfId="1226" priority="1254">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1225" priority="1239">
+    <cfRule type="expression" dxfId="1225" priority="1255">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1224" priority="1240">
+    <cfRule type="expression" dxfId="1224" priority="1256">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD20">
-    <cfRule type="expression" dxfId="1223" priority="1225">
+    <cfRule type="expression" dxfId="1223" priority="1241">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1222" priority="1226">
+    <cfRule type="expression" dxfId="1222" priority="1242">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1221" priority="1227">
+    <cfRule type="expression" dxfId="1221" priority="1243">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1220" priority="1228">
+    <cfRule type="expression" dxfId="1220" priority="1244">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1219" priority="1229">
+    <cfRule type="expression" dxfId="1219" priority="1245">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1218" priority="1230">
+    <cfRule type="expression" dxfId="1218" priority="1246">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1217" priority="1231">
+    <cfRule type="expression" dxfId="1217" priority="1247">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1216" priority="1232">
+    <cfRule type="expression" dxfId="1216" priority="1248">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD21">
-    <cfRule type="expression" dxfId="1215" priority="1217">
+    <cfRule type="expression" dxfId="1215" priority="1233">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1214" priority="1218">
+    <cfRule type="expression" dxfId="1214" priority="1234">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1213" priority="1219">
+    <cfRule type="expression" dxfId="1213" priority="1235">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1212" priority="1220">
+    <cfRule type="expression" dxfId="1212" priority="1236">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1211" priority="1221">
+    <cfRule type="expression" dxfId="1211" priority="1237">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1210" priority="1222">
+    <cfRule type="expression" dxfId="1210" priority="1238">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1209" priority="1223">
+    <cfRule type="expression" dxfId="1209" priority="1239">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1208" priority="1224">
+    <cfRule type="expression" dxfId="1208" priority="1240">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD22">
-    <cfRule type="expression" dxfId="1207" priority="1209">
+    <cfRule type="expression" dxfId="1207" priority="1225">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1206" priority="1210">
+    <cfRule type="expression" dxfId="1206" priority="1226">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1205" priority="1211">
+    <cfRule type="expression" dxfId="1205" priority="1227">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1204" priority="1212">
+    <cfRule type="expression" dxfId="1204" priority="1228">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1203" priority="1213">
+    <cfRule type="expression" dxfId="1203" priority="1229">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1202" priority="1214">
+    <cfRule type="expression" dxfId="1202" priority="1230">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1201" priority="1215">
+    <cfRule type="expression" dxfId="1201" priority="1231">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1200" priority="1216">
+    <cfRule type="expression" dxfId="1200" priority="1232">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD23">
-    <cfRule type="expression" dxfId="1199" priority="1201">
+    <cfRule type="expression" dxfId="1199" priority="1217">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1198" priority="1202">
+    <cfRule type="expression" dxfId="1198" priority="1218">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1197" priority="1203">
+    <cfRule type="expression" dxfId="1197" priority="1219">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1196" priority="1204">
+    <cfRule type="expression" dxfId="1196" priority="1220">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1195" priority="1205">
+    <cfRule type="expression" dxfId="1195" priority="1221">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1194" priority="1206">
+    <cfRule type="expression" dxfId="1194" priority="1222">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1193" priority="1207">
+    <cfRule type="expression" dxfId="1193" priority="1223">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1192" priority="1208">
+    <cfRule type="expression" dxfId="1192" priority="1224">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB23">
-    <cfRule type="expression" dxfId="1191" priority="1193">
+    <cfRule type="expression" dxfId="1191" priority="1209">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1190" priority="1194">
+    <cfRule type="expression" dxfId="1190" priority="1210">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1189" priority="1195">
+    <cfRule type="expression" dxfId="1189" priority="1211">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1188" priority="1196">
+    <cfRule type="expression" dxfId="1188" priority="1212">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1187" priority="1197">
+    <cfRule type="expression" dxfId="1187" priority="1213">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1186" priority="1198">
+    <cfRule type="expression" dxfId="1186" priority="1214">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1185" priority="1199">
+    <cfRule type="expression" dxfId="1185" priority="1215">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1184" priority="1200">
+    <cfRule type="expression" dxfId="1184" priority="1216">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB22">
-    <cfRule type="expression" dxfId="1183" priority="1185">
+    <cfRule type="expression" dxfId="1183" priority="1201">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1182" priority="1186">
+    <cfRule type="expression" dxfId="1182" priority="1202">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1181" priority="1187">
+    <cfRule type="expression" dxfId="1181" priority="1203">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1180" priority="1188">
+    <cfRule type="expression" dxfId="1180" priority="1204">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1179" priority="1189">
+    <cfRule type="expression" dxfId="1179" priority="1205">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1178" priority="1190">
+    <cfRule type="expression" dxfId="1178" priority="1206">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1177" priority="1191">
+    <cfRule type="expression" dxfId="1177" priority="1207">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1176" priority="1192">
+    <cfRule type="expression" dxfId="1176" priority="1208">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB21">
-    <cfRule type="expression" dxfId="1175" priority="1177">
+    <cfRule type="expression" dxfId="1175" priority="1193">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1174" priority="1178">
+    <cfRule type="expression" dxfId="1174" priority="1194">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1173" priority="1179">
+    <cfRule type="expression" dxfId="1173" priority="1195">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1172" priority="1180">
+    <cfRule type="expression" dxfId="1172" priority="1196">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1171" priority="1181">
+    <cfRule type="expression" dxfId="1171" priority="1197">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1170" priority="1182">
+    <cfRule type="expression" dxfId="1170" priority="1198">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1169" priority="1183">
+    <cfRule type="expression" dxfId="1169" priority="1199">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1168" priority="1184">
+    <cfRule type="expression" dxfId="1168" priority="1200">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB20">
-    <cfRule type="expression" dxfId="1167" priority="1169">
+    <cfRule type="expression" dxfId="1167" priority="1185">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1166" priority="1170">
+    <cfRule type="expression" dxfId="1166" priority="1186">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1165" priority="1171">
+    <cfRule type="expression" dxfId="1165" priority="1187">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1164" priority="1172">
+    <cfRule type="expression" dxfId="1164" priority="1188">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1163" priority="1173">
+    <cfRule type="expression" dxfId="1163" priority="1189">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1162" priority="1174">
+    <cfRule type="expression" dxfId="1162" priority="1190">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1161" priority="1175">
+    <cfRule type="expression" dxfId="1161" priority="1191">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1160" priority="1176">
+    <cfRule type="expression" dxfId="1160" priority="1192">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB19">
-    <cfRule type="expression" dxfId="1159" priority="1161">
+    <cfRule type="expression" dxfId="1159" priority="1177">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1158" priority="1162">
+    <cfRule type="expression" dxfId="1158" priority="1178">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1157" priority="1163">
+    <cfRule type="expression" dxfId="1157" priority="1179">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1156" priority="1164">
+    <cfRule type="expression" dxfId="1156" priority="1180">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1155" priority="1165">
+    <cfRule type="expression" dxfId="1155" priority="1181">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1154" priority="1166">
+    <cfRule type="expression" dxfId="1154" priority="1182">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1153" priority="1167">
+    <cfRule type="expression" dxfId="1153" priority="1183">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1152" priority="1168">
+    <cfRule type="expression" dxfId="1152" priority="1184">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
-    <cfRule type="expression" dxfId="1151" priority="1153">
+    <cfRule type="expression" dxfId="1151" priority="1169">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1150" priority="1154">
+    <cfRule type="expression" dxfId="1150" priority="1170">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1149" priority="1155">
+    <cfRule type="expression" dxfId="1149" priority="1171">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1148" priority="1156">
+    <cfRule type="expression" dxfId="1148" priority="1172">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1147" priority="1157">
+    <cfRule type="expression" dxfId="1147" priority="1173">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1146" priority="1158">
+    <cfRule type="expression" dxfId="1146" priority="1174">
       <formula>R$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1145" priority="1159">
+    <cfRule type="expression" dxfId="1145" priority="1175">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1144" priority="1160">
+    <cfRule type="expression" dxfId="1144" priority="1176">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="1143" priority="1145">
+    <cfRule type="expression" dxfId="1143" priority="1161">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1142" priority="1146">
+    <cfRule type="expression" dxfId="1142" priority="1162">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1141" priority="1147">
+    <cfRule type="expression" dxfId="1141" priority="1163">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1140" priority="1148">
+    <cfRule type="expression" dxfId="1140" priority="1164">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1139" priority="1149">
+    <cfRule type="expression" dxfId="1139" priority="1165">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1138" priority="1150">
+    <cfRule type="expression" dxfId="1138" priority="1166">
       <formula>P$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1137" priority="1151">
+    <cfRule type="expression" dxfId="1137" priority="1167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1136" priority="1152">
+    <cfRule type="expression" dxfId="1136" priority="1168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="1135" priority="1129">
+    <cfRule type="expression" dxfId="1135" priority="1145">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1134" priority="1130">
+    <cfRule type="expression" dxfId="1134" priority="1146">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1133" priority="1131">
+    <cfRule type="expression" dxfId="1133" priority="1147">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1132" priority="1132">
+    <cfRule type="expression" dxfId="1132" priority="1148">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1131" priority="1133">
+    <cfRule type="expression" dxfId="1131" priority="1149">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1130" priority="1134">
+    <cfRule type="expression" dxfId="1130" priority="1150">
       <formula>L$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1129" priority="1135">
+    <cfRule type="expression" dxfId="1129" priority="1151">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1128" priority="1136">
+    <cfRule type="expression" dxfId="1128" priority="1152">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="expression" dxfId="1127" priority="1121">
+    <cfRule type="expression" dxfId="1127" priority="1137">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1126" priority="1122">
+    <cfRule type="expression" dxfId="1126" priority="1138">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1125" priority="1123">
+    <cfRule type="expression" dxfId="1125" priority="1139">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1124" priority="1124">
+    <cfRule type="expression" dxfId="1124" priority="1140">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1123" priority="1125">
+    <cfRule type="expression" dxfId="1123" priority="1141">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1122" priority="1126">
+    <cfRule type="expression" dxfId="1122" priority="1142">
       <formula>N$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1121" priority="1127">
+    <cfRule type="expression" dxfId="1121" priority="1143">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1120" priority="1128">
+    <cfRule type="expression" dxfId="1120" priority="1144">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="1119" priority="1113">
+    <cfRule type="expression" dxfId="1119" priority="1129">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1118" priority="1114">
+    <cfRule type="expression" dxfId="1118" priority="1130">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1117" priority="1115">
+    <cfRule type="expression" dxfId="1117" priority="1131">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1116" priority="1116">
+    <cfRule type="expression" dxfId="1116" priority="1132">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1115" priority="1117">
+    <cfRule type="expression" dxfId="1115" priority="1133">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1114" priority="1118">
+    <cfRule type="expression" dxfId="1114" priority="1134">
       <formula>M$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1113" priority="1119">
+    <cfRule type="expression" dxfId="1113" priority="1135">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1112" priority="1120">
+    <cfRule type="expression" dxfId="1112" priority="1136">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="1111" priority="1105">
+    <cfRule type="expression" dxfId="1111" priority="1121">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1110" priority="1106">
+    <cfRule type="expression" dxfId="1110" priority="1122">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1109" priority="1107">
+    <cfRule type="expression" dxfId="1109" priority="1123">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1108" priority="1108">
+    <cfRule type="expression" dxfId="1108" priority="1124">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1107" priority="1109">
+    <cfRule type="expression" dxfId="1107" priority="1125">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1106" priority="1110">
+    <cfRule type="expression" dxfId="1106" priority="1126">
       <formula>K$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1105" priority="1111">
+    <cfRule type="expression" dxfId="1105" priority="1127">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1104" priority="1112">
+    <cfRule type="expression" dxfId="1104" priority="1128">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="1103" priority="1097">
+    <cfRule type="expression" dxfId="1103" priority="1113">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1102" priority="1098">
+    <cfRule type="expression" dxfId="1102" priority="1114">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1101" priority="1099">
+    <cfRule type="expression" dxfId="1101" priority="1115">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1100" priority="1100">
+    <cfRule type="expression" dxfId="1100" priority="1116">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1099" priority="1101">
+    <cfRule type="expression" dxfId="1099" priority="1117">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1098" priority="1102">
+    <cfRule type="expression" dxfId="1098" priority="1118">
       <formula>J$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1097" priority="1103">
+    <cfRule type="expression" dxfId="1097" priority="1119">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1096" priority="1104">
+    <cfRule type="expression" dxfId="1096" priority="1120">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="1095" priority="1089">
+    <cfRule type="expression" dxfId="1095" priority="1105">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1094" priority="1090">
+    <cfRule type="expression" dxfId="1094" priority="1106">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1093" priority="1091">
+    <cfRule type="expression" dxfId="1093" priority="1107">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1092" priority="1092">
+    <cfRule type="expression" dxfId="1092" priority="1108">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1091" priority="1093">
+    <cfRule type="expression" dxfId="1091" priority="1109">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1090" priority="1094">
+    <cfRule type="expression" dxfId="1090" priority="1110">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1089" priority="1095">
+    <cfRule type="expression" dxfId="1089" priority="1111">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1088" priority="1096">
+    <cfRule type="expression" dxfId="1088" priority="1112">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="1087" priority="1081">
+    <cfRule type="expression" dxfId="1087" priority="1097">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1086" priority="1082">
+    <cfRule type="expression" dxfId="1086" priority="1098">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1085" priority="1083">
+    <cfRule type="expression" dxfId="1085" priority="1099">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1084" priority="1084">
+    <cfRule type="expression" dxfId="1084" priority="1100">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1083" priority="1085">
+    <cfRule type="expression" dxfId="1083" priority="1101">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1082" priority="1086">
+    <cfRule type="expression" dxfId="1082" priority="1102">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1081" priority="1087">
+    <cfRule type="expression" dxfId="1081" priority="1103">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1080" priority="1088">
+    <cfRule type="expression" dxfId="1080" priority="1104">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="1079" priority="1073">
+    <cfRule type="expression" dxfId="1079" priority="1089">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1078" priority="1074">
+    <cfRule type="expression" dxfId="1078" priority="1090">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1077" priority="1075">
+    <cfRule type="expression" dxfId="1077" priority="1091">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1076" priority="1076">
+    <cfRule type="expression" dxfId="1076" priority="1092">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1075" priority="1077">
+    <cfRule type="expression" dxfId="1075" priority="1093">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1074" priority="1078">
+    <cfRule type="expression" dxfId="1074" priority="1094">
       <formula>Q$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1073" priority="1079">
+    <cfRule type="expression" dxfId="1073" priority="1095">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1072" priority="1080">
+    <cfRule type="expression" dxfId="1072" priority="1096">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="1071" priority="1065">
+    <cfRule type="expression" dxfId="1071" priority="1081">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1070" priority="1066">
+    <cfRule type="expression" dxfId="1070" priority="1082">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1069" priority="1067">
+    <cfRule type="expression" dxfId="1069" priority="1083">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1068" priority="1068">
+    <cfRule type="expression" dxfId="1068" priority="1084">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1067" priority="1069">
+    <cfRule type="expression" dxfId="1067" priority="1085">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1066" priority="1070">
+    <cfRule type="expression" dxfId="1066" priority="1086">
       <formula>O$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1065" priority="1071">
+    <cfRule type="expression" dxfId="1065" priority="1087">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1064" priority="1072">
+    <cfRule type="expression" dxfId="1064" priority="1088">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="1063" priority="1057">
+    <cfRule type="expression" dxfId="1063" priority="1073">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1062" priority="1058">
+    <cfRule type="expression" dxfId="1062" priority="1074">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1061" priority="1059">
+    <cfRule type="expression" dxfId="1061" priority="1075">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1060" priority="1060">
+    <cfRule type="expression" dxfId="1060" priority="1076">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1059" priority="1061">
+    <cfRule type="expression" dxfId="1059" priority="1077">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1058" priority="1062">
+    <cfRule type="expression" dxfId="1058" priority="1078">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1057" priority="1063">
+    <cfRule type="expression" dxfId="1057" priority="1079">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1056" priority="1064">
+    <cfRule type="expression" dxfId="1056" priority="1080">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="1055" priority="1049">
+    <cfRule type="expression" dxfId="1055" priority="1065">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1054" priority="1050">
+    <cfRule type="expression" dxfId="1054" priority="1066">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1053" priority="1051">
+    <cfRule type="expression" dxfId="1053" priority="1067">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1052" priority="1052">
+    <cfRule type="expression" dxfId="1052" priority="1068">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1051" priority="1053">
+    <cfRule type="expression" dxfId="1051" priority="1069">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1050" priority="1054">
+    <cfRule type="expression" dxfId="1050" priority="1070">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1049" priority="1055">
+    <cfRule type="expression" dxfId="1049" priority="1071">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1048" priority="1056">
+    <cfRule type="expression" dxfId="1048" priority="1072">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="1047" priority="1041">
+    <cfRule type="expression" dxfId="1047" priority="1057">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1046" priority="1042">
+    <cfRule type="expression" dxfId="1046" priority="1058">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1045" priority="1043">
+    <cfRule type="expression" dxfId="1045" priority="1059">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1044" priority="1044">
+    <cfRule type="expression" dxfId="1044" priority="1060">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1043" priority="1045">
+    <cfRule type="expression" dxfId="1043" priority="1061">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1042" priority="1046">
+    <cfRule type="expression" dxfId="1042" priority="1062">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1041" priority="1047">
+    <cfRule type="expression" dxfId="1041" priority="1063">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1040" priority="1048">
+    <cfRule type="expression" dxfId="1040" priority="1064">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="expression" dxfId="1039" priority="1033">
+    <cfRule type="expression" dxfId="1039" priority="1049">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1038" priority="1034">
+    <cfRule type="expression" dxfId="1038" priority="1050">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1037" priority="1035">
+    <cfRule type="expression" dxfId="1037" priority="1051">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1036" priority="1036">
+    <cfRule type="expression" dxfId="1036" priority="1052">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1035" priority="1037">
+    <cfRule type="expression" dxfId="1035" priority="1053">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1034" priority="1038">
+    <cfRule type="expression" dxfId="1034" priority="1054">
       <formula>S$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1033" priority="1039">
+    <cfRule type="expression" dxfId="1033" priority="1055">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1032" priority="1040">
+    <cfRule type="expression" dxfId="1032" priority="1056">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12">
-    <cfRule type="expression" dxfId="1031" priority="1025">
+    <cfRule type="expression" dxfId="1031" priority="1041">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1030" priority="1026">
+    <cfRule type="expression" dxfId="1030" priority="1042">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1029" priority="1027">
+    <cfRule type="expression" dxfId="1029" priority="1043">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1028" priority="1028">
+    <cfRule type="expression" dxfId="1028" priority="1044">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1027" priority="1029">
+    <cfRule type="expression" dxfId="1027" priority="1045">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1026" priority="1030">
+    <cfRule type="expression" dxfId="1026" priority="1046">
       <formula>S$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1025" priority="1031">
+    <cfRule type="expression" dxfId="1025" priority="1047">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1024" priority="1032">
+    <cfRule type="expression" dxfId="1024" priority="1048">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="expression" dxfId="1023" priority="1017">
+    <cfRule type="expression" dxfId="1023" priority="1033">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1022" priority="1018">
+    <cfRule type="expression" dxfId="1022" priority="1034">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1021" priority="1019">
+    <cfRule type="expression" dxfId="1021" priority="1035">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1020" priority="1020">
+    <cfRule type="expression" dxfId="1020" priority="1036">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1019" priority="1021">
+    <cfRule type="expression" dxfId="1019" priority="1037">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1018" priority="1022">
+    <cfRule type="expression" dxfId="1018" priority="1038">
       <formula>Q$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1017" priority="1023">
+    <cfRule type="expression" dxfId="1017" priority="1039">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1016" priority="1024">
+    <cfRule type="expression" dxfId="1016" priority="1040">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="expression" dxfId="1015" priority="1009">
+    <cfRule type="expression" dxfId="1015" priority="1025">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1014" priority="1010">
+    <cfRule type="expression" dxfId="1014" priority="1026">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1013" priority="1011">
+    <cfRule type="expression" dxfId="1013" priority="1027">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1012" priority="1012">
+    <cfRule type="expression" dxfId="1012" priority="1028">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1011" priority="1013">
+    <cfRule type="expression" dxfId="1011" priority="1029">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1010" priority="1014">
+    <cfRule type="expression" dxfId="1010" priority="1030">
       <formula>O$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1009" priority="1015">
+    <cfRule type="expression" dxfId="1009" priority="1031">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1008" priority="1016">
+    <cfRule type="expression" dxfId="1008" priority="1032">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="1007" priority="1001">
+    <cfRule type="expression" dxfId="1007" priority="1017">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1006" priority="1002">
+    <cfRule type="expression" dxfId="1006" priority="1018">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1005" priority="1003">
+    <cfRule type="expression" dxfId="1005" priority="1019">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1004" priority="1004">
+    <cfRule type="expression" dxfId="1004" priority="1020">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1003" priority="1005">
+    <cfRule type="expression" dxfId="1003" priority="1021">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1002" priority="1006">
+    <cfRule type="expression" dxfId="1002" priority="1022">
       <formula>O$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1001" priority="1007">
+    <cfRule type="expression" dxfId="1001" priority="1023">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1000" priority="1008">
+    <cfRule type="expression" dxfId="1000" priority="1024">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="expression" dxfId="999" priority="993">
+    <cfRule type="expression" dxfId="999" priority="1009">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="998" priority="994">
+    <cfRule type="expression" dxfId="998" priority="1010">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="997" priority="995">
+    <cfRule type="expression" dxfId="997" priority="1011">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="996" priority="996">
+    <cfRule type="expression" dxfId="996" priority="1012">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="995" priority="997">
+    <cfRule type="expression" dxfId="995" priority="1013">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="994" priority="998">
+    <cfRule type="expression" dxfId="994" priority="1014">
       <formula>U$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="993" priority="999">
+    <cfRule type="expression" dxfId="993" priority="1015">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="992" priority="1000">
+    <cfRule type="expression" dxfId="992" priority="1016">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="991" priority="985">
+    <cfRule type="expression" dxfId="991" priority="1001">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="990" priority="986">
+    <cfRule type="expression" dxfId="990" priority="1002">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="989" priority="987">
+    <cfRule type="expression" dxfId="989" priority="1003">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="988" priority="988">
+    <cfRule type="expression" dxfId="988" priority="1004">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="987" priority="989">
+    <cfRule type="expression" dxfId="987" priority="1005">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="986" priority="990">
+    <cfRule type="expression" dxfId="986" priority="1006">
       <formula>Q$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="985" priority="991">
+    <cfRule type="expression" dxfId="985" priority="1007">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="984" priority="992">
+    <cfRule type="expression" dxfId="984" priority="1008">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="expression" dxfId="983" priority="977">
+    <cfRule type="expression" dxfId="983" priority="993">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="982" priority="978">
+    <cfRule type="expression" dxfId="982" priority="994">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="981" priority="979">
+    <cfRule type="expression" dxfId="981" priority="995">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="980" priority="980">
+    <cfRule type="expression" dxfId="980" priority="996">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="979" priority="981">
+    <cfRule type="expression" dxfId="979" priority="997">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="978" priority="982">
+    <cfRule type="expression" dxfId="978" priority="998">
       <formula>W$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="977" priority="983">
+    <cfRule type="expression" dxfId="977" priority="999">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="976" priority="984">
+    <cfRule type="expression" dxfId="976" priority="1000">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="expression" dxfId="975" priority="969">
+    <cfRule type="expression" dxfId="975" priority="985">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="974" priority="970">
+    <cfRule type="expression" dxfId="974" priority="986">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="973" priority="971">
+    <cfRule type="expression" dxfId="973" priority="987">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="972" priority="972">
+    <cfRule type="expression" dxfId="972" priority="988">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="971" priority="973">
+    <cfRule type="expression" dxfId="971" priority="989">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="970" priority="974">
+    <cfRule type="expression" dxfId="970" priority="990">
       <formula>W$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="969" priority="975">
+    <cfRule type="expression" dxfId="969" priority="991">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="968" priority="976">
+    <cfRule type="expression" dxfId="968" priority="992">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10">
-    <cfRule type="expression" dxfId="967" priority="961">
+    <cfRule type="expression" dxfId="967" priority="977">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="966" priority="962">
+    <cfRule type="expression" dxfId="966" priority="978">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="965" priority="963">
+    <cfRule type="expression" dxfId="965" priority="979">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="964" priority="964">
+    <cfRule type="expression" dxfId="964" priority="980">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="963" priority="965">
+    <cfRule type="expression" dxfId="963" priority="981">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="962" priority="966">
+    <cfRule type="expression" dxfId="962" priority="982">
       <formula>Y$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="961" priority="967">
+    <cfRule type="expression" dxfId="961" priority="983">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="960" priority="968">
+    <cfRule type="expression" dxfId="960" priority="984">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10">
-    <cfRule type="expression" dxfId="959" priority="953">
+    <cfRule type="expression" dxfId="959" priority="969">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="958" priority="954">
+    <cfRule type="expression" dxfId="958" priority="970">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="957" priority="955">
+    <cfRule type="expression" dxfId="957" priority="971">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="956" priority="956">
+    <cfRule type="expression" dxfId="956" priority="972">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="955" priority="957">
+    <cfRule type="expression" dxfId="955" priority="973">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="954" priority="958">
+    <cfRule type="expression" dxfId="954" priority="974">
       <formula>AA$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="953" priority="959">
+    <cfRule type="expression" dxfId="953" priority="975">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="952" priority="960">
+    <cfRule type="expression" dxfId="952" priority="976">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC10">
-    <cfRule type="expression" dxfId="951" priority="945">
+    <cfRule type="expression" dxfId="951" priority="961">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="950" priority="946">
+    <cfRule type="expression" dxfId="950" priority="962">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="949" priority="947">
+    <cfRule type="expression" dxfId="949" priority="963">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="948" priority="948">
+    <cfRule type="expression" dxfId="948" priority="964">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="947" priority="949">
+    <cfRule type="expression" dxfId="947" priority="965">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="946" priority="950">
+    <cfRule type="expression" dxfId="946" priority="966">
       <formula>AC$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="945" priority="951">
+    <cfRule type="expression" dxfId="945" priority="967">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="944" priority="952">
+    <cfRule type="expression" dxfId="944" priority="968">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE10">
-    <cfRule type="expression" dxfId="943" priority="937">
+    <cfRule type="expression" dxfId="943" priority="953">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="942" priority="938">
+    <cfRule type="expression" dxfId="942" priority="954">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="941" priority="939">
+    <cfRule type="expression" dxfId="941" priority="955">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="940" priority="940">
+    <cfRule type="expression" dxfId="940" priority="956">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="939" priority="941">
+    <cfRule type="expression" dxfId="939" priority="957">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="938" priority="942">
+    <cfRule type="expression" dxfId="938" priority="958">
       <formula>AE$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="937" priority="943">
+    <cfRule type="expression" dxfId="937" priority="959">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="936" priority="944">
+    <cfRule type="expression" dxfId="936" priority="960">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10">
-    <cfRule type="expression" dxfId="935" priority="929">
+    <cfRule type="expression" dxfId="935" priority="945">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="934" priority="930">
+    <cfRule type="expression" dxfId="934" priority="946">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="933" priority="931">
+    <cfRule type="expression" dxfId="933" priority="947">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="932" priority="932">
+    <cfRule type="expression" dxfId="932" priority="948">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="931" priority="933">
+    <cfRule type="expression" dxfId="931" priority="949">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="930" priority="934">
+    <cfRule type="expression" dxfId="930" priority="950">
       <formula>AG$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="929" priority="935">
+    <cfRule type="expression" dxfId="929" priority="951">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="928" priority="936">
+    <cfRule type="expression" dxfId="928" priority="952">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI10">
-    <cfRule type="expression" dxfId="927" priority="921">
+    <cfRule type="expression" dxfId="927" priority="937">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="926" priority="922">
+    <cfRule type="expression" dxfId="926" priority="938">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="925" priority="923">
+    <cfRule type="expression" dxfId="925" priority="939">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="924" priority="924">
+    <cfRule type="expression" dxfId="924" priority="940">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="923" priority="925">
+    <cfRule type="expression" dxfId="923" priority="941">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="922" priority="926">
+    <cfRule type="expression" dxfId="922" priority="942">
       <formula>AI$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="921" priority="927">
+    <cfRule type="expression" dxfId="921" priority="943">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="920" priority="928">
+    <cfRule type="expression" dxfId="920" priority="944">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK10">
-    <cfRule type="expression" dxfId="919" priority="913">
+    <cfRule type="expression" dxfId="919" priority="929">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="918" priority="914">
+    <cfRule type="expression" dxfId="918" priority="930">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="917" priority="915">
+    <cfRule type="expression" dxfId="917" priority="931">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="916" priority="916">
+    <cfRule type="expression" dxfId="916" priority="932">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="915" priority="917">
+    <cfRule type="expression" dxfId="915" priority="933">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="914" priority="918">
+    <cfRule type="expression" dxfId="914" priority="934">
       <formula>AK$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="913" priority="919">
+    <cfRule type="expression" dxfId="913" priority="935">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="912" priority="920">
+    <cfRule type="expression" dxfId="912" priority="936">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM10">
-    <cfRule type="expression" dxfId="911" priority="905">
+    <cfRule type="expression" dxfId="911" priority="921">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="910" priority="906">
+    <cfRule type="expression" dxfId="910" priority="922">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="909" priority="907">
+    <cfRule type="expression" dxfId="909" priority="923">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="908" priority="908">
+    <cfRule type="expression" dxfId="908" priority="924">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="907" priority="909">
+    <cfRule type="expression" dxfId="907" priority="925">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="906" priority="910">
+    <cfRule type="expression" dxfId="906" priority="926">
       <formula>AM$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="905" priority="911">
+    <cfRule type="expression" dxfId="905" priority="927">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="904" priority="912">
+    <cfRule type="expression" dxfId="904" priority="928">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO10">
-    <cfRule type="expression" dxfId="903" priority="897">
+    <cfRule type="expression" dxfId="903" priority="913">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="902" priority="898">
+    <cfRule type="expression" dxfId="902" priority="914">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="901" priority="899">
+    <cfRule type="expression" dxfId="901" priority="915">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="900" priority="900">
+    <cfRule type="expression" dxfId="900" priority="916">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="899" priority="901">
+    <cfRule type="expression" dxfId="899" priority="917">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="898" priority="902">
+    <cfRule type="expression" dxfId="898" priority="918">
       <formula>AO$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="897" priority="903">
+    <cfRule type="expression" dxfId="897" priority="919">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="896" priority="904">
+    <cfRule type="expression" dxfId="896" priority="920">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE14">
-    <cfRule type="expression" dxfId="895" priority="889">
+    <cfRule type="expression" dxfId="895" priority="905">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="894" priority="890">
+    <cfRule type="expression" dxfId="894" priority="906">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="893" priority="891">
+    <cfRule type="expression" dxfId="893" priority="907">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="892" priority="892">
+    <cfRule type="expression" dxfId="892" priority="908">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="891" priority="893">
+    <cfRule type="expression" dxfId="891" priority="909">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="890" priority="894">
+    <cfRule type="expression" dxfId="890" priority="910">
       <formula>AE$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="889" priority="895">
+    <cfRule type="expression" dxfId="889" priority="911">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="888" priority="896">
+    <cfRule type="expression" dxfId="888" priority="912">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC14">
-    <cfRule type="expression" dxfId="887" priority="881">
+    <cfRule type="expression" dxfId="887" priority="897">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="886" priority="882">
+    <cfRule type="expression" dxfId="886" priority="898">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="885" priority="883">
+    <cfRule type="expression" dxfId="885" priority="899">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="884" priority="884">
+    <cfRule type="expression" dxfId="884" priority="900">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="883" priority="885">
+    <cfRule type="expression" dxfId="883" priority="901">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="882" priority="886">
+    <cfRule type="expression" dxfId="882" priority="902">
       <formula>AC$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="881" priority="887">
+    <cfRule type="expression" dxfId="881" priority="903">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="880" priority="888">
+    <cfRule type="expression" dxfId="880" priority="904">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA14">
-    <cfRule type="expression" dxfId="879" priority="873">
+    <cfRule type="expression" dxfId="879" priority="889">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="878" priority="874">
+    <cfRule type="expression" dxfId="878" priority="890">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="877" priority="875">
+    <cfRule type="expression" dxfId="877" priority="891">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="876" priority="876">
+    <cfRule type="expression" dxfId="876" priority="892">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="875" priority="877">
+    <cfRule type="expression" dxfId="875" priority="893">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="874" priority="878">
+    <cfRule type="expression" dxfId="874" priority="894">
       <formula>AA$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="873" priority="879">
+    <cfRule type="expression" dxfId="873" priority="895">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="872" priority="880">
+    <cfRule type="expression" dxfId="872" priority="896">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15">
-    <cfRule type="expression" dxfId="871" priority="865">
+    <cfRule type="expression" dxfId="871" priority="881">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="870" priority="866">
+    <cfRule type="expression" dxfId="870" priority="882">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="869" priority="867">
+    <cfRule type="expression" dxfId="869" priority="883">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="868" priority="868">
+    <cfRule type="expression" dxfId="868" priority="884">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="867" priority="869">
+    <cfRule type="expression" dxfId="867" priority="885">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="866" priority="870">
+    <cfRule type="expression" dxfId="866" priority="886">
       <formula>AE$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="865" priority="871">
+    <cfRule type="expression" dxfId="865" priority="887">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="864" priority="872">
+    <cfRule type="expression" dxfId="864" priority="888">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16">
-    <cfRule type="expression" dxfId="863" priority="857">
+    <cfRule type="expression" dxfId="863" priority="873">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="862" priority="858">
+    <cfRule type="expression" dxfId="862" priority="874">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="861" priority="859">
+    <cfRule type="expression" dxfId="861" priority="875">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="860" priority="860">
+    <cfRule type="expression" dxfId="860" priority="876">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="859" priority="861">
+    <cfRule type="expression" dxfId="859" priority="877">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="858" priority="862">
+    <cfRule type="expression" dxfId="858" priority="878">
       <formula>AK$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="857" priority="863">
+    <cfRule type="expression" dxfId="857" priority="879">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="856" priority="864">
+    <cfRule type="expression" dxfId="856" priority="880">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM16">
-    <cfRule type="expression" dxfId="855" priority="849">
+    <cfRule type="expression" dxfId="855" priority="865">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="854" priority="850">
+    <cfRule type="expression" dxfId="854" priority="866">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="853" priority="851">
+    <cfRule type="expression" dxfId="853" priority="867">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="852" priority="852">
+    <cfRule type="expression" dxfId="852" priority="868">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="851" priority="853">
+    <cfRule type="expression" dxfId="851" priority="869">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="850" priority="854">
+    <cfRule type="expression" dxfId="850" priority="870">
       <formula>AM$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="849" priority="855">
+    <cfRule type="expression" dxfId="849" priority="871">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="848" priority="856">
+    <cfRule type="expression" dxfId="848" priority="872">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO16">
-    <cfRule type="expression" dxfId="847" priority="841">
+    <cfRule type="expression" dxfId="847" priority="857">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="846" priority="842">
+    <cfRule type="expression" dxfId="846" priority="858">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="845" priority="843">
+    <cfRule type="expression" dxfId="845" priority="859">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="844" priority="844">
+    <cfRule type="expression" dxfId="844" priority="860">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="843" priority="845">
+    <cfRule type="expression" dxfId="843" priority="861">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="842" priority="846">
+    <cfRule type="expression" dxfId="842" priority="862">
       <formula>AO$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="841" priority="847">
+    <cfRule type="expression" dxfId="841" priority="863">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="840" priority="848">
+    <cfRule type="expression" dxfId="840" priority="864">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS18">
-    <cfRule type="expression" dxfId="839" priority="833">
+    <cfRule type="expression" dxfId="839" priority="849">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="838" priority="834">
+    <cfRule type="expression" dxfId="838" priority="850">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="837" priority="835">
+    <cfRule type="expression" dxfId="837" priority="851">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="836" priority="836">
+    <cfRule type="expression" dxfId="836" priority="852">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="835" priority="837">
+    <cfRule type="expression" dxfId="835" priority="853">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="834" priority="838">
+    <cfRule type="expression" dxfId="834" priority="854">
       <formula>AS$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="833" priority="839">
+    <cfRule type="expression" dxfId="833" priority="855">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="832" priority="840">
+    <cfRule type="expression" dxfId="832" priority="856">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS19">
-    <cfRule type="expression" dxfId="831" priority="825">
+    <cfRule type="expression" dxfId="831" priority="841">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="830" priority="826">
+    <cfRule type="expression" dxfId="830" priority="842">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="829" priority="827">
+    <cfRule type="expression" dxfId="829" priority="843">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="828" priority="828">
+    <cfRule type="expression" dxfId="828" priority="844">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="827" priority="829">
+    <cfRule type="expression" dxfId="827" priority="845">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="826" priority="830">
+    <cfRule type="expression" dxfId="826" priority="846">
       <formula>AS$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="825" priority="831">
+    <cfRule type="expression" dxfId="825" priority="847">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="824" priority="832">
+    <cfRule type="expression" dxfId="824" priority="848">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT19">
-    <cfRule type="expression" dxfId="823" priority="817">
+    <cfRule type="expression" dxfId="823" priority="833">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="822" priority="818">
+    <cfRule type="expression" dxfId="822" priority="834">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="821" priority="819">
+    <cfRule type="expression" dxfId="821" priority="835">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="820" priority="820">
+    <cfRule type="expression" dxfId="820" priority="836">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="819" priority="821">
+    <cfRule type="expression" dxfId="819" priority="837">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="818" priority="822">
+    <cfRule type="expression" dxfId="818" priority="838">
       <formula>AT$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="817" priority="823">
+    <cfRule type="expression" dxfId="817" priority="839">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="816" priority="824">
+    <cfRule type="expression" dxfId="816" priority="840">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT18">
-    <cfRule type="expression" dxfId="815" priority="809">
+    <cfRule type="expression" dxfId="815" priority="825">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="814" priority="810">
+    <cfRule type="expression" dxfId="814" priority="826">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="813" priority="811">
+    <cfRule type="expression" dxfId="813" priority="827">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="812" priority="812">
+    <cfRule type="expression" dxfId="812" priority="828">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="811" priority="813">
+    <cfRule type="expression" dxfId="811" priority="829">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="810" priority="814">
+    <cfRule type="expression" dxfId="810" priority="830">
       <formula>AT$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="809" priority="815">
+    <cfRule type="expression" dxfId="809" priority="831">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="808" priority="816">
+    <cfRule type="expression" dxfId="808" priority="832">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT20">
-    <cfRule type="expression" dxfId="807" priority="801">
+    <cfRule type="expression" dxfId="807" priority="817">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="806" priority="802">
+    <cfRule type="expression" dxfId="806" priority="818">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="805" priority="803">
+    <cfRule type="expression" dxfId="805" priority="819">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="804" priority="804">
+    <cfRule type="expression" dxfId="804" priority="820">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="803" priority="805">
+    <cfRule type="expression" dxfId="803" priority="821">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="802" priority="806">
+    <cfRule type="expression" dxfId="802" priority="822">
       <formula>AT$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="801" priority="807">
+    <cfRule type="expression" dxfId="801" priority="823">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="800" priority="808">
+    <cfRule type="expression" dxfId="800" priority="824">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT21">
-    <cfRule type="expression" dxfId="799" priority="793">
+    <cfRule type="expression" dxfId="799" priority="809">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="798" priority="794">
+    <cfRule type="expression" dxfId="798" priority="810">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="797" priority="795">
+    <cfRule type="expression" dxfId="797" priority="811">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="796" priority="796">
+    <cfRule type="expression" dxfId="796" priority="812">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="795" priority="797">
+    <cfRule type="expression" dxfId="795" priority="813">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="794" priority="798">
+    <cfRule type="expression" dxfId="794" priority="814">
       <formula>AT$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="793" priority="799">
+    <cfRule type="expression" dxfId="793" priority="815">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="792" priority="800">
+    <cfRule type="expression" dxfId="792" priority="816">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT22">
-    <cfRule type="expression" dxfId="791" priority="785">
+    <cfRule type="expression" dxfId="791" priority="801">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="790" priority="786">
+    <cfRule type="expression" dxfId="790" priority="802">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="789" priority="787">
+    <cfRule type="expression" dxfId="789" priority="803">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="788" priority="788">
+    <cfRule type="expression" dxfId="788" priority="804">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="787" priority="789">
+    <cfRule type="expression" dxfId="787" priority="805">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="786" priority="790">
+    <cfRule type="expression" dxfId="786" priority="806">
       <formula>AT$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="785" priority="791">
+    <cfRule type="expression" dxfId="785" priority="807">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="792">
+    <cfRule type="expression" dxfId="784" priority="808">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT23">
-    <cfRule type="expression" dxfId="783" priority="777">
+    <cfRule type="expression" dxfId="783" priority="793">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="782" priority="778">
+    <cfRule type="expression" dxfId="782" priority="794">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="781" priority="779">
+    <cfRule type="expression" dxfId="781" priority="795">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="780" priority="780">
+    <cfRule type="expression" dxfId="780" priority="796">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="779" priority="781">
+    <cfRule type="expression" dxfId="779" priority="797">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="778" priority="782">
+    <cfRule type="expression" dxfId="778" priority="798">
       <formula>AT$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="777" priority="783">
+    <cfRule type="expression" dxfId="777" priority="799">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="776" priority="784">
+    <cfRule type="expression" dxfId="776" priority="800">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV18">
-    <cfRule type="expression" dxfId="775" priority="769">
+    <cfRule type="expression" dxfId="775" priority="785">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="774" priority="770">
+    <cfRule type="expression" dxfId="774" priority="786">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="773" priority="771">
+    <cfRule type="expression" dxfId="773" priority="787">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="772" priority="772">
+    <cfRule type="expression" dxfId="772" priority="788">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="771" priority="773">
+    <cfRule type="expression" dxfId="771" priority="789">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="770" priority="774">
+    <cfRule type="expression" dxfId="770" priority="790">
       <formula>AV$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="769" priority="775">
+    <cfRule type="expression" dxfId="769" priority="791">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="768" priority="776">
+    <cfRule type="expression" dxfId="768" priority="792">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV19">
-    <cfRule type="expression" dxfId="767" priority="761">
+    <cfRule type="expression" dxfId="767" priority="777">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="766" priority="762">
+    <cfRule type="expression" dxfId="766" priority="778">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="765" priority="763">
+    <cfRule type="expression" dxfId="765" priority="779">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="764" priority="764">
+    <cfRule type="expression" dxfId="764" priority="780">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="763" priority="765">
+    <cfRule type="expression" dxfId="763" priority="781">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="762" priority="766">
+    <cfRule type="expression" dxfId="762" priority="782">
       <formula>AV$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="761" priority="767">
+    <cfRule type="expression" dxfId="761" priority="783">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="760" priority="768">
+    <cfRule type="expression" dxfId="760" priority="784">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV20">
-    <cfRule type="expression" dxfId="759" priority="753">
+    <cfRule type="expression" dxfId="759" priority="769">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="758" priority="754">
+    <cfRule type="expression" dxfId="758" priority="770">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="757" priority="755">
+    <cfRule type="expression" dxfId="757" priority="771">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="756" priority="756">
+    <cfRule type="expression" dxfId="756" priority="772">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="755" priority="757">
+    <cfRule type="expression" dxfId="755" priority="773">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="754" priority="758">
+    <cfRule type="expression" dxfId="754" priority="774">
       <formula>AV$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="753" priority="759">
+    <cfRule type="expression" dxfId="753" priority="775">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="752" priority="760">
+    <cfRule type="expression" dxfId="752" priority="776">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV21">
-    <cfRule type="expression" dxfId="751" priority="745">
+    <cfRule type="expression" dxfId="751" priority="761">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="750" priority="746">
+    <cfRule type="expression" dxfId="750" priority="762">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="749" priority="747">
+    <cfRule type="expression" dxfId="749" priority="763">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="748">
+    <cfRule type="expression" dxfId="748" priority="764">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="747" priority="749">
+    <cfRule type="expression" dxfId="747" priority="765">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="746" priority="750">
+    <cfRule type="expression" dxfId="746" priority="766">
       <formula>AV$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="745" priority="751">
+    <cfRule type="expression" dxfId="745" priority="767">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="752">
+    <cfRule type="expression" dxfId="744" priority="768">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV22">
-    <cfRule type="expression" dxfId="743" priority="737">
+    <cfRule type="expression" dxfId="743" priority="753">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="742" priority="738">
+    <cfRule type="expression" dxfId="742" priority="754">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="741" priority="739">
+    <cfRule type="expression" dxfId="741" priority="755">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="740" priority="740">
+    <cfRule type="expression" dxfId="740" priority="756">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="739" priority="741">
+    <cfRule type="expression" dxfId="739" priority="757">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="738" priority="742">
+    <cfRule type="expression" dxfId="738" priority="758">
       <formula>AV$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="737" priority="743">
+    <cfRule type="expression" dxfId="737" priority="759">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="744">
+    <cfRule type="expression" dxfId="736" priority="760">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV23">
-    <cfRule type="expression" dxfId="735" priority="729">
+    <cfRule type="expression" dxfId="735" priority="745">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="734" priority="730">
+    <cfRule type="expression" dxfId="734" priority="746">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="733" priority="731">
+    <cfRule type="expression" dxfId="733" priority="747">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="732">
+    <cfRule type="expression" dxfId="732" priority="748">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="731" priority="733">
+    <cfRule type="expression" dxfId="731" priority="749">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="730" priority="734">
+    <cfRule type="expression" dxfId="730" priority="750">
       <formula>AV$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="729" priority="735">
+    <cfRule type="expression" dxfId="729" priority="751">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="728" priority="736">
+    <cfRule type="expression" dxfId="728" priority="752">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR19">
-    <cfRule type="expression" dxfId="727" priority="721">
+    <cfRule type="expression" dxfId="727" priority="737">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="722">
+    <cfRule type="expression" dxfId="726" priority="738">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="725" priority="723">
+    <cfRule type="expression" dxfId="725" priority="739">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="724">
+    <cfRule type="expression" dxfId="724" priority="740">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="725">
+    <cfRule type="expression" dxfId="723" priority="741">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="722" priority="726">
+    <cfRule type="expression" dxfId="722" priority="742">
       <formula>AR$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="727">
+    <cfRule type="expression" dxfId="721" priority="743">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="728">
+    <cfRule type="expression" dxfId="720" priority="744">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR18">
-    <cfRule type="expression" dxfId="719" priority="713">
+    <cfRule type="expression" dxfId="719" priority="729">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="718" priority="714">
+    <cfRule type="expression" dxfId="718" priority="730">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="717" priority="715">
+    <cfRule type="expression" dxfId="717" priority="731">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="716" priority="716">
+    <cfRule type="expression" dxfId="716" priority="732">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="715" priority="717">
+    <cfRule type="expression" dxfId="715" priority="733">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="714" priority="718">
+    <cfRule type="expression" dxfId="714" priority="734">
       <formula>AR$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="713" priority="719">
+    <cfRule type="expression" dxfId="713" priority="735">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="720">
+    <cfRule type="expression" dxfId="712" priority="736">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR20">
-    <cfRule type="expression" dxfId="711" priority="705">
+    <cfRule type="expression" dxfId="711" priority="721">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="710" priority="706">
+    <cfRule type="expression" dxfId="710" priority="722">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="707">
+    <cfRule type="expression" dxfId="709" priority="723">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="708">
+    <cfRule type="expression" dxfId="708" priority="724">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="707" priority="709">
+    <cfRule type="expression" dxfId="707" priority="725">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="706" priority="710">
+    <cfRule type="expression" dxfId="706" priority="726">
       <formula>AR$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="705" priority="711">
+    <cfRule type="expression" dxfId="705" priority="727">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="704" priority="712">
+    <cfRule type="expression" dxfId="704" priority="728">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR21">
-    <cfRule type="expression" dxfId="703" priority="697">
+    <cfRule type="expression" dxfId="703" priority="713">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="698">
+    <cfRule type="expression" dxfId="702" priority="714">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="701" priority="699">
+    <cfRule type="expression" dxfId="701" priority="715">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="700">
+    <cfRule type="expression" dxfId="700" priority="716">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="699" priority="701">
+    <cfRule type="expression" dxfId="699" priority="717">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="698" priority="702">
+    <cfRule type="expression" dxfId="698" priority="718">
       <formula>AR$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="697" priority="703">
+    <cfRule type="expression" dxfId="697" priority="719">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="704">
+    <cfRule type="expression" dxfId="696" priority="720">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR22">
-    <cfRule type="expression" dxfId="695" priority="689">
+    <cfRule type="expression" dxfId="695" priority="705">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="690">
+    <cfRule type="expression" dxfId="694" priority="706">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="693" priority="691">
+    <cfRule type="expression" dxfId="693" priority="707">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="692" priority="692">
+    <cfRule type="expression" dxfId="692" priority="708">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="691" priority="693">
+    <cfRule type="expression" dxfId="691" priority="709">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="694">
+    <cfRule type="expression" dxfId="690" priority="710">
       <formula>AR$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="689" priority="695">
+    <cfRule type="expression" dxfId="689" priority="711">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="696">
+    <cfRule type="expression" dxfId="688" priority="712">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR23">
-    <cfRule type="expression" dxfId="687" priority="681">
+    <cfRule type="expression" dxfId="687" priority="697">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="682">
+    <cfRule type="expression" dxfId="686" priority="698">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="683">
+    <cfRule type="expression" dxfId="685" priority="699">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="684">
+    <cfRule type="expression" dxfId="684" priority="700">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="683" priority="685">
+    <cfRule type="expression" dxfId="683" priority="701">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="686">
+    <cfRule type="expression" dxfId="682" priority="702">
       <formula>AR$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="687">
+    <cfRule type="expression" dxfId="681" priority="703">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="680" priority="688">
+    <cfRule type="expression" dxfId="680" priority="704">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP16">
-    <cfRule type="expression" dxfId="679" priority="673">
+    <cfRule type="expression" dxfId="679" priority="689">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="674">
+    <cfRule type="expression" dxfId="678" priority="690">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="677" priority="675">
+    <cfRule type="expression" dxfId="677" priority="691">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="676">
+    <cfRule type="expression" dxfId="676" priority="692">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="677">
+    <cfRule type="expression" dxfId="675" priority="693">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="678">
+    <cfRule type="expression" dxfId="674" priority="694">
       <formula>AP$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="679">
+    <cfRule type="expression" dxfId="673" priority="695">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="680">
+    <cfRule type="expression" dxfId="672" priority="696">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN16">
-    <cfRule type="expression" dxfId="671" priority="665">
+    <cfRule type="expression" dxfId="671" priority="681">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="666">
+    <cfRule type="expression" dxfId="670" priority="682">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="667">
+    <cfRule type="expression" dxfId="669" priority="683">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="668">
+    <cfRule type="expression" dxfId="668" priority="684">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="669">
+    <cfRule type="expression" dxfId="667" priority="685">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="670">
+    <cfRule type="expression" dxfId="666" priority="686">
       <formula>AN$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="671">
+    <cfRule type="expression" dxfId="665" priority="687">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="672">
+    <cfRule type="expression" dxfId="664" priority="688">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH10">
-    <cfRule type="expression" dxfId="663" priority="657">
+    <cfRule type="expression" dxfId="663" priority="673">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="658">
+    <cfRule type="expression" dxfId="662" priority="674">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="659">
+    <cfRule type="expression" dxfId="661" priority="675">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="660">
+    <cfRule type="expression" dxfId="660" priority="676">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="659" priority="661">
+    <cfRule type="expression" dxfId="659" priority="677">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="662">
+    <cfRule type="expression" dxfId="658" priority="678">
       <formula>AH$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="663">
+    <cfRule type="expression" dxfId="657" priority="679">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="656" priority="664">
+    <cfRule type="expression" dxfId="656" priority="680">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ10">
-    <cfRule type="expression" dxfId="655" priority="649">
+    <cfRule type="expression" dxfId="655" priority="665">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="650">
+    <cfRule type="expression" dxfId="654" priority="666">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="653" priority="651">
+    <cfRule type="expression" dxfId="653" priority="667">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="652">
+    <cfRule type="expression" dxfId="652" priority="668">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="653">
+    <cfRule type="expression" dxfId="651" priority="669">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="654">
+    <cfRule type="expression" dxfId="650" priority="670">
       <formula>AJ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="655">
+    <cfRule type="expression" dxfId="649" priority="671">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="656">
+    <cfRule type="expression" dxfId="648" priority="672">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL10">
-    <cfRule type="expression" dxfId="647" priority="641">
+    <cfRule type="expression" dxfId="647" priority="657">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="642">
+    <cfRule type="expression" dxfId="646" priority="658">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="643">
+    <cfRule type="expression" dxfId="645" priority="659">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="644">
+    <cfRule type="expression" dxfId="644" priority="660">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="645">
+    <cfRule type="expression" dxfId="643" priority="661">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="646">
+    <cfRule type="expression" dxfId="642" priority="662">
       <formula>AL$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="647">
+    <cfRule type="expression" dxfId="641" priority="663">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="648">
+    <cfRule type="expression" dxfId="640" priority="664">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN10">
-    <cfRule type="expression" dxfId="639" priority="633">
+    <cfRule type="expression" dxfId="639" priority="649">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="634">
+    <cfRule type="expression" dxfId="638" priority="650">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="635">
+    <cfRule type="expression" dxfId="637" priority="651">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="636">
+    <cfRule type="expression" dxfId="636" priority="652">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="637">
+    <cfRule type="expression" dxfId="635" priority="653">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="638">
+    <cfRule type="expression" dxfId="634" priority="654">
       <formula>AN$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="639">
+    <cfRule type="expression" dxfId="633" priority="655">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="640">
+    <cfRule type="expression" dxfId="632" priority="656">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI15">
-    <cfRule type="expression" dxfId="631" priority="625">
+    <cfRule type="expression" dxfId="631" priority="641">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="626">
+    <cfRule type="expression" dxfId="630" priority="642">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="627">
+    <cfRule type="expression" dxfId="629" priority="643">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="628">
+    <cfRule type="expression" dxfId="628" priority="644">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="629">
+    <cfRule type="expression" dxfId="627" priority="645">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="630">
+    <cfRule type="expression" dxfId="626" priority="646">
       <formula>AI$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="631">
+    <cfRule type="expression" dxfId="625" priority="647">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="632">
+    <cfRule type="expression" dxfId="624" priority="648">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD14">
-    <cfRule type="expression" dxfId="623" priority="617">
+    <cfRule type="expression" dxfId="623" priority="633">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="618">
+    <cfRule type="expression" dxfId="622" priority="634">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="619">
+    <cfRule type="expression" dxfId="621" priority="635">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="620">
+    <cfRule type="expression" dxfId="620" priority="636">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="621">
+    <cfRule type="expression" dxfId="619" priority="637">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="622">
+    <cfRule type="expression" dxfId="618" priority="638">
       <formula>AD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="617" priority="623">
+    <cfRule type="expression" dxfId="617" priority="639">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="624">
+    <cfRule type="expression" dxfId="616" priority="640">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF14">
-    <cfRule type="expression" dxfId="615" priority="609">
+    <cfRule type="expression" dxfId="615" priority="625">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="610">
+    <cfRule type="expression" dxfId="614" priority="626">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="611">
+    <cfRule type="expression" dxfId="613" priority="627">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="612">
+    <cfRule type="expression" dxfId="612" priority="628">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="611" priority="613">
+    <cfRule type="expression" dxfId="611" priority="629">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="614">
+    <cfRule type="expression" dxfId="610" priority="630">
       <formula>AF$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="615">
+    <cfRule type="expression" dxfId="609" priority="631">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="616">
+    <cfRule type="expression" dxfId="608" priority="632">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10">
-    <cfRule type="expression" dxfId="607" priority="601">
+    <cfRule type="expression" dxfId="607" priority="617">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="602">
+    <cfRule type="expression" dxfId="606" priority="618">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="605" priority="603">
+    <cfRule type="expression" dxfId="605" priority="619">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="604">
+    <cfRule type="expression" dxfId="604" priority="620">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="605">
+    <cfRule type="expression" dxfId="603" priority="621">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="606">
+    <cfRule type="expression" dxfId="602" priority="622">
       <formula>AF$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="607">
+    <cfRule type="expression" dxfId="601" priority="623">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="608">
+    <cfRule type="expression" dxfId="600" priority="624">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD10">
-    <cfRule type="expression" dxfId="599" priority="593">
+    <cfRule type="expression" dxfId="599" priority="609">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="594">
+    <cfRule type="expression" dxfId="598" priority="610">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="595">
+    <cfRule type="expression" dxfId="597" priority="611">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="596">
+    <cfRule type="expression" dxfId="596" priority="612">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="597">
+    <cfRule type="expression" dxfId="595" priority="613">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="598">
+    <cfRule type="expression" dxfId="594" priority="614">
       <formula>AD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="599">
+    <cfRule type="expression" dxfId="593" priority="615">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="600">
+    <cfRule type="expression" dxfId="592" priority="616">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="expression" dxfId="591" priority="585">
+    <cfRule type="expression" dxfId="591" priority="601">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="586">
+    <cfRule type="expression" dxfId="590" priority="602">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="587">
+    <cfRule type="expression" dxfId="589" priority="603">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="588">
+    <cfRule type="expression" dxfId="588" priority="604">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="589">
+    <cfRule type="expression" dxfId="587" priority="605">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="590">
+    <cfRule type="expression" dxfId="586" priority="606">
       <formula>AB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="591">
+    <cfRule type="expression" dxfId="585" priority="607">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="592">
+    <cfRule type="expression" dxfId="584" priority="608">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z10">
-    <cfRule type="expression" dxfId="583" priority="577">
+    <cfRule type="expression" dxfId="583" priority="593">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="578">
+    <cfRule type="expression" dxfId="582" priority="594">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="579">
+    <cfRule type="expression" dxfId="581" priority="595">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="580">
+    <cfRule type="expression" dxfId="580" priority="596">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="581">
+    <cfRule type="expression" dxfId="579" priority="597">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="582">
+    <cfRule type="expression" dxfId="578" priority="598">
       <formula>Z$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="583">
+    <cfRule type="expression" dxfId="577" priority="599">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="584">
+    <cfRule type="expression" dxfId="576" priority="600">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB14">
-    <cfRule type="expression" dxfId="575" priority="569">
+    <cfRule type="expression" dxfId="575" priority="585">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="570">
+    <cfRule type="expression" dxfId="574" priority="586">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="571">
+    <cfRule type="expression" dxfId="573" priority="587">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="572">
+    <cfRule type="expression" dxfId="572" priority="588">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="573">
+    <cfRule type="expression" dxfId="571" priority="589">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="574">
+    <cfRule type="expression" dxfId="570" priority="590">
       <formula>AB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="569" priority="575">
+    <cfRule type="expression" dxfId="569" priority="591">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="576">
+    <cfRule type="expression" dxfId="568" priority="592">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X10">
-    <cfRule type="expression" dxfId="567" priority="561">
+    <cfRule type="expression" dxfId="567" priority="577">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="562">
+    <cfRule type="expression" dxfId="566" priority="578">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="563">
+    <cfRule type="expression" dxfId="565" priority="579">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="564">
+    <cfRule type="expression" dxfId="564" priority="580">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="565">
+    <cfRule type="expression" dxfId="563" priority="581">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="566">
+    <cfRule type="expression" dxfId="562" priority="582">
       <formula>X$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="567">
+    <cfRule type="expression" dxfId="561" priority="583">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="568">
+    <cfRule type="expression" dxfId="560" priority="584">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="expression" dxfId="559" priority="553">
+    <cfRule type="expression" dxfId="559" priority="569">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="554">
+    <cfRule type="expression" dxfId="558" priority="570">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="555">
+    <cfRule type="expression" dxfId="557" priority="571">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="556">
+    <cfRule type="expression" dxfId="556" priority="572">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="557">
+    <cfRule type="expression" dxfId="555" priority="573">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="558">
+    <cfRule type="expression" dxfId="554" priority="574">
       <formula>V$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="559">
+    <cfRule type="expression" dxfId="553" priority="575">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="560">
+    <cfRule type="expression" dxfId="552" priority="576">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10">
-    <cfRule type="expression" dxfId="551" priority="545">
+    <cfRule type="expression" dxfId="551" priority="561">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="546">
+    <cfRule type="expression" dxfId="550" priority="562">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="547">
+    <cfRule type="expression" dxfId="549" priority="563">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="548">
+    <cfRule type="expression" dxfId="548" priority="564">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="549">
+    <cfRule type="expression" dxfId="547" priority="565">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="550">
+    <cfRule type="expression" dxfId="546" priority="566">
       <formula>T$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="551">
+    <cfRule type="expression" dxfId="545" priority="567">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="552">
+    <cfRule type="expression" dxfId="544" priority="568">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12">
-    <cfRule type="expression" dxfId="543" priority="537">
+    <cfRule type="expression" dxfId="543" priority="553">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="538">
+    <cfRule type="expression" dxfId="542" priority="554">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="539">
+    <cfRule type="expression" dxfId="541" priority="555">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="540">
+    <cfRule type="expression" dxfId="540" priority="556">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="541">
+    <cfRule type="expression" dxfId="539" priority="557">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="542">
+    <cfRule type="expression" dxfId="538" priority="558">
       <formula>T$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="543">
+    <cfRule type="expression" dxfId="537" priority="559">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="544">
+    <cfRule type="expression" dxfId="536" priority="560">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="expression" dxfId="535" priority="529">
+    <cfRule type="expression" dxfId="535" priority="545">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="530">
+    <cfRule type="expression" dxfId="534" priority="546">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="531">
+    <cfRule type="expression" dxfId="533" priority="547">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="532">
+    <cfRule type="expression" dxfId="532" priority="548">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="533">
+    <cfRule type="expression" dxfId="531" priority="549">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="534">
+    <cfRule type="expression" dxfId="530" priority="550">
       <formula>R$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="535">
+    <cfRule type="expression" dxfId="529" priority="551">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="536">
+    <cfRule type="expression" dxfId="528" priority="552">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="527" priority="521">
+    <cfRule type="expression" dxfId="527" priority="537">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="522">
+    <cfRule type="expression" dxfId="526" priority="538">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="523">
+    <cfRule type="expression" dxfId="525" priority="539">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="524">
+    <cfRule type="expression" dxfId="524" priority="540">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="525">
+    <cfRule type="expression" dxfId="523" priority="541">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="526">
+    <cfRule type="expression" dxfId="522" priority="542">
       <formula>R$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="527">
+    <cfRule type="expression" dxfId="521" priority="543">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="528">
+    <cfRule type="expression" dxfId="520" priority="544">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="expression" dxfId="519" priority="513">
+    <cfRule type="expression" dxfId="519" priority="529">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="514">
+    <cfRule type="expression" dxfId="518" priority="530">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="515">
+    <cfRule type="expression" dxfId="517" priority="531">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="516">
+    <cfRule type="expression" dxfId="516" priority="532">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="517">
+    <cfRule type="expression" dxfId="515" priority="533">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="518">
+    <cfRule type="expression" dxfId="514" priority="534">
       <formula>P$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="519">
+    <cfRule type="expression" dxfId="513" priority="535">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="520">
+    <cfRule type="expression" dxfId="512" priority="536">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="expression" dxfId="511" priority="505">
+    <cfRule type="expression" dxfId="511" priority="521">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="506">
+    <cfRule type="expression" dxfId="510" priority="522">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="507">
+    <cfRule type="expression" dxfId="509" priority="523">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="508">
+    <cfRule type="expression" dxfId="508" priority="524">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="509">
+    <cfRule type="expression" dxfId="507" priority="525">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="510">
+    <cfRule type="expression" dxfId="506" priority="526">
       <formula>P$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="511">
+    <cfRule type="expression" dxfId="505" priority="527">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="512">
+    <cfRule type="expression" dxfId="504" priority="528">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="503" priority="497">
+    <cfRule type="expression" dxfId="503" priority="513">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="498">
+    <cfRule type="expression" dxfId="502" priority="514">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="499">
+    <cfRule type="expression" dxfId="501" priority="515">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="500">
+    <cfRule type="expression" dxfId="500" priority="516">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="501">
+    <cfRule type="expression" dxfId="499" priority="517">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="502">
+    <cfRule type="expression" dxfId="498" priority="518">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="503">
+    <cfRule type="expression" dxfId="497" priority="519">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="504">
+    <cfRule type="expression" dxfId="496" priority="520">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="495" priority="489">
+    <cfRule type="expression" dxfId="495" priority="505">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="490">
+    <cfRule type="expression" dxfId="494" priority="506">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="491">
+    <cfRule type="expression" dxfId="493" priority="507">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="492">
+    <cfRule type="expression" dxfId="492" priority="508">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="493">
+    <cfRule type="expression" dxfId="491" priority="509">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="494">
+    <cfRule type="expression" dxfId="490" priority="510">
       <formula>N$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="495">
+    <cfRule type="expression" dxfId="489" priority="511">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="496">
+    <cfRule type="expression" dxfId="488" priority="512">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="487" priority="481">
+    <cfRule type="expression" dxfId="487" priority="497">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="482">
+    <cfRule type="expression" dxfId="486" priority="498">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="483">
+    <cfRule type="expression" dxfId="485" priority="499">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="484">
+    <cfRule type="expression" dxfId="484" priority="500">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="485">
+    <cfRule type="expression" dxfId="483" priority="501">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="486">
+    <cfRule type="expression" dxfId="482" priority="502">
       <formula>N$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="487">
+    <cfRule type="expression" dxfId="481" priority="503">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="488">
+    <cfRule type="expression" dxfId="480" priority="504">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX18">
-    <cfRule type="expression" dxfId="479" priority="473">
+    <cfRule type="expression" dxfId="479" priority="489">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="474">
+    <cfRule type="expression" dxfId="478" priority="490">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="475">
+    <cfRule type="expression" dxfId="477" priority="491">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="476">
+    <cfRule type="expression" dxfId="476" priority="492">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="477">
+    <cfRule type="expression" dxfId="475" priority="493">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="478">
+    <cfRule type="expression" dxfId="474" priority="494">
       <formula>AX$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="479">
+    <cfRule type="expression" dxfId="473" priority="495">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="480">
+    <cfRule type="expression" dxfId="472" priority="496">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ18">
-    <cfRule type="expression" dxfId="471" priority="465">
+    <cfRule type="expression" dxfId="471" priority="481">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="466">
+    <cfRule type="expression" dxfId="470" priority="482">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="467">
+    <cfRule type="expression" dxfId="469" priority="483">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="468">
+    <cfRule type="expression" dxfId="468" priority="484">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="469">
+    <cfRule type="expression" dxfId="467" priority="485">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="470">
+    <cfRule type="expression" dxfId="466" priority="486">
       <formula>AZ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="471">
+    <cfRule type="expression" dxfId="465" priority="487">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="472">
+    <cfRule type="expression" dxfId="464" priority="488">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB18">
-    <cfRule type="expression" dxfId="463" priority="457">
+    <cfRule type="expression" dxfId="463" priority="473">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="458">
+    <cfRule type="expression" dxfId="462" priority="474">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="459">
+    <cfRule type="expression" dxfId="461" priority="475">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="460">
+    <cfRule type="expression" dxfId="460" priority="476">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="461">
+    <cfRule type="expression" dxfId="459" priority="477">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="462">
+    <cfRule type="expression" dxfId="458" priority="478">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="463">
+    <cfRule type="expression" dxfId="457" priority="479">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="464">
+    <cfRule type="expression" dxfId="456" priority="480">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD18">
-    <cfRule type="expression" dxfId="455" priority="449">
+    <cfRule type="expression" dxfId="455" priority="465">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="450">
+    <cfRule type="expression" dxfId="454" priority="466">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="451">
+    <cfRule type="expression" dxfId="453" priority="467">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="452">
+    <cfRule type="expression" dxfId="452" priority="468">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="453">
+    <cfRule type="expression" dxfId="451" priority="469">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="454">
+    <cfRule type="expression" dxfId="450" priority="470">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="455">
+    <cfRule type="expression" dxfId="449" priority="471">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="456">
+    <cfRule type="expression" dxfId="448" priority="472">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF18">
-    <cfRule type="expression" dxfId="447" priority="441">
+    <cfRule type="expression" dxfId="447" priority="457">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="442">
+    <cfRule type="expression" dxfId="446" priority="458">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="443">
+    <cfRule type="expression" dxfId="445" priority="459">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="444">
+    <cfRule type="expression" dxfId="444" priority="460">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="445">
+    <cfRule type="expression" dxfId="443" priority="461">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="446">
+    <cfRule type="expression" dxfId="442" priority="462">
       <formula>BF$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="447">
+    <cfRule type="expression" dxfId="441" priority="463">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="448">
+    <cfRule type="expression" dxfId="440" priority="464">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH18">
-    <cfRule type="expression" dxfId="439" priority="433">
+    <cfRule type="expression" dxfId="439" priority="449">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="434">
+    <cfRule type="expression" dxfId="438" priority="450">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="435">
+    <cfRule type="expression" dxfId="437" priority="451">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="436">
+    <cfRule type="expression" dxfId="436" priority="452">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="437">
+    <cfRule type="expression" dxfId="435" priority="453">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="438">
+    <cfRule type="expression" dxfId="434" priority="454">
       <formula>BH$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="439">
+    <cfRule type="expression" dxfId="433" priority="455">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="440">
+    <cfRule type="expression" dxfId="432" priority="456">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ18">
-    <cfRule type="expression" dxfId="431" priority="425">
+    <cfRule type="expression" dxfId="431" priority="441">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="426">
+    <cfRule type="expression" dxfId="430" priority="442">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="427">
+    <cfRule type="expression" dxfId="429" priority="443">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="428">
+    <cfRule type="expression" dxfId="428" priority="444">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="429">
+    <cfRule type="expression" dxfId="427" priority="445">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="430">
+    <cfRule type="expression" dxfId="426" priority="446">
       <formula>BJ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="431">
+    <cfRule type="expression" dxfId="425" priority="447">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="432">
+    <cfRule type="expression" dxfId="424" priority="448">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ24">
-    <cfRule type="expression" dxfId="423" priority="417">
+    <cfRule type="expression" dxfId="423" priority="433">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="418">
+    <cfRule type="expression" dxfId="422" priority="434">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="419">
+    <cfRule type="expression" dxfId="421" priority="435">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="420">
+    <cfRule type="expression" dxfId="420" priority="436">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="421">
+    <cfRule type="expression" dxfId="419" priority="437">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="422">
+    <cfRule type="expression" dxfId="418" priority="438">
       <formula>BJ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="423">
+    <cfRule type="expression" dxfId="417" priority="439">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="424">
+    <cfRule type="expression" dxfId="416" priority="440">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ25">
-    <cfRule type="expression" dxfId="415" priority="409">
+    <cfRule type="expression" dxfId="415" priority="425">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="410">
+    <cfRule type="expression" dxfId="414" priority="426">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="411">
+    <cfRule type="expression" dxfId="413" priority="427">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="412">
+    <cfRule type="expression" dxfId="412" priority="428">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="413">
+    <cfRule type="expression" dxfId="411" priority="429">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="414">
+    <cfRule type="expression" dxfId="410" priority="430">
       <formula>BJ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="415">
+    <cfRule type="expression" dxfId="409" priority="431">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="416">
+    <cfRule type="expression" dxfId="408" priority="432">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ26">
-    <cfRule type="expression" dxfId="407" priority="401">
+    <cfRule type="expression" dxfId="407" priority="417">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="402">
+    <cfRule type="expression" dxfId="406" priority="418">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="403">
+    <cfRule type="expression" dxfId="405" priority="419">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="404">
+    <cfRule type="expression" dxfId="404" priority="420">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="405">
+    <cfRule type="expression" dxfId="403" priority="421">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="406">
+    <cfRule type="expression" dxfId="402" priority="422">
       <formula>BJ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="407">
+    <cfRule type="expression" dxfId="401" priority="423">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="408">
+    <cfRule type="expression" dxfId="400" priority="424">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH24">
-    <cfRule type="expression" dxfId="399" priority="393">
+    <cfRule type="expression" dxfId="399" priority="409">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="394">
+    <cfRule type="expression" dxfId="398" priority="410">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="395">
+    <cfRule type="expression" dxfId="397" priority="411">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="396">
+    <cfRule type="expression" dxfId="396" priority="412">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="397">
+    <cfRule type="expression" dxfId="395" priority="413">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="398">
+    <cfRule type="expression" dxfId="394" priority="414">
       <formula>BH$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="399">
+    <cfRule type="expression" dxfId="393" priority="415">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="400">
+    <cfRule type="expression" dxfId="392" priority="416">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH25">
-    <cfRule type="expression" dxfId="391" priority="385">
+    <cfRule type="expression" dxfId="391" priority="401">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="386">
+    <cfRule type="expression" dxfId="390" priority="402">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="387">
+    <cfRule type="expression" dxfId="389" priority="403">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="388">
+    <cfRule type="expression" dxfId="388" priority="404">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="389">
+    <cfRule type="expression" dxfId="387" priority="405">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="390">
+    <cfRule type="expression" dxfId="386" priority="406">
       <formula>BH$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="391">
+    <cfRule type="expression" dxfId="385" priority="407">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="392">
+    <cfRule type="expression" dxfId="384" priority="408">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH26">
-    <cfRule type="expression" dxfId="383" priority="377">
+    <cfRule type="expression" dxfId="383" priority="393">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="378">
+    <cfRule type="expression" dxfId="382" priority="394">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="379">
+    <cfRule type="expression" dxfId="381" priority="395">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="380">
+    <cfRule type="expression" dxfId="380" priority="396">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="381">
+    <cfRule type="expression" dxfId="379" priority="397">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="382">
+    <cfRule type="expression" dxfId="378" priority="398">
       <formula>BH$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="383">
+    <cfRule type="expression" dxfId="377" priority="399">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="384">
+    <cfRule type="expression" dxfId="376" priority="400">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF24">
-    <cfRule type="expression" dxfId="375" priority="369">
+    <cfRule type="expression" dxfId="375" priority="385">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="370">
+    <cfRule type="expression" dxfId="374" priority="386">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="371">
+    <cfRule type="expression" dxfId="373" priority="387">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="372">
+    <cfRule type="expression" dxfId="372" priority="388">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="373">
+    <cfRule type="expression" dxfId="371" priority="389">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="374">
+    <cfRule type="expression" dxfId="370" priority="390">
       <formula>BF$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="375">
+    <cfRule type="expression" dxfId="369" priority="391">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="376">
+    <cfRule type="expression" dxfId="368" priority="392">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF25">
-    <cfRule type="expression" dxfId="367" priority="361">
+    <cfRule type="expression" dxfId="367" priority="377">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="362">
+    <cfRule type="expression" dxfId="366" priority="378">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="363">
+    <cfRule type="expression" dxfId="365" priority="379">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="364">
+    <cfRule type="expression" dxfId="364" priority="380">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="365">
+    <cfRule type="expression" dxfId="363" priority="381">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="366">
+    <cfRule type="expression" dxfId="362" priority="382">
       <formula>BF$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="367">
+    <cfRule type="expression" dxfId="361" priority="383">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="368">
+    <cfRule type="expression" dxfId="360" priority="384">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF26">
-    <cfRule type="expression" dxfId="359" priority="353">
+    <cfRule type="expression" dxfId="359" priority="369">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="354">
+    <cfRule type="expression" dxfId="358" priority="370">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="355">
+    <cfRule type="expression" dxfId="357" priority="371">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="356">
+    <cfRule type="expression" dxfId="356" priority="372">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="357">
+    <cfRule type="expression" dxfId="355" priority="373">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="358">
+    <cfRule type="expression" dxfId="354" priority="374">
       <formula>BF$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="359">
+    <cfRule type="expression" dxfId="353" priority="375">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="360">
+    <cfRule type="expression" dxfId="352" priority="376">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD24">
-    <cfRule type="expression" dxfId="351" priority="345">
+    <cfRule type="expression" dxfId="351" priority="361">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="346">
+    <cfRule type="expression" dxfId="350" priority="362">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="347">
+    <cfRule type="expression" dxfId="349" priority="363">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="348">
+    <cfRule type="expression" dxfId="348" priority="364">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="349">
+    <cfRule type="expression" dxfId="347" priority="365">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="350">
+    <cfRule type="expression" dxfId="346" priority="366">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="351">
+    <cfRule type="expression" dxfId="345" priority="367">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="352">
+    <cfRule type="expression" dxfId="344" priority="368">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD25">
-    <cfRule type="expression" dxfId="343" priority="337">
+    <cfRule type="expression" dxfId="343" priority="353">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="338">
+    <cfRule type="expression" dxfId="342" priority="354">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="339">
+    <cfRule type="expression" dxfId="341" priority="355">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="340">
+    <cfRule type="expression" dxfId="340" priority="356">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="341">
+    <cfRule type="expression" dxfId="339" priority="357">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="342">
+    <cfRule type="expression" dxfId="338" priority="358">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="343">
+    <cfRule type="expression" dxfId="337" priority="359">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="344">
+    <cfRule type="expression" dxfId="336" priority="360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD26">
-    <cfRule type="expression" dxfId="335" priority="329">
+    <cfRule type="expression" dxfId="335" priority="345">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="330">
+    <cfRule type="expression" dxfId="334" priority="346">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="331">
+    <cfRule type="expression" dxfId="333" priority="347">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="332">
+    <cfRule type="expression" dxfId="332" priority="348">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="333">
+    <cfRule type="expression" dxfId="331" priority="349">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="334">
+    <cfRule type="expression" dxfId="330" priority="350">
       <formula>BD$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="335">
+    <cfRule type="expression" dxfId="329" priority="351">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="336">
+    <cfRule type="expression" dxfId="328" priority="352">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB24">
-    <cfRule type="expression" dxfId="327" priority="321">
+    <cfRule type="expression" dxfId="327" priority="337">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="322">
+    <cfRule type="expression" dxfId="326" priority="338">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="323">
+    <cfRule type="expression" dxfId="325" priority="339">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="324">
+    <cfRule type="expression" dxfId="324" priority="340">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="325">
+    <cfRule type="expression" dxfId="323" priority="341">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="326">
+    <cfRule type="expression" dxfId="322" priority="342">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="327">
+    <cfRule type="expression" dxfId="321" priority="343">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="328">
+    <cfRule type="expression" dxfId="320" priority="344">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB25">
-    <cfRule type="expression" dxfId="319" priority="313">
+    <cfRule type="expression" dxfId="319" priority="329">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="314">
+    <cfRule type="expression" dxfId="318" priority="330">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="315">
+    <cfRule type="expression" dxfId="317" priority="331">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="316">
+    <cfRule type="expression" dxfId="316" priority="332">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="317">
+    <cfRule type="expression" dxfId="315" priority="333">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="318">
+    <cfRule type="expression" dxfId="314" priority="334">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="319">
+    <cfRule type="expression" dxfId="313" priority="335">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="320">
+    <cfRule type="expression" dxfId="312" priority="336">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB26">
-    <cfRule type="expression" dxfId="311" priority="305">
+    <cfRule type="expression" dxfId="311" priority="321">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="306">
+    <cfRule type="expression" dxfId="310" priority="322">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="307">
+    <cfRule type="expression" dxfId="309" priority="323">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="308">
+    <cfRule type="expression" dxfId="308" priority="324">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="309">
+    <cfRule type="expression" dxfId="307" priority="325">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="310">
+    <cfRule type="expression" dxfId="306" priority="326">
       <formula>BB$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="311">
+    <cfRule type="expression" dxfId="305" priority="327">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="312">
+    <cfRule type="expression" dxfId="304" priority="328">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ23">
-    <cfRule type="expression" dxfId="303" priority="297">
+    <cfRule type="expression" dxfId="303" priority="313">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="298">
+    <cfRule type="expression" dxfId="302" priority="314">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="299">
+    <cfRule type="expression" dxfId="301" priority="315">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="300">
+    <cfRule type="expression" dxfId="300" priority="316">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="301">
+    <cfRule type="expression" dxfId="299" priority="317">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="302">
+    <cfRule type="expression" dxfId="298" priority="318">
       <formula>AZ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="303">
+    <cfRule type="expression" dxfId="297" priority="319">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="304">
+    <cfRule type="expression" dxfId="296" priority="320">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ22">
-    <cfRule type="expression" dxfId="295" priority="289">
+    <cfRule type="expression" dxfId="295" priority="305">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="290">
+    <cfRule type="expression" dxfId="294" priority="306">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="291">
+    <cfRule type="expression" dxfId="293" priority="307">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="292">
+    <cfRule type="expression" dxfId="292" priority="308">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="293">
+    <cfRule type="expression" dxfId="291" priority="309">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="294">
+    <cfRule type="expression" dxfId="290" priority="310">
       <formula>AZ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="295">
+    <cfRule type="expression" dxfId="289" priority="311">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="296">
+    <cfRule type="expression" dxfId="288" priority="312">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ21">
-    <cfRule type="expression" dxfId="287" priority="281">
+    <cfRule type="expression" dxfId="287" priority="297">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="282">
+    <cfRule type="expression" dxfId="286" priority="298">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="283">
+    <cfRule type="expression" dxfId="285" priority="299">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="284">
+    <cfRule type="expression" dxfId="284" priority="300">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="285">
+    <cfRule type="expression" dxfId="283" priority="301">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="286">
+    <cfRule type="expression" dxfId="282" priority="302">
       <formula>AZ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="287">
+    <cfRule type="expression" dxfId="281" priority="303">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="288">
+    <cfRule type="expression" dxfId="280" priority="304">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA18:BA20">
-    <cfRule type="expression" dxfId="279" priority="273">
+    <cfRule type="expression" dxfId="279" priority="289">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="274">
+    <cfRule type="expression" dxfId="278" priority="290">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="275">
+    <cfRule type="expression" dxfId="277" priority="291">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="276">
+    <cfRule type="expression" dxfId="276" priority="292">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="277">
+    <cfRule type="expression" dxfId="275" priority="293">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="278">
+    <cfRule type="expression" dxfId="274" priority="294">
       <formula>BA$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="279">
+    <cfRule type="expression" dxfId="273" priority="295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="280">
+    <cfRule type="expression" dxfId="272" priority="296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ20">
-    <cfRule type="expression" dxfId="271" priority="265">
+    <cfRule type="expression" dxfId="271" priority="281">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="266">
+    <cfRule type="expression" dxfId="270" priority="282">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="267">
+    <cfRule type="expression" dxfId="269" priority="283">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="268">
+    <cfRule type="expression" dxfId="268" priority="284">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="269">
+    <cfRule type="expression" dxfId="267" priority="285">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="270">
+    <cfRule type="expression" dxfId="266" priority="286">
       <formula>AZ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="271">
+    <cfRule type="expression" dxfId="265" priority="287">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="272">
+    <cfRule type="expression" dxfId="264" priority="288">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ19">
-    <cfRule type="expression" dxfId="263" priority="257">
+    <cfRule type="expression" dxfId="263" priority="273">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="258">
+    <cfRule type="expression" dxfId="262" priority="274">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="259">
+    <cfRule type="expression" dxfId="261" priority="275">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="260">
+    <cfRule type="expression" dxfId="260" priority="276">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="261">
+    <cfRule type="expression" dxfId="259" priority="277">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="262">
+    <cfRule type="expression" dxfId="258" priority="278">
       <formula>AZ$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="263">
+    <cfRule type="expression" dxfId="257" priority="279">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="264">
+    <cfRule type="expression" dxfId="256" priority="280">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX19">
-    <cfRule type="expression" dxfId="255" priority="249">
+    <cfRule type="expression" dxfId="255" priority="265">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="250">
+    <cfRule type="expression" dxfId="254" priority="266">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="251">
+    <cfRule type="expression" dxfId="253" priority="267">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="252">
+    <cfRule type="expression" dxfId="252" priority="268">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="253">
+    <cfRule type="expression" dxfId="251" priority="269">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="254">
+    <cfRule type="expression" dxfId="250" priority="270">
       <formula>AX$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="255">
+    <cfRule type="expression" dxfId="249" priority="271">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="256">
+    <cfRule type="expression" dxfId="248" priority="272">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX20">
-    <cfRule type="expression" dxfId="247" priority="241">
+    <cfRule type="expression" dxfId="247" priority="257">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="242">
+    <cfRule type="expression" dxfId="246" priority="258">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="243">
+    <cfRule type="expression" dxfId="245" priority="259">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="244">
+    <cfRule type="expression" dxfId="244" priority="260">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="245">
+    <cfRule type="expression" dxfId="243" priority="261">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="246">
+    <cfRule type="expression" dxfId="242" priority="262">
       <formula>AX$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="247">
+    <cfRule type="expression" dxfId="241" priority="263">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="248">
+    <cfRule type="expression" dxfId="240" priority="264">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX21">
-    <cfRule type="expression" dxfId="239" priority="233">
+    <cfRule type="expression" dxfId="239" priority="249">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="234">
+    <cfRule type="expression" dxfId="238" priority="250">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="235">
+    <cfRule type="expression" dxfId="237" priority="251">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="236">
+    <cfRule type="expression" dxfId="236" priority="252">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="237">
+    <cfRule type="expression" dxfId="235" priority="253">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="238">
+    <cfRule type="expression" dxfId="234" priority="254">
       <formula>AX$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="239">
+    <cfRule type="expression" dxfId="233" priority="255">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="240">
+    <cfRule type="expression" dxfId="232" priority="256">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX22">
-    <cfRule type="expression" dxfId="231" priority="225">
+    <cfRule type="expression" dxfId="231" priority="241">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="226">
+    <cfRule type="expression" dxfId="230" priority="242">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="227">
+    <cfRule type="expression" dxfId="229" priority="243">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="228">
+    <cfRule type="expression" dxfId="228" priority="244">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="229">
+    <cfRule type="expression" dxfId="227" priority="245">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="230">
+    <cfRule type="expression" dxfId="226" priority="246">
       <formula>AX$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="231">
+    <cfRule type="expression" dxfId="225" priority="247">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="232">
+    <cfRule type="expression" dxfId="224" priority="248">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX23">
-    <cfRule type="expression" dxfId="223" priority="217">
+    <cfRule type="expression" dxfId="223" priority="233">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="218">
+    <cfRule type="expression" dxfId="222" priority="234">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="219">
+    <cfRule type="expression" dxfId="221" priority="235">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="220">
+    <cfRule type="expression" dxfId="220" priority="236">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="221">
+    <cfRule type="expression" dxfId="219" priority="237">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="222">
+    <cfRule type="expression" dxfId="218" priority="238">
       <formula>AX$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="223">
+    <cfRule type="expression" dxfId="217" priority="239">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="224">
+    <cfRule type="expression" dxfId="216" priority="240">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC18">
-    <cfRule type="expression" dxfId="215" priority="209">
+    <cfRule type="expression" dxfId="215" priority="225">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="210">
+    <cfRule type="expression" dxfId="214" priority="226">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="211">
+    <cfRule type="expression" dxfId="213" priority="227">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="212">
+    <cfRule type="expression" dxfId="212" priority="228">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="213">
+    <cfRule type="expression" dxfId="211" priority="229">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="214">
+    <cfRule type="expression" dxfId="210" priority="230">
       <formula>BC$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="215">
+    <cfRule type="expression" dxfId="209" priority="231">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="216">
+    <cfRule type="expression" dxfId="208" priority="232">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE18">
-    <cfRule type="expression" dxfId="207" priority="201">
+    <cfRule type="expression" dxfId="207" priority="217">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="202">
+    <cfRule type="expression" dxfId="206" priority="218">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="203">
+    <cfRule type="expression" dxfId="205" priority="219">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="204">
+    <cfRule type="expression" dxfId="204" priority="220">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="205">
+    <cfRule type="expression" dxfId="203" priority="221">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="206">
+    <cfRule type="expression" dxfId="202" priority="222">
       <formula>BE$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="207">
+    <cfRule type="expression" dxfId="201" priority="223">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="208">
+    <cfRule type="expression" dxfId="200" priority="224">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG18">
-    <cfRule type="expression" dxfId="199" priority="193">
+    <cfRule type="expression" dxfId="199" priority="209">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="194">
+    <cfRule type="expression" dxfId="198" priority="210">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="195">
+    <cfRule type="expression" dxfId="197" priority="211">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="196">
+    <cfRule type="expression" dxfId="196" priority="212">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="197">
+    <cfRule type="expression" dxfId="195" priority="213">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="198">
+    <cfRule type="expression" dxfId="194" priority="214">
       <formula>BG$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="199">
+    <cfRule type="expression" dxfId="193" priority="215">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="200">
+    <cfRule type="expression" dxfId="192" priority="216">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI18">
-    <cfRule type="expression" dxfId="191" priority="185">
+    <cfRule type="expression" dxfId="191" priority="201">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="186">
+    <cfRule type="expression" dxfId="190" priority="202">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="187">
+    <cfRule type="expression" dxfId="189" priority="203">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="188">
+    <cfRule type="expression" dxfId="188" priority="204">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="189">
+    <cfRule type="expression" dxfId="187" priority="205">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="190">
+    <cfRule type="expression" dxfId="186" priority="206">
       <formula>BI$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="191">
+    <cfRule type="expression" dxfId="185" priority="207">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="192">
+    <cfRule type="expression" dxfId="184" priority="208">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK18">
-    <cfRule type="expression" dxfId="183" priority="177">
+    <cfRule type="expression" dxfId="183" priority="193">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="178">
+    <cfRule type="expression" dxfId="182" priority="194">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="179">
+    <cfRule type="expression" dxfId="181" priority="195">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="180">
+    <cfRule type="expression" dxfId="180" priority="196">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="181">
+    <cfRule type="expression" dxfId="179" priority="197">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="182">
+    <cfRule type="expression" dxfId="178" priority="198">
       <formula>BK$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="183">
+    <cfRule type="expression" dxfId="177" priority="199">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="184">
+    <cfRule type="expression" dxfId="176" priority="200">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24">
-    <cfRule type="expression" dxfId="175" priority="169">
+    <cfRule type="expression" dxfId="175" priority="185">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="170">
+    <cfRule type="expression" dxfId="174" priority="186">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="171">
+    <cfRule type="expression" dxfId="173" priority="187">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="172">
+    <cfRule type="expression" dxfId="172" priority="188">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="173">
+    <cfRule type="expression" dxfId="171" priority="189">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="174">
+    <cfRule type="expression" dxfId="170" priority="190">
       <formula>BK$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="175">
+    <cfRule type="expression" dxfId="169" priority="191">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="176">
+    <cfRule type="expression" dxfId="168" priority="192">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK25">
-    <cfRule type="expression" dxfId="167" priority="161">
+    <cfRule type="expression" dxfId="167" priority="177">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="162">
+    <cfRule type="expression" dxfId="166" priority="178">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="163">
+    <cfRule type="expression" dxfId="165" priority="179">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="164">
+    <cfRule type="expression" dxfId="164" priority="180">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="165">
+    <cfRule type="expression" dxfId="163" priority="181">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="166">
+    <cfRule type="expression" dxfId="162" priority="182">
       <formula>BK$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="167">
+    <cfRule type="expression" dxfId="161" priority="183">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="168">
+    <cfRule type="expression" dxfId="160" priority="184">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK26">
-    <cfRule type="expression" dxfId="159" priority="153">
+    <cfRule type="expression" dxfId="159" priority="169">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="154">
+    <cfRule type="expression" dxfId="158" priority="170">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="155">
+    <cfRule type="expression" dxfId="157" priority="171">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="156">
+    <cfRule type="expression" dxfId="156" priority="172">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="157">
+    <cfRule type="expression" dxfId="155" priority="173">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="158">
+    <cfRule type="expression" dxfId="154" priority="174">
       <formula>BK$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="159">
+    <cfRule type="expression" dxfId="153" priority="175">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="160">
+    <cfRule type="expression" dxfId="152" priority="176">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI26">
-    <cfRule type="expression" dxfId="151" priority="145">
+    <cfRule type="expression" dxfId="151" priority="161">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="146">
+    <cfRule type="expression" dxfId="150" priority="162">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="147">
+    <cfRule type="expression" dxfId="149" priority="163">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="148">
+    <cfRule type="expression" dxfId="148" priority="164">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="149">
+    <cfRule type="expression" dxfId="147" priority="165">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="150">
+    <cfRule type="expression" dxfId="146" priority="166">
       <formula>BI$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="151">
+    <cfRule type="expression" dxfId="145" priority="167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="152">
+    <cfRule type="expression" dxfId="144" priority="168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI25">
-    <cfRule type="expression" dxfId="143" priority="137">
+    <cfRule type="expression" dxfId="143" priority="153">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="138">
+    <cfRule type="expression" dxfId="142" priority="154">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="139">
+    <cfRule type="expression" dxfId="141" priority="155">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="140">
+    <cfRule type="expression" dxfId="140" priority="156">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="141">
+    <cfRule type="expression" dxfId="139" priority="157">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="142">
+    <cfRule type="expression" dxfId="138" priority="158">
       <formula>BI$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="143">
+    <cfRule type="expression" dxfId="137" priority="159">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="144">
+    <cfRule type="expression" dxfId="136" priority="160">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI24">
-    <cfRule type="expression" dxfId="135" priority="129">
+    <cfRule type="expression" dxfId="135" priority="145">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="130">
+    <cfRule type="expression" dxfId="134" priority="146">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="131">
+    <cfRule type="expression" dxfId="133" priority="147">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="132">
+    <cfRule type="expression" dxfId="132" priority="148">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="133">
+    <cfRule type="expression" dxfId="131" priority="149">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="134">
+    <cfRule type="expression" dxfId="130" priority="150">
       <formula>BI$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="135">
+    <cfRule type="expression" dxfId="129" priority="151">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="136">
+    <cfRule type="expression" dxfId="128" priority="152">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG24">
-    <cfRule type="expression" dxfId="127" priority="121">
+    <cfRule type="expression" dxfId="127" priority="137">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="122">
+    <cfRule type="expression" dxfId="126" priority="138">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="123">
+    <cfRule type="expression" dxfId="125" priority="139">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="124">
+    <cfRule type="expression" dxfId="124" priority="140">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="125">
+    <cfRule type="expression" dxfId="123" priority="141">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="126">
+    <cfRule type="expression" dxfId="122" priority="142">
       <formula>BG$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="127">
+    <cfRule type="expression" dxfId="121" priority="143">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="128">
+    <cfRule type="expression" dxfId="120" priority="144">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG25">
-    <cfRule type="expression" dxfId="119" priority="113">
+    <cfRule type="expression" dxfId="119" priority="129">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="114">
+    <cfRule type="expression" dxfId="118" priority="130">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="115">
+    <cfRule type="expression" dxfId="117" priority="131">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="116">
+    <cfRule type="expression" dxfId="116" priority="132">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="117">
+    <cfRule type="expression" dxfId="115" priority="133">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="118">
+    <cfRule type="expression" dxfId="114" priority="134">
       <formula>BG$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="119">
+    <cfRule type="expression" dxfId="113" priority="135">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="120">
+    <cfRule type="expression" dxfId="112" priority="136">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG26">
-    <cfRule type="expression" dxfId="111" priority="105">
+    <cfRule type="expression" dxfId="111" priority="121">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="106">
+    <cfRule type="expression" dxfId="110" priority="122">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="107">
+    <cfRule type="expression" dxfId="109" priority="123">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="108">
+    <cfRule type="expression" dxfId="108" priority="124">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="109">
+    <cfRule type="expression" dxfId="107" priority="125">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="110">
+    <cfRule type="expression" dxfId="106" priority="126">
       <formula>BG$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="111">
+    <cfRule type="expression" dxfId="105" priority="127">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="112">
+    <cfRule type="expression" dxfId="104" priority="128">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE24">
-    <cfRule type="expression" dxfId="103" priority="97">
+    <cfRule type="expression" dxfId="103" priority="113">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="98">
+    <cfRule type="expression" dxfId="102" priority="114">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="99">
+    <cfRule type="expression" dxfId="101" priority="115">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="100">
+    <cfRule type="expression" dxfId="100" priority="116">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="101">
+    <cfRule type="expression" dxfId="99" priority="117">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="102">
+    <cfRule type="expression" dxfId="98" priority="118">
       <formula>BE$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="103">
+    <cfRule type="expression" dxfId="97" priority="119">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="104">
+    <cfRule type="expression" dxfId="96" priority="120">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE25">
-    <cfRule type="expression" dxfId="95" priority="89">
+    <cfRule type="expression" dxfId="95" priority="105">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="90">
+    <cfRule type="expression" dxfId="94" priority="106">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="91">
+    <cfRule type="expression" dxfId="93" priority="107">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="92">
+    <cfRule type="expression" dxfId="92" priority="108">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="93">
+    <cfRule type="expression" dxfId="91" priority="109">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="94">
+    <cfRule type="expression" dxfId="90" priority="110">
       <formula>BE$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="95">
+    <cfRule type="expression" dxfId="89" priority="111">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="96">
+    <cfRule type="expression" dxfId="88" priority="112">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE26">
-    <cfRule type="expression" dxfId="87" priority="81">
+    <cfRule type="expression" dxfId="87" priority="97">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="82">
+    <cfRule type="expression" dxfId="86" priority="98">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="83">
+    <cfRule type="expression" dxfId="85" priority="99">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="84">
+    <cfRule type="expression" dxfId="84" priority="100">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="85">
+    <cfRule type="expression" dxfId="83" priority="101">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="86">
+    <cfRule type="expression" dxfId="82" priority="102">
       <formula>BE$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="87">
+    <cfRule type="expression" dxfId="81" priority="103">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="88">
+    <cfRule type="expression" dxfId="80" priority="104">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC24">
-    <cfRule type="expression" dxfId="79" priority="73">
+    <cfRule type="expression" dxfId="79" priority="89">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="74">
+    <cfRule type="expression" dxfId="78" priority="90">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="75">
+    <cfRule type="expression" dxfId="77" priority="91">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="76">
+    <cfRule type="expression" dxfId="76" priority="92">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="77">
+    <cfRule type="expression" dxfId="75" priority="93">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="78">
+    <cfRule type="expression" dxfId="74" priority="94">
       <formula>BC$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="79">
+    <cfRule type="expression" dxfId="73" priority="95">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="80">
+    <cfRule type="expression" dxfId="72" priority="96">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC25">
-    <cfRule type="expression" dxfId="71" priority="65">
+    <cfRule type="expression" dxfId="71" priority="81">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="66">
+    <cfRule type="expression" dxfId="70" priority="82">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="67">
+    <cfRule type="expression" dxfId="69" priority="83">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="68">
+    <cfRule type="expression" dxfId="68" priority="84">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="69">
+    <cfRule type="expression" dxfId="67" priority="85">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="70">
+    <cfRule type="expression" dxfId="66" priority="86">
       <formula>BC$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="71">
+    <cfRule type="expression" dxfId="65" priority="87">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="72">
+    <cfRule type="expression" dxfId="64" priority="88">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC26">
-    <cfRule type="expression" dxfId="63" priority="57">
+    <cfRule type="expression" dxfId="63" priority="73">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="58">
+    <cfRule type="expression" dxfId="62" priority="74">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="59">
+    <cfRule type="expression" dxfId="61" priority="75">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="60">
+    <cfRule type="expression" dxfId="60" priority="76">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="61">
+    <cfRule type="expression" dxfId="59" priority="77">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="62">
+    <cfRule type="expression" dxfId="58" priority="78">
       <formula>BC$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="63">
+    <cfRule type="expression" dxfId="57" priority="79">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64">
+    <cfRule type="expression" dxfId="56" priority="80">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY18">
-    <cfRule type="expression" dxfId="55" priority="49">
+    <cfRule type="expression" dxfId="55" priority="65">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="50">
+    <cfRule type="expression" dxfId="54" priority="66">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="51">
+    <cfRule type="expression" dxfId="53" priority="67">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="52" priority="68">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="51" priority="69">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54">
+    <cfRule type="expression" dxfId="50" priority="70">
       <formula>AY$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="55">
+    <cfRule type="expression" dxfId="49" priority="71">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="56">
+    <cfRule type="expression" dxfId="48" priority="72">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY19">
-    <cfRule type="expression" dxfId="47" priority="41">
+    <cfRule type="expression" dxfId="47" priority="57">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="46" priority="58">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="43">
+    <cfRule type="expression" dxfId="45" priority="59">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="44">
+    <cfRule type="expression" dxfId="44" priority="60">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="43" priority="61">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="42" priority="62">
       <formula>AY$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="47">
+    <cfRule type="expression" dxfId="41" priority="63">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="48">
+    <cfRule type="expression" dxfId="40" priority="64">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY20">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="39" priority="49">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="38" priority="50">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="37" priority="51">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="36" priority="52">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="35" priority="53">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="34" priority="54">
       <formula>AY$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="33" priority="55">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
+    <cfRule type="expression" dxfId="32" priority="56">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY21">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="31" priority="41">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="30" priority="42">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="29" priority="43">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="28" priority="44">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="27" priority="45">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="26" priority="46">
       <formula>AY$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="25" priority="47">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32">
+    <cfRule type="expression" dxfId="24" priority="48">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY22">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="23" priority="33">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="22" priority="34">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="21" priority="35">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="20" priority="36">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="19" priority="37">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="18" priority="38">
       <formula>AY$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="17" priority="39">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="16" priority="40">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY23">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="15" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="14" priority="26">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="13" priority="27">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="12" priority="28">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="11" priority="29">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="10" priority="30">
       <formula>AY$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="9" priority="31">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="8" priority="32">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA23">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="6" priority="18">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="5" priority="19">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="3" priority="21">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="2" priority="22">
       <formula>BA$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="1" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="0" priority="24">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27370,7 +27322,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB69DC95-7FDD-41C7-8C5A-9C252BA9CE11}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{335759CF-1750-4368-9C31-18F3585F2639}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -27378,7 +27330,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C939B73-305F-4519-99CF-96566393E6C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF4DE730-B65B-42A1-98D4-24C32684394D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -27397,12 +27349,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EE08FE2-CBC0-44B6-9C7F-97830DA2686B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A4BEDE-00AD-4A4C-AF79-0545CF712599}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="2ea5f775-ed24-46bc-9f18-67083e4aa040"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="6df274e3-23b4-4b80-84e4-56bc22e209d4"/>
-    <ds:schemaRef ds:uri="2ea5f775-ed24-46bc-9f18-67083e4aa040"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau.sharepoint.com/sites/SoftwareTechnologiesAssignment955/Shared Documents/General/Docs for repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{0AB88982-5E5D-034B-89F5-16015659FFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E05C683-1A32-9348-8C06-3F8DFEB19C46}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{0AB88982-5E5D-034B-89F5-16015659FFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B068691E-E7D0-4747-A1BB-ADC0675E740C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,44 +682,44 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -21011,8 +21011,8 @@
   </sheetPr>
   <dimension ref="B1:BY42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R24" zoomScaleNormal="125" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21042,13 +21042,13 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:77" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
@@ -21056,37 +21056,37 @@
         <v>5</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="36"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="40"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="38" t="s">
+      <c r="AA2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="40"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="36"/>
       <c r="AH2" s="20"/>
       <c r="AI2" s="22" t="s">
         <v>7</v>
@@ -21100,22 +21100,22 @@
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:77" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="28" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -21142,12 +21142,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -22079,10 +22079,14 @@
       <c r="D27" s="7">
         <v>15</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="E27" s="7">
+        <v>35</v>
+      </c>
+      <c r="F27" s="7">
+        <v>20</v>
+      </c>
       <c r="G27" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP27" s="24"/>
       <c r="BQ27" s="24"/>
@@ -22105,10 +22109,14 @@
       <c r="D28" s="7">
         <v>10</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="E28" s="7">
+        <v>35</v>
+      </c>
+      <c r="F28" s="7">
+        <v>20</v>
+      </c>
       <c r="G28" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP28" s="24"/>
       <c r="BQ28" s="24"/>
@@ -22131,10 +22139,14 @@
       <c r="D29" s="7">
         <v>10</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="7">
+        <v>35</v>
+      </c>
+      <c r="F29" s="7">
+        <v>20</v>
+      </c>
       <c r="G29" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP29" s="24"/>
       <c r="BQ29" s="24"/>
@@ -22157,10 +22169,14 @@
       <c r="D30" s="7">
         <v>10</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="7">
+        <v>35</v>
+      </c>
+      <c r="F30" s="7">
+        <v>20</v>
+      </c>
       <c r="G30" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP30" s="24"/>
       <c r="BQ30" s="24"/>
@@ -22183,10 +22199,14 @@
       <c r="D31" s="7">
         <v>10</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="7">
+        <v>35</v>
+      </c>
+      <c r="F31" s="7">
+        <v>20</v>
+      </c>
       <c r="G31" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP31" s="24"/>
       <c r="BQ31" s="24"/>
@@ -22209,10 +22229,14 @@
       <c r="D32" s="7">
         <v>10</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="7">
+        <v>35</v>
+      </c>
+      <c r="F32" s="7">
+        <v>20</v>
+      </c>
       <c r="G32" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP32" s="24"/>
       <c r="BQ32" s="24"/>
@@ -22235,10 +22259,14 @@
       <c r="D33" s="7">
         <v>6</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="7">
+        <v>45</v>
+      </c>
+      <c r="F33" s="7">
+        <v>7</v>
+      </c>
       <c r="G33" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP33" s="24"/>
       <c r="BQ33" s="24"/>
@@ -22261,10 +22289,14 @@
       <c r="D34" s="7">
         <v>6</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="7">
+        <v>45</v>
+      </c>
+      <c r="F34" s="7">
+        <v>7</v>
+      </c>
       <c r="G34" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP34" s="24"/>
       <c r="BQ34" s="24"/>
@@ -22287,10 +22319,14 @@
       <c r="D35" s="7">
         <v>3</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="7">
+        <v>47</v>
+      </c>
+      <c r="F35" s="7">
+        <v>5</v>
+      </c>
       <c r="G35" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP35" s="24"/>
       <c r="BQ35" s="24"/>
@@ -22313,10 +22349,14 @@
       <c r="D36" s="7">
         <v>3</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="7">
+        <v>50</v>
+      </c>
+      <c r="F36" s="7">
+        <v>2</v>
+      </c>
       <c r="G36" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP36" s="24"/>
       <c r="BQ36" s="24"/>
@@ -22339,10 +22379,14 @@
       <c r="D37" s="7">
         <v>5</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="E37" s="7">
+        <v>52</v>
+      </c>
+      <c r="F37" s="7">
+        <v>5</v>
+      </c>
       <c r="G37" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP37" s="24"/>
       <c r="BQ37" s="24"/>
@@ -22365,10 +22409,14 @@
       <c r="D38" s="7">
         <v>3</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="E38" s="7">
+        <v>52</v>
+      </c>
+      <c r="F38" s="7">
+        <v>3</v>
+      </c>
       <c r="G38" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP38" s="24"/>
       <c r="BQ38" s="24"/>
@@ -22391,10 +22439,14 @@
       <c r="D39" s="7">
         <v>3</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="E39" s="7">
+        <v>52</v>
+      </c>
+      <c r="F39" s="7">
+        <v>3</v>
+      </c>
       <c r="G39" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP39" s="24"/>
       <c r="BQ39" s="24"/>
@@ -22417,9 +22469,15 @@
       <c r="D40" s="7">
         <v>3</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
+      <c r="E40" s="7">
+        <v>52</v>
+      </c>
+      <c r="F40" s="7">
+        <v>3</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
       <c r="BP40" s="24"/>
       <c r="BQ40" s="24"/>
       <c r="BR40" s="24"/>
@@ -22441,10 +22499,14 @@
       <c r="D41" s="7">
         <v>4</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="E41" s="7">
+        <v>52</v>
+      </c>
+      <c r="F41" s="7">
+        <v>3</v>
+      </c>
       <c r="G41" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP41" s="24"/>
       <c r="BQ41" s="24"/>
@@ -22471,17 +22533,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:BN7 O8:BN9 H10:N11 H12:P12 H13:R13 H14:T14 H15:Y15 AH14:BN14 AC13:BN13 Y12:BN12 T11:BN11 AQ15:BN17 BE19:BN23 BL18:BN18 BL24:BN26 H24:BA26 BC19:BC23 H27:BN35 S5:BM5 H8:M9 H17:AP19 AL15:AL16 H16:AJ16 AP10:BN10 AA15:AD15 AF15:AH15 X14:Z14 X13:AA13 T13:V13 H21:AP23 H20:AN20 AP20">
     <cfRule type="expression" dxfId="1416" priority="1481">
@@ -27125,15 +27187,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010025C8491B1E7C9340AA6C1A201E2E1954" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="08334ad3827df19e88ea5eb849f9f62d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6df274e3-23b4-4b80-84e4-56bc22e209d4" xmlns:ns3="2ea5f775-ed24-46bc-9f18-67083e4aa040" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c22eaa7da7d9e098f79b657f8a7b7bb5" ns2:_="" ns3:_="">
     <xsd:import namespace="6df274e3-23b4-4b80-84e4-56bc22e209d4"/>
@@ -27310,6 +27363,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -27322,14 +27384,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{335759CF-1750-4368-9C31-18F3585F2639}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF4DE730-B65B-42A1-98D4-24C32684394D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27348,16 +27402,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{335759CF-1750-4368-9C31-18F3585F2639}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A4BEDE-00AD-4A4C-AF79-0545CF712599}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="2ea5f775-ed24-46bc-9f18-67083e4aa040"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="2ea5f775-ed24-46bc-9f18-67083e4aa040"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="6df274e3-23b4-4b80-84e4-56bc22e209d4"/>
